--- a/indicators/Stoch/Stoch.Calc.xlsx
+++ b/indicators/Stoch/Stoch.Calc.xlsx
@@ -9,12 +9,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daves\Repos\Stock.Indicators\indicators\Stoch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356102D2-24BB-4A17-A9F0-0216860774BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1FCD2B-74A5-4648-B17E-6302C4DC9F10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Stochastic" sheetId="1" r:id="rId1"/>
+    <sheet name="STO(14,3,3)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="16">
   <si>
     <t>symbol</t>
   </si>
@@ -67,13 +67,16 @@
     <t>HH</t>
   </si>
   <si>
-    <t>D(3)</t>
-  </si>
-  <si>
     <t>K(14)'</t>
   </si>
   <si>
-    <t>K(41,3)</t>
+    <t>%K</t>
+  </si>
+  <si>
+    <t>%J</t>
+  </si>
+  <si>
+    <t>%D</t>
   </si>
 </sst>
 </file>
@@ -572,7 +575,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -608,6 +611,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="32" borderId="0" xfId="43" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="21" builtinId="30" customBuiltin="1"/>
@@ -655,7 +664,27 @@
     <cellStyle name="Total" xfId="19" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="16" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -932,29 +961,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8FE8A93B-7DCD-4B08-81FC-F6E776229EB3}" name="testdata" displayName="testdata" ref="A1:N503" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" headerRowCellStyle="Currency" dataCellStyle="Currency">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8FE8A93B-7DCD-4B08-81FC-F6E776229EB3}" name="testdata" displayName="testdata" ref="A1:O503" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" headerRowCellStyle="Currency" dataCellStyle="Currency">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:I503">
     <sortCondition ref="D2"/>
   </sortState>
-  <tableColumns count="14">
-    <tableColumn id="9" xr3:uid="{9F699A46-4958-42A4-A5C9-B52EB0EE585B}" name="Index" dataDxfId="13" dataCellStyle="Currency"/>
-    <tableColumn id="1" xr3:uid="{DD54CCF5-B894-464C-82C5-1C75A48942B7}" name="symbol" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{4C01765B-A5DE-46C8-AA90-F736AC067C2C}" name="code" dataDxfId="11">
+  <tableColumns count="15">
+    <tableColumn id="9" xr3:uid="{9F699A46-4958-42A4-A5C9-B52EB0EE585B}" name="Index" dataDxfId="14" dataCellStyle="Currency"/>
+    <tableColumn id="1" xr3:uid="{DD54CCF5-B894-464C-82C5-1C75A48942B7}" name="symbol" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{4C01765B-A5DE-46C8-AA90-F736AC067C2C}" name="code" dataDxfId="12">
       <calculatedColumnFormula>"new Quote { Date = DateTime.Parse("""&amp;TEXT(D2,"yyyy-mm-dd")&amp;"""), Open=(decimal)"&amp;E2&amp;", High=(decimal)"&amp;F2&amp;", Low=(decimal)"&amp;G2&amp;", Close=(decimal)"&amp;H2&amp;", Volume = (long)"&amp;I2&amp;" },"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{870234D4-B88D-4DBC-B1B5-A3A328FCAA43}" name="date" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{EF611352-AF5A-4141-B3FC-D86820A763EA}" name="open" dataDxfId="9" dataCellStyle="Currency"/>
-    <tableColumn id="4" xr3:uid="{74B28648-F2A3-4493-9B04-FE02A7EBAE5E}" name="high" dataDxfId="8" dataCellStyle="Currency"/>
-    <tableColumn id="5" xr3:uid="{F6126363-2529-4BAC-9F69-0710D7A587F6}" name="low" dataDxfId="7" dataCellStyle="Currency"/>
-    <tableColumn id="6" xr3:uid="{1625C5E8-2802-4281-81F5-7308EFB9EB0C}" name="close" dataDxfId="6" dataCellStyle="Currency"/>
-    <tableColumn id="7" xr3:uid="{9D524E41-7E60-45BD-80C8-513C8040D514}" name="volume" dataDxfId="5" dataCellStyle="Comma"/>
-    <tableColumn id="10" xr3:uid="{EE5B6FC9-0D0D-49FB-B1C5-3FC049385B0C}" name="LL" dataDxfId="4" dataCellStyle="Currency"/>
-    <tableColumn id="11" xr3:uid="{AA42D822-4CC7-481A-AA67-4DF2FB28D9C3}" name="HH" dataDxfId="3" dataCellStyle="Currency"/>
-    <tableColumn id="12" xr3:uid="{98BD24DF-5DED-41FA-BD5A-6351BD922579}" name="K(14)'" dataDxfId="2" dataCellStyle="Comma">
+    <tableColumn id="2" xr3:uid="{870234D4-B88D-4DBC-B1B5-A3A328FCAA43}" name="date" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{EF611352-AF5A-4141-B3FC-D86820A763EA}" name="open" dataDxfId="10" dataCellStyle="Currency"/>
+    <tableColumn id="4" xr3:uid="{74B28648-F2A3-4493-9B04-FE02A7EBAE5E}" name="high" dataDxfId="9" dataCellStyle="Currency"/>
+    <tableColumn id="5" xr3:uid="{F6126363-2529-4BAC-9F69-0710D7A587F6}" name="low" dataDxfId="8" dataCellStyle="Currency"/>
+    <tableColumn id="6" xr3:uid="{1625C5E8-2802-4281-81F5-7308EFB9EB0C}" name="close" dataDxfId="7" dataCellStyle="Currency"/>
+    <tableColumn id="7" xr3:uid="{9D524E41-7E60-45BD-80C8-513C8040D514}" name="volume" dataDxfId="6" dataCellStyle="Comma"/>
+    <tableColumn id="10" xr3:uid="{EE5B6FC9-0D0D-49FB-B1C5-3FC049385B0C}" name="LL" dataDxfId="5" dataCellStyle="Currency"/>
+    <tableColumn id="11" xr3:uid="{AA42D822-4CC7-481A-AA67-4DF2FB28D9C3}" name="HH" dataDxfId="4" dataCellStyle="Currency"/>
+    <tableColumn id="12" xr3:uid="{98BD24DF-5DED-41FA-BD5A-6351BD922579}" name="K(14)'" dataDxfId="3" dataCellStyle="Comma">
       <calculatedColumnFormula>100*(testdata[[#This Row],[close]]-testdata[[#This Row],[LL]])/(testdata[[#This Row],[HH]]-testdata[[#This Row],[LL]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{945D1B5D-57D2-46ED-98D3-4AB6B1A22407}" name="K(41,3)" dataDxfId="1" dataCellStyle="Comma"/>
-    <tableColumn id="13" xr3:uid="{8E127DAC-21A4-4123-9AFD-590301E478E5}" name="D(3)" dataDxfId="0" dataCellStyle="Comma"/>
+    <tableColumn id="15" xr3:uid="{945D1B5D-57D2-46ED-98D3-4AB6B1A22407}" name="%K" dataDxfId="2" dataCellStyle="Comma"/>
+    <tableColumn id="13" xr3:uid="{8E127DAC-21A4-4123-9AFD-590301E478E5}" name="%D" dataDxfId="1" dataCellStyle="Comma"/>
+    <tableColumn id="14" xr3:uid="{07BC2D38-64AA-4ED8-BE75-2F4705053834}" name="%J" dataDxfId="0" dataCellStyle="Currency">
+      <calculatedColumnFormula>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1257,10 +1289,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N503"/>
+  <dimension ref="A1:O503"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1274,9 +1306,10 @@
     <col min="12" max="12" width="11" style="12" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" style="12" customWidth="1"/>
     <col min="14" max="14" width="11" style="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>9</v>
       </c>
@@ -1311,16 +1344,19 @@
         <v>11</v>
       </c>
       <c r="L1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1354,8 +1390,9 @@
       <c r="L2" s="11"/>
       <c r="M2" s="11"/>
       <c r="N2" s="11"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2" s="13"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -1389,8 +1426,9 @@
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3" s="13"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -1424,8 +1462,9 @@
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4" s="13"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -1459,8 +1498,9 @@
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5" s="13"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -1494,8 +1534,9 @@
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6" s="13"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -1529,8 +1570,9 @@
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7" s="13"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -1564,8 +1606,9 @@
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8" s="13"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -1599,8 +1642,9 @@
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9" s="13"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -1634,8 +1678,9 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10" s="13"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -1669,8 +1714,9 @@
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O11" s="13"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -1704,8 +1750,9 @@
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O12" s="13"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -1739,8 +1786,9 @@
       <c r="L13" s="11"/>
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O13" s="13"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -1774,8 +1822,9 @@
       <c r="L14" s="11"/>
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O14" s="13"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -1818,8 +1867,9 @@
       </c>
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O15" s="13"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -1862,8 +1912,9 @@
       </c>
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O16" s="13"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -1904,13 +1955,14 @@
         <f>100*(testdata[[#This Row],[close]]-testdata[[#This Row],[LL]])/(testdata[[#This Row],[HH]]-testdata[[#This Row],[LL]])</f>
         <v>100</v>
       </c>
-      <c r="M17" s="11">
+      <c r="M17" s="14">
         <f>AVERAGE(L15:L17)</f>
         <v>81.125299899388693</v>
       </c>
-      <c r="N17" s="11"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -1956,8 +2008,9 @@
         <v>92.242648446642264</v>
       </c>
       <c r="N18" s="11"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O18" s="13"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -1998,16 +2051,20 @@
         <f>100*(testdata[[#This Row],[close]]-testdata[[#This Row],[LL]])/(testdata[[#This Row],[HH]]-testdata[[#This Row],[LL]])</f>
         <v>84.409799554565353</v>
       </c>
-      <c r="M19" s="11">
+      <c r="M19" s="14">
         <f t="shared" si="3"/>
         <v>92.130660727542477</v>
       </c>
-      <c r="N19" s="11">
+      <c r="N19" s="14">
         <f>AVERAGE(M17:M19)</f>
         <v>88.499536357857821</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O19" s="14">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>81.237287618488494</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -2056,8 +2113,12 @@
         <f t="shared" si="3"/>
         <v>87.119734584911257</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O20" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>107.38741459363567</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>20</v>
       </c>
@@ -2106,8 +2167,12 @@
         <f t="shared" si="3"/>
         <v>77.827270477604301</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O21" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>104.75129918337012</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>21</v>
       </c>
@@ -2156,8 +2221,12 @@
         <f t="shared" si="3"/>
         <v>65.429349170997071</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O22" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>86.414253897549642</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>22</v>
       </c>
@@ -2206,8 +2275,12 @@
         <f t="shared" si="3"/>
         <v>58.275114444485666</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O23" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>63.778962531427325</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>23</v>
       </c>
@@ -2256,8 +2329,12 @@
         <f t="shared" si="3"/>
         <v>59.497371512403468</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O24" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>42.428059880260861</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>24</v>
       </c>
@@ -2306,8 +2383,12 @@
         <f t="shared" si="3"/>
         <v>66.775101746477858</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O25" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>46.785130219545692</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>25</v>
       </c>
@@ -2356,8 +2437,12 @@
         <f t="shared" si="3"/>
         <v>76.774398926516014</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O26" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>59.281032897289464</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>26</v>
       </c>
@@ -2406,8 +2491,12 @@
         <f t="shared" si="3"/>
         <v>82.365420312914026</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O27" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>77.486077963404398</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>27</v>
       </c>
@@ -2456,8 +2545,12 @@
         <f t="shared" si="3"/>
         <v>86.322019575946626</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O28" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>81.686288129756377</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>28</v>
       </c>
@@ -2506,8 +2599,12 @@
         <f t="shared" si="3"/>
         <v>88.763258701900767</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O29" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>80.600177467718879</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>29</v>
       </c>
@@ -2556,8 +2653,12 @@
         <f t="shared" si="3"/>
         <v>92.121560081432605</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O30" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>86.604688991769052</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>30</v>
       </c>
@@ -2606,8 +2707,12 @@
         <f t="shared" si="3"/>
         <v>94.86975796186961</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O31" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>90.840316004903315</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>31</v>
       </c>
@@ -2656,8 +2761,12 @@
         <f t="shared" si="3"/>
         <v>96.470393825026733</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O32" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>94.117767658154065</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>32</v>
       </c>
@@ -2706,8 +2815,12 @@
         <f t="shared" si="3"/>
         <v>97.334801724573126</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O33" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>97.057966523912285</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>33</v>
       </c>
@@ -2756,8 +2869,12 @@
         <f t="shared" si="3"/>
         <v>97.467030965558195</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O34" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>97.838759570058613</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>34</v>
       </c>
@@ -2806,8 +2923,12 @@
         <f t="shared" si="3"/>
         <v>97.399024974626585</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O35" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>97.311697052543337</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>35</v>
       </c>
@@ -2856,8 +2977,12 @@
         <f t="shared" si="3"/>
         <v>97.470626271281574</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O36" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>97.035832384107607</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>36</v>
       </c>
@@ -2906,8 +3031,12 @@
         <f t="shared" si="3"/>
         <v>97.09705937545435</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O37" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>98.970246174710553</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>37</v>
       </c>
@@ -2956,8 +3085,12 @@
         <f t="shared" si="3"/>
         <v>96.69041540575688</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O38" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>97.625732164119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>38</v>
       </c>
@@ -3006,8 +3139,12 @@
         <f t="shared" si="3"/>
         <v>96.41807891977426</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O39" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>95.51220924548133</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>39</v>
       </c>
@@ -3056,8 +3193,12 @@
         <f t="shared" si="3"/>
         <v>96.211370239083536</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O40" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>97.553430849742512</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>40</v>
       </c>
@@ -3106,8 +3247,12 @@
         <f t="shared" si="3"/>
         <v>95.633849923035413</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O41" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>97.92115761224332</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>41</v>
       </c>
@@ -3156,8 +3301,12 @@
         <f t="shared" si="3"/>
         <v>92.747513488207218</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O42" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>101.81853155974937</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>42</v>
       </c>
@@ -3206,8 +3355,12 @@
         <f t="shared" si="3"/>
         <v>88.790822045558912</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O43" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>99.031934925058437</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>43</v>
       </c>
@@ -3256,8 +3409,12 @@
         <f t="shared" si="3"/>
         <v>82.194554689574588</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O44" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>97.180876047766873</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>44</v>
       </c>
@@ -3306,8 +3463,12 @@
         <f t="shared" si="3"/>
         <v>74.714411406533955</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O45" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>92.600085012973267</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>45</v>
       </c>
@@ -3356,8 +3517,12 @@
         <f t="shared" si="3"/>
         <v>64.8390545381301</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O46" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>86.428773613195162</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>46</v>
       </c>
@@ -3406,8 +3571,12 @@
         <f t="shared" si="3"/>
         <v>55.491498928599761</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O47" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>73.157042422024489</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>47</v>
       </c>
@@ -3456,8 +3625,12 @@
         <f t="shared" si="3"/>
         <v>48.48672893415943</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O48" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>55.945657562491661</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>48</v>
       </c>
@@ -3506,8 +3679,12 @@
         <f t="shared" si="3"/>
         <v>46.159259699234362</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O49" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>44.354204506058366</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <v>49</v>
       </c>
@@ -3556,8 +3733,12 @@
         <f t="shared" si="3"/>
         <v>44.549235207839708</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O50" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>49.990398208112239</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <v>50</v>
       </c>
@@ -3606,8 +3787,12 @@
         <f t="shared" si="3"/>
         <v>46.428803108686687</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O51" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>38.494472680991564</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
         <v>51</v>
       </c>
@@ -3656,8 +3841,12 @@
         <f t="shared" si="3"/>
         <v>48.778153303291383</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O52" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>38.114784150601238</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
         <v>52</v>
       </c>
@@ -3706,8 +3895,12 @@
         <f t="shared" si="3"/>
         <v>55.144866188482808</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O53" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>43.577013838892995</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
         <v>53</v>
       </c>
@@ -3756,8 +3949,12 @@
         <f t="shared" si="3"/>
         <v>55.630160698255366</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O54" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>63.186778391062248</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
         <v>54</v>
       </c>
@@ -3806,8 +4003,12 @@
         <f t="shared" si="3"/>
         <v>48.546945322388495</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O55" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>79.92045246309381</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
         <v>55</v>
       </c>
@@ -3856,8 +4057,12 @@
         <f t="shared" si="3"/>
         <v>36.117084187368746</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O56" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>61.072834645669282</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
         <v>56</v>
       </c>
@@ -3906,8 +4111,12 @@
         <f t="shared" si="3"/>
         <v>23.7572786902427</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O57" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>41.726965349780556</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
         <v>57</v>
       </c>
@@ -3956,8 +4165,12 @@
         <f t="shared" si="3"/>
         <v>19.22737598336629</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O58" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>19.141160687285627</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
         <v>58</v>
       </c>
@@ -4006,8 +4219,12 @@
         <f t="shared" si="3"/>
         <v>18.490201932992274</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O59" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>12.615232184783984</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="8">
         <v>59</v>
       </c>
@@ -4056,8 +4273,12 @@
         <f t="shared" si="3"/>
         <v>24.747652246199166</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O60" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>7.1533841384085832</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
         <v>60</v>
       </c>
@@ -4106,8 +4327,12 @@
         <f t="shared" si="3"/>
         <v>34.110907184798528</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O61" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>7.6122246599861541</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
         <v>61</v>
       </c>
@@ -4156,8 +4381,12 @@
         <f t="shared" si="3"/>
         <v>47.137427041370209</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O62" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>20.397788370487717</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
         <v>62</v>
       </c>
@@ -4206,8 +4435,12 @@
         <f t="shared" si="3"/>
         <v>56.815044858522953</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O63" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>45.289855072463482</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="8">
         <v>63</v>
       </c>
@@ -4256,8 +4489,12 @@
         <f t="shared" si="3"/>
         <v>61.542443064182095</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O64" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>61.542443064181995</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="8">
         <v>64</v>
       </c>
@@ -4306,8 +4543,12 @@
         <f t="shared" si="3"/>
         <v>60.78296596610582</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O65" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>65.891267733152205</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="8">
         <v>65</v>
       </c>
@@ -4356,8 +4597,12 @@
         <f t="shared" si="3"/>
         <v>58.116415081223977</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O66" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>65.193271049857643</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="8">
         <v>66</v>
       </c>
@@ -4406,8 +4651,12 @@
         <f t="shared" si="3"/>
         <v>56.792981866731104</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O67" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>55.234658758786239</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="8">
         <v>67</v>
       </c>
@@ -4456,8 +4705,12 @@
         <f t="shared" si="3"/>
         <v>56.657506742962056</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O68" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>54.327740806335186</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="8">
         <v>68</v>
       </c>
@@ -4506,8 +4759,12 @@
         <f t="shared" si="3"/>
         <v>59.370247490598246</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O69" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>52.678323792163283</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="8">
         <v>69</v>
       </c>
@@ -4556,8 +4813,12 @@
         <f t="shared" si="3"/>
         <v>60.626647161308149</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O70" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>59.197256618257953</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="8">
         <v>70</v>
       </c>
@@ -4606,8 +4867,12 @@
         <f t="shared" si="3"/>
         <v>59.803449942058954</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O71" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>68.704753719121086</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="8">
         <v>71</v>
       </c>
@@ -4656,8 +4921,12 @@
         <f t="shared" si="3"/>
         <v>51.894802708754561</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O72" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>77.70387284645858</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="8">
         <v>72</v>
       </c>
@@ -4706,8 +4975,12 @@
         <f t="shared" si="3"/>
         <v>42.517897838245865</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O73" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>61.132437872123276</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="8">
         <v>73</v>
       </c>
@@ -4756,8 +5029,12 @@
         <f t="shared" si="3"/>
         <v>33.589779970886966</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O74" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>43.632451009758533</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="8">
         <v>74</v>
       </c>
@@ -4806,8 +5083,12 @@
         <f t="shared" si="3"/>
         <v>30.504231194351174</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O75" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>32.045450962463171</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="8">
         <v>75</v>
       </c>
@@ -4856,8 +5137,12 @@
         <f t="shared" si="3"/>
         <v>31.097088875225722</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O76" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>23.312864897815544</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="8">
         <v>76</v>
       </c>
@@ -4906,8 +5191,12 @@
         <f t="shared" si="3"/>
         <v>34.893208543316483</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O77" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>24.766018718502536</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="8">
         <v>77</v>
       </c>
@@ -4956,8 +5245,12 @@
         <f t="shared" si="3"/>
         <v>46.750634142816843</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O78" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>9.6401062108579936</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="8">
         <v>78</v>
       </c>
@@ -5006,8 +5299,12 @@
         <f t="shared" si="3"/>
         <v>60.820792707313423</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O79" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>28.063025007099156</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="8">
         <v>79</v>
       </c>
@@ -5056,8 +5353,12 @@
         <f t="shared" si="3"/>
         <v>77.809456530128116</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O80" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>51.582779742049297</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="8">
         <v>80</v>
       </c>
@@ -5106,8 +5407,12 @@
         <f t="shared" si="3"/>
         <v>85.429869173688203</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O81" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>79.955335442111561</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="8">
         <v>81</v>
       </c>
@@ -5156,8 +5461,12 @@
         <f t="shared" si="7"/>
         <v>87.491104782342475</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O82" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>95.706547580260633</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="8">
         <v>82</v>
       </c>
@@ -5206,8 +5515,12 @@
         <f t="shared" si="7"/>
         <v>85.428418052531541</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O83" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>86.815784688125291</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="8">
         <v>83</v>
       </c>
@@ -5256,8 +5569,12 @@
         <f t="shared" si="7"/>
         <v>84.551217884551178</v>
       </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O84" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>82.582582582582603</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="8">
         <v>84</v>
       </c>
@@ -5306,8 +5623,12 @@
         <f t="shared" si="7"/>
         <v>85.90256923590249</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O85" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>82.832832832832821</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="8">
         <v>85</v>
       </c>
@@ -5356,8 +5677,12 @@
         <f t="shared" si="7"/>
         <v>86.85270056109988</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O86" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>85.387844262645984</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="8">
         <v>86</v>
       </c>
@@ -5406,8 +5731,12 @@
         <f t="shared" si="7"/>
         <v>88.701826118624808</v>
       </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O87" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>83.939653939653908</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="8">
         <v>87</v>
       </c>
@@ -5456,8 +5785,12 @@
         <f t="shared" si="7"/>
         <v>91.151317299989557</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O88" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>83.882129936905528</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="8">
         <v>88</v>
       </c>
@@ -5506,8 +5839,12 @@
         <f t="shared" si="7"/>
         <v>93.539501014212931</v>
       </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O89" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>91.119143336644839</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="8">
         <v>89</v>
       </c>
@@ -5556,8 +5893,12 @@
         <f t="shared" si="7"/>
         <v>94.217320119521048</v>
       </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O90" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>96.419221310493896</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="8">
         <v>90</v>
       </c>
@@ -5606,8 +5947,12 @@
         <f t="shared" si="7"/>
         <v>92.475961065818751</v>
       </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O91" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>98.304215556606891</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="8">
         <v>91</v>
       </c>
@@ -5656,8 +6001,12 @@
         <f t="shared" si="7"/>
         <v>86.629881057141873</v>
       </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O92" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>105.46676351749298</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="8">
         <v>92</v>
       </c>
@@ -5706,8 +6055,12 @@
         <f t="shared" si="7"/>
         <v>81.309657371422631</v>
       </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O93" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>89.617575180514166</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="8">
         <v>93</v>
       </c>
@@ -5756,8 +6109,12 @@
         <f t="shared" si="7"/>
         <v>76.562128923868343</v>
       </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O94" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>79.047889816081323</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="8">
         <v>94</v>
       </c>
@@ -5806,8 +6163,12 @@
         <f t="shared" si="7"/>
         <v>70.377661497177002</v>
       </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O95" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>93.8169093977464</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="8">
         <v>95</v>
       </c>
@@ -5856,8 +6217,12 @@
         <f t="shared" si="7"/>
         <v>56.538211779863616</v>
       </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O96" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>98.339936709717506</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="8">
         <v>96</v>
       </c>
@@ -5906,8 +6271,12 @@
         <f t="shared" si="7"/>
         <v>40.517401290873515</v>
       </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O97" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>67.038569851037408</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="8">
         <v>97</v>
       </c>
@@ -5956,8 +6325,12 @@
         <f t="shared" si="7"/>
         <v>38.581534091585269</v>
       </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O98" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>10.04373037670068</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="8">
         <v>98</v>
       </c>
@@ -6006,8 +6379,12 @@
         <f t="shared" si="7"/>
         <v>51.294414076255372</v>
       </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O99" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>6.3312636908721345</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="8">
         <v>99</v>
       </c>
@@ -6056,8 +6433,12 @@
         <f t="shared" si="7"/>
         <v>71.56564302981576</v>
       </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O100" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>38.555921346501776</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="8">
         <v>100</v>
       </c>
@@ -6106,8 +6487,12 @@
         <f t="shared" si="7"/>
         <v>85.21424693458367</v>
       </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O101" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>68.050245477088509</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="8">
         <v>101</v>
       </c>
@@ -6156,8 +6541,12 @@
         <f t="shared" si="7"/>
         <v>92.56802961406008</v>
       </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O102" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>86.029414227427736</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="8">
         <v>102</v>
       </c>
@@ -6206,8 +6595,12 @@
         <f t="shared" si="7"/>
         <v>94.431480251725603</v>
       </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O103" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>95.972729186238183</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="8">
         <v>103</v>
       </c>
@@ -6256,8 +6649,12 @@
         <f t="shared" si="7"/>
         <v>93.840478873545351</v>
       </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O104" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>97.474949563055105</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="8">
         <v>104</v>
       </c>
@@ -6306,8 +6703,12 @@
         <f t="shared" si="7"/>
         <v>93.155986561387621</v>
       </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O105" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>91.900238942356765</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="8">
         <v>105</v>
       </c>
@@ -6356,8 +6757,12 @@
         <f t="shared" si="7"/>
         <v>93.942459142542063</v>
       </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O106" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>89.786830371760857</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="8">
         <v>106</v>
       </c>
@@ -6406,8 +6811,12 @@
         <f t="shared" si="7"/>
         <v>95.889798422670069</v>
       </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O107" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>91.938872529661211</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="8">
         <v>107</v>
       </c>
@@ -6456,8 +6865,12 @@
         <f t="shared" si="7"/>
         <v>95.849815580945688</v>
       </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O108" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>100.22162305137729</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="8">
         <v>108</v>
       </c>
@@ -6506,8 +6919,12 @@
         <f t="shared" si="7"/>
         <v>94.421570134995633</v>
       </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O109" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>99.793636024821922</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="8">
         <v>109</v>
       </c>
@@ -6556,8 +6973,12 @@
         <f t="shared" si="7"/>
         <v>91.944608421881</v>
       </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O110" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>94.965072805981777</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="8">
         <v>110</v>
       </c>
@@ -6606,8 +7027,12 @@
         <f t="shared" si="7"/>
         <v>89.420826665289894</v>
       </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O111" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>96.077346843956519</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="8">
         <v>111</v>
       </c>
@@ -6656,8 +7081,12 @@
         <f t="shared" si="7"/>
         <v>85.085075385130551</v>
       </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O112" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>97.798659456182719</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="8">
         <v>112</v>
       </c>
@@ -6706,8 +7135,12 @@
         <f t="shared" si="7"/>
         <v>81.084661365053933</v>
       </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O113" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>86.387715755960301</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="8">
         <v>113</v>
       </c>
@@ -6756,8 +7189,12 @@
         <f t="shared" si="7"/>
         <v>79.449464779897752</v>
       </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O114" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>75.974440698717132</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="8">
         <v>114</v>
       </c>
@@ -6806,8 +7243,12 @@
         <f t="shared" si="7"/>
         <v>80.449494593086413</v>
       </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O115" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>77.891738200918297</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="8">
         <v>115</v>
       </c>
@@ -6856,8 +7297,12 @@
         <f t="shared" si="7"/>
         <v>79.533243213954975</v>
       </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O116" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>87.2309695774521</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="8">
         <v>116</v>
       </c>
@@ -6906,8 +7351,12 @@
         <f t="shared" si="7"/>
         <v>79.503004801497056</v>
       </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O117" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>76.316491238262643</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="8">
         <v>117</v>
       </c>
@@ -6956,8 +7405,12 @@
         <f t="shared" si="7"/>
         <v>77.955193207297995</v>
       </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O118" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>79.69570360874738</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="8">
         <v>118</v>
       </c>
@@ -7006,8 +7459,12 @@
         <f t="shared" si="7"/>
         <v>76.417634965457111</v>
       </c>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O119" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>87.109494283003727</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="8">
         <v>119</v>
       </c>
@@ -7056,8 +7513,12 @@
         <f t="shared" si="7"/>
         <v>67.926321484273259</v>
       </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O120" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>92.534322173694349</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="8">
         <v>120</v>
       </c>
@@ -7106,8 +7567,12 @@
         <f t="shared" si="7"/>
         <v>60.740036519512181</v>
       </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O121" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>71.167943333956472</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="8">
         <v>121</v>
       </c>
@@ -7156,8 +7621,12 @@
         <f t="shared" si="7"/>
         <v>56.530753082477254</v>
       </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O122" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>52.704549256273694</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="8">
         <v>122</v>
       </c>
@@ -7206,8 +7675,12 @@
         <f t="shared" si="7"/>
         <v>53.227232537577294</v>
       </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O123" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>68.258178603006257</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="8">
         <v>123</v>
       </c>
@@ -7256,8 +7729,12 @@
         <f t="shared" si="7"/>
         <v>50.987326849395679</v>
       </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O124" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>55.349248452696671</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="8">
         <v>124</v>
       </c>
@@ -7306,8 +7783,12 @@
         <f t="shared" si="7"/>
         <v>43.949307397583091</v>
       </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O125" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>57.188328912466673</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="8">
         <v>125</v>
       </c>
@@ -7356,8 +7837,12 @@
         <f t="shared" si="7"/>
         <v>43.891204580859572</v>
       </c>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O126" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>40.59871163319427</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="8">
         <v>126</v>
       </c>
@@ -7406,8 +7891,12 @@
         <f t="shared" si="7"/>
         <v>40.418508694370566</v>
       </c>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O127" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>44.478969306555328</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="8">
         <v>127</v>
       </c>
@@ -7456,8 +7945,12 @@
         <f t="shared" si="7"/>
         <v>44.068039240452826</v>
       </c>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O128" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>35.647341164582329</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="8">
         <v>128</v>
       </c>
@@ -7506,8 +7999,12 @@
         <f t="shared" si="7"/>
         <v>42.051282051281866</v>
       </c>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O129" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>47.179487179486941</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="8">
         <v>129</v>
       </c>
@@ -7556,8 +8053,12 @@
         <f t="shared" si="7"/>
         <v>42.173382173382009</v>
       </c>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O130" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>49.010989010988752</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="8">
         <v>130</v>
       </c>
@@ -7606,8 +8107,12 @@
         <f t="shared" si="7"/>
         <v>38.510031306239689</v>
       </c>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O131" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>40.953422564796867</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="8">
         <v>131</v>
       </c>
@@ -7656,8 +8161,12 @@
         <f t="shared" si="7"/>
         <v>42.017776851899903</v>
       </c>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O132" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>26.032498307379782</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" s="8">
         <v>132</v>
       </c>
@@ -7706,8 +8215,12 @@
         <f t="shared" si="7"/>
         <v>50.926861448188241</v>
       </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O133" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>21.816919257677426</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" s="8">
         <v>133</v>
       </c>
@@ -7756,8 +8269,12 @@
         <f t="shared" si="7"/>
         <v>65.050204159468379</v>
       </c>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O134" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>35.833884856802086</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" s="8">
         <v>134</v>
       </c>
@@ -7806,8 +8323,12 @@
         <f t="shared" si="7"/>
         <v>79.679496013704195</v>
       </c>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O135" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>51.241904667377753</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="8">
         <v>135</v>
       </c>
@@ -7856,8 +8377,12 @@
         <f t="shared" si="7"/>
         <v>89.285089367652915</v>
       </c>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O136" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>79.258042892379137</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" s="8">
         <v>136</v>
       </c>
@@ -7906,8 +8431,12 @@
         <f t="shared" si="7"/>
         <v>93.932611688620966</v>
       </c>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O137" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>94.595973518451558</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" s="8">
         <v>137</v>
       </c>
@@ -7956,8 +8485,12 @@
         <f t="shared" si="7"/>
         <v>94.573185987116062</v>
       </c>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O138" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>92.079528796642734</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="8">
         <v>138</v>
       </c>
@@ -8006,8 +8539,12 @@
         <f t="shared" si="7"/>
         <v>95.400919811414028</v>
       </c>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O139" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>92.639131277874725</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="8">
         <v>139</v>
       </c>
@@ -8056,8 +8593,12 @@
         <f t="shared" si="7"/>
         <v>96.184050520559708</v>
       </c>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O140" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>96.651505759393643</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="8">
         <v>140</v>
       </c>
@@ -8106,8 +8647,12 @@
         <f t="shared" si="7"/>
         <v>95.305774054837244</v>
       </c>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O141" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>99.546951794141052</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="8">
         <v>141</v>
       </c>
@@ -8156,8 +8701,12 @@
         <f t="shared" si="7"/>
         <v>94.023321671722371</v>
       </c>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O142" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>96.201051157489104</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="8">
         <v>142</v>
       </c>
@@ -8206,8 +8755,12 @@
         <f t="shared" si="7"/>
         <v>93.277829042199713</v>
       </c>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O143" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>92.405797101449508</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" s="8">
         <v>143</v>
       </c>
@@ -8256,8 +8809,12 @@
         <f t="shared" si="7"/>
         <v>93.137840302862756</v>
       </c>
-    </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O144" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>93.883082974239329</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" s="8">
         <v>144</v>
       </c>
@@ -8306,8 +8863,12 @@
         <f t="shared" si="7"/>
         <v>91.964467910231619</v>
       </c>
-    </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O145" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>97.064724228803726</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" s="8">
         <v>145</v>
       </c>
@@ -8356,8 +8917,12 @@
         <f t="shared" si="11"/>
         <v>88.184422333028763</v>
       </c>
-    </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O146" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>99.805850437153794</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" s="8">
         <v>146</v>
       </c>
@@ -8406,8 +8971,12 @@
         <f t="shared" si="11"/>
         <v>84.191800978136669</v>
       </c>
-    </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O147" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>91.000693129413634</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" s="8">
         <v>147</v>
       </c>
@@ -8456,8 +9025,12 @@
         <f t="shared" si="11"/>
         <v>81.305956892127682</v>
       </c>
-    </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O148" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>82.404255690545853</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" s="8">
         <v>148</v>
       </c>
@@ -8506,8 +9079,12 @@
         <f t="shared" si="11"/>
         <v>80.23445776751042</v>
       </c>
-    </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O149" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>82.384951488302335</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" s="8">
         <v>149</v>
       </c>
@@ -8556,8 +9133,12 @@
         <f t="shared" si="11"/>
         <v>79.483393592845061</v>
       </c>
-    </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O150" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>81.381856021530979</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" s="8">
         <v>150</v>
       </c>
@@ -8598,16 +9179,20 @@
         <f>100*(testdata[[#This Row],[close]]-testdata[[#This Row],[LL]])/(testdata[[#This Row],[HH]]-testdata[[#This Row],[LL]])</f>
         <v>94.117647058823749</v>
       </c>
-      <c r="M151" s="11">
+      <c r="M151" s="14">
         <f t="shared" si="11"/>
         <v>81.687014428412965</v>
       </c>
-      <c r="N151" s="11">
+      <c r="N151" s="14">
         <f t="shared" si="11"/>
         <v>79.79346257134317</v>
       </c>
-    </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O151" s="14">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>76.006358857203566</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" s="8">
         <v>151</v>
       </c>
@@ -8656,8 +9241,12 @@
         <f t="shared" si="11"/>
         <v>78.412953781233583</v>
       </c>
-    </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O152" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>85.203492270129374</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" s="8">
         <v>152</v>
       </c>
@@ -8706,8 +9295,12 @@
         <f t="shared" si="11"/>
         <v>73.513986751359653</v>
       </c>
-    </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O153" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>92.867437676318332</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" s="8">
         <v>153</v>
       </c>
@@ -8756,8 +9349,12 @@
         <f t="shared" si="11"/>
         <v>57.218559866771535</v>
       </c>
-    </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O154" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>106.05421205101736</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" s="8">
         <v>154</v>
       </c>
@@ -8806,8 +9403,12 @@
         <f t="shared" si="11"/>
         <v>38.613418643349469</v>
       </c>
-    </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O155" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>77.435734197009481</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" s="8">
         <v>155</v>
       </c>
@@ -8856,8 +9457,12 @@
         <f t="shared" si="11"/>
         <v>24.390783159959195</v>
       </c>
-    </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O156" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>30.833639802458599</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" s="8">
         <v>156</v>
       </c>
@@ -8906,8 +9511,12 @@
         <f t="shared" si="11"/>
         <v>26.405233908911423</v>
       </c>
-    </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O157" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>1.5275296837236283</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" s="8">
         <v>157</v>
       </c>
@@ -8956,8 +9565,12 @@
         <f t="shared" si="11"/>
         <v>38.978494623655799</v>
       </c>
-    </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O158" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>3.0913978494622256</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" s="8">
         <v>158</v>
       </c>
@@ -9006,8 +9619,12 @@
         <f t="shared" si="11"/>
         <v>44.847670250896009</v>
       </c>
-    </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O159" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>56.989247311827796</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" s="8">
         <v>159</v>
       </c>
@@ -9056,8 +9673,12 @@
         <f t="shared" si="11"/>
         <v>39.656322042169329</v>
       </c>
-    </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O160" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>72.428883335857392</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" s="8">
         <v>160</v>
       </c>
@@ -9106,8 +9727,12 @@
         <f t="shared" si="11"/>
         <v>23.195957505286529</v>
       </c>
-    </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O161" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>54.505973715651223</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" s="8">
         <v>161</v>
       </c>
@@ -9156,8 +9781,12 @@
         <f t="shared" si="11"/>
         <v>18.462992410856881</v>
       </c>
-    </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O162" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>6.2330043582883121</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" s="8">
         <v>162</v>
       </c>
@@ -9206,8 +9835,12 @@
         <f t="shared" si="11"/>
         <v>22.360632933402695</v>
       </c>
-    </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O163" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>-2.8440271257174032</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" s="8">
         <v>163</v>
       </c>
@@ -9256,8 +9889,12 @@
         <f t="shared" si="11"/>
         <v>33.213238277400805</v>
       </c>
-    </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O164" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>19.442183968005395</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" s="8">
         <v>164</v>
       </c>
@@ -9306,8 +9943,12 @@
         <f t="shared" si="11"/>
         <v>37.004115226337198</v>
       </c>
-    </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O165" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>39.111111111110901</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" s="8">
         <v>165</v>
       </c>
@@ -9356,8 +9997,12 @@
         <f t="shared" si="11"/>
         <v>38.349283590159217</v>
       </c>
-    </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O166" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>37.050914661620041</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" s="8">
         <v>166</v>
       </c>
@@ -9406,8 +10051,12 @@
         <f t="shared" si="11"/>
         <v>40.430987353939237</v>
       </c>
-    </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O167" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>28.605208614940565</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" s="8">
         <v>167</v>
       </c>
@@ -9456,8 +10105,12 @@
         <f t="shared" si="11"/>
         <v>47.689135201705938</v>
       </c>
-    </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O168" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>27.617283950616965</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" s="8">
         <v>168</v>
       </c>
@@ -9506,8 +10159,12 @@
         <f t="shared" si="11"/>
         <v>59.201096821534605</v>
       </c>
-    </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O169" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>30.534584636774184</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" s="8">
         <v>169</v>
       </c>
@@ -9556,8 +10213,12 @@
         <f t="shared" si="11"/>
         <v>72.693990030933605</v>
       </c>
-    </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O170" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>44.436857389529678</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" s="8">
         <v>170</v>
       </c>
@@ -9606,8 +10267,12 @@
         <f t="shared" si="11"/>
         <v>81.543274244004053</v>
       </c>
-    </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O171" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>76.083995799088569</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" s="8">
         <v>171</v>
       </c>
@@ -9656,8 +10321,12 @@
         <f t="shared" si="11"/>
         <v>83.214618971623807</v>
       </c>
-    </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O172" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>92.547082721323221</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" s="8">
         <v>172</v>
       </c>
@@ -9706,8 +10375,12 @@
         <f t="shared" si="11"/>
         <v>78.80781703362338</v>
       </c>
-    </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O173" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>89.219150025601692</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" s="8">
         <v>173</v>
       </c>
@@ -9756,8 +10429,12 @@
         <f t="shared" si="11"/>
         <v>76.129032258064385</v>
       </c>
-    </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O174" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>75.913978494623478</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" s="8">
         <v>174</v>
       </c>
@@ -9806,8 +10483,12 @@
         <f t="shared" si="11"/>
         <v>77.631225240520521</v>
       </c>
-    </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O175" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>66.783743633276487</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" s="8">
         <v>175</v>
       </c>
@@ -9856,8 +10537,12 @@
         <f t="shared" si="11"/>
         <v>83.20813077617602</v>
       </c>
-    </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O176" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>68.958658039326707</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" s="8">
         <v>176</v>
       </c>
@@ -9906,8 +10591,12 @@
         <f t="shared" si="11"/>
         <v>90.851700912659865</v>
       </c>
-    </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O177" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>74.220563639506878</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" s="8">
         <v>177</v>
       </c>
@@ -9956,8 +10645,12 @@
         <f t="shared" si="11"/>
         <v>96.040212723469836</v>
       </c>
-    </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O178" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>90.879635217264621</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" s="8">
         <v>178</v>
       </c>
@@ -10006,8 +10699,12 @@
         <f t="shared" si="11"/>
         <v>98.714573188850196</v>
       </c>
-    </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O179" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>99.431822485066988</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" s="8">
         <v>179</v>
       </c>
@@ -10056,8 +10753,12 @@
         <f t="shared" si="11"/>
         <v>97.967011574669414</v>
       </c>
-    </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O180" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>100.0518653106202</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" s="8">
         <v>180</v>
       </c>
@@ -10106,8 +10807,12 @@
         <f t="shared" si="11"/>
         <v>97.506514144843891</v>
       </c>
-    </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O181" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>98.041524060339952</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" s="8">
         <v>181</v>
       </c>
@@ -10156,8 +10861,12 @@
         <f t="shared" si="11"/>
         <v>97.053728857437179</v>
       </c>
-    </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O182" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>97.16600121526821</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183" s="8">
         <v>182</v>
       </c>
@@ -10206,8 +10915,12 @@
         <f t="shared" si="11"/>
         <v>96.218822762895002</v>
       </c>
-    </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O183" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>99.816735442550026</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" s="8">
         <v>183</v>
       </c>
@@ -10256,8 +10969,12 @@
         <f t="shared" si="11"/>
         <v>94.22653167463973</v>
       </c>
-    </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O184" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>100.15532317925906</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" s="8">
         <v>184</v>
       </c>
@@ -10306,8 +11023,12 @@
         <f t="shared" si="11"/>
         <v>89.83786815371225</v>
       </c>
-    </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O185" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>101.85040022965833</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" s="8">
         <v>185</v>
       </c>
@@ -10356,8 +11077,12 @@
         <f t="shared" si="11"/>
         <v>85.2842973079389</v>
       </c>
-    </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O186" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>94.334584152321867</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187" s="8">
         <v>186</v>
       </c>
@@ -10406,8 +11131,12 @@
         <f t="shared" si="11"/>
         <v>82.155450755270763</v>
       </c>
-    </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O187" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>82.715159737160974</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" s="8">
         <v>187</v>
       </c>
@@ -10456,8 +11185,12 @@
         <f t="shared" si="11"/>
         <v>83.774599808181279</v>
       </c>
-    </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O188" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>73.945700875602341</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" s="8">
         <v>188</v>
       </c>
@@ -10506,8 +11239,12 @@
         <f t="shared" si="11"/>
         <v>88.539703432672624</v>
       </c>
-    </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O189" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>75.510180779574966</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" s="8">
         <v>189</v>
       </c>
@@ -10556,8 +11293,12 @@
         <f t="shared" si="11"/>
         <v>93.855010519988809</v>
       </c>
-    </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O190" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>85.92199650741793</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191" s="8">
         <v>190</v>
       </c>
@@ -10606,8 +11347,12 @@
         <f t="shared" si="11"/>
         <v>97.266282497345358</v>
       </c>
-    </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O191" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>93.953117078955273</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" s="8">
         <v>191</v>
       </c>
@@ -10656,8 +11401,12 @@
         <f t="shared" si="11"/>
         <v>98.257692342735382</v>
       </c>
-    </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O192" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>98.715688437423125</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193" s="8">
         <v>192</v>
       </c>
@@ -10706,8 +11455,12 @@
         <f t="shared" si="11"/>
         <v>98.291589521752016</v>
       </c>
-    </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O193" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>99.028350438607816</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194" s="8">
         <v>193</v>
       </c>
@@ -10756,8 +11509,12 @@
         <f t="shared" si="11"/>
         <v>97.469864208135661</v>
       </c>
-    </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O194" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>99.494214093024311</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" s="8">
         <v>194</v>
       </c>
@@ -10806,8 +11563,12 @@
         <f t="shared" si="11"/>
         <v>96.2691615335428</v>
       </c>
-    </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O195" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>99.954312057402461</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" s="8">
         <v>195</v>
       </c>
@@ -10856,8 +11617,12 @@
         <f t="shared" si="11"/>
         <v>94.440179552583686</v>
       </c>
-    </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O196" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>98.448012416857523</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" s="8">
         <v>196</v>
       </c>
@@ -10906,8 +11671,12 @@
         <f t="shared" si="11"/>
         <v>93.610617150344396</v>
       </c>
-    </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O197" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>92.893847333086256</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198" s="8">
         <v>197</v>
       </c>
@@ -10956,8 +11725,12 @@
         <f t="shared" si="11"/>
         <v>94.038968724157144</v>
       </c>
-    </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O198" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>90.693624186369021</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" s="8">
         <v>198</v>
       </c>
@@ -11006,8 +11779,12 @@
         <f t="shared" si="11"/>
         <v>95.273808587214262</v>
       </c>
-    </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O199" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>93.539860342406513</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" s="8">
         <v>199</v>
       </c>
@@ -11056,8 +11833,12 @@
         <f t="shared" si="11"/>
         <v>95.681335304062898</v>
       </c>
-    </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O200" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>96.660841493149945</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201" s="8">
         <v>200</v>
       </c>
@@ -11106,8 +11887,12 @@
         <f t="shared" si="11"/>
         <v>96.090603967610775</v>
       </c>
-    </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O201" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>94.392917935442682</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202" s="8">
         <v>201</v>
       </c>
@@ -11156,8 +11941,12 @@
         <f t="shared" si="11"/>
         <v>96.474308466775327</v>
       </c>
-    </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O202" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>94.839132986102385</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203" s="8">
         <v>202</v>
       </c>
@@ -11206,8 +11995,12 @@
         <f t="shared" si="11"/>
         <v>97.142108616030043</v>
       </c>
-    </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O203" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>97.036360533523123</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204" s="8">
         <v>203</v>
       </c>
@@ -11256,8 +12049,12 @@
         <f t="shared" si="11"/>
         <v>97.254844182454363</v>
       </c>
-    </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O204" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>97.209225181427513</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205" s="8">
         <v>204</v>
       </c>
@@ -11306,8 +12103,12 @@
         <f t="shared" si="11"/>
         <v>94.547053356145952</v>
       </c>
-    </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O205" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>105.30411261206478</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206" s="8">
         <v>205</v>
       </c>
@@ -11356,8 +12157,12 @@
         <f t="shared" si="11"/>
         <v>89.821961006569595</v>
       </c>
-    </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O206" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>103.42647180259993</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207" s="8">
         <v>206</v>
       </c>
@@ -11406,8 +12211,12 @@
         <f t="shared" si="11"/>
         <v>78.773716690416407</v>
       </c>
-    </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O207" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>108.05530860223266</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208" s="8">
         <v>207</v>
       </c>
@@ -11456,8 +12265,12 @@
         <f t="shared" si="11"/>
         <v>68.134196056431861</v>
       </c>
-    </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O208" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>89.902664516829873</v>
+      </c>
+    </row>
+    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A209" s="8">
         <v>208</v>
       </c>
@@ -11506,8 +12319,12 @@
         <f t="shared" si="11"/>
         <v>61.459159051778499</v>
       </c>
-    </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O209" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>58.388287966146777</v>
+      </c>
+    </row>
+    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A210" s="8">
         <v>209</v>
       </c>
@@ -11556,8 +12373,12 @@
         <f t="shared" si="15"/>
         <v>64.169348191286531</v>
       </c>
-    </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O210" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>47.981068267794882</v>
+      </c>
+    </row>
+    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A211" s="8">
         <v>210</v>
       </c>
@@ -11606,8 +12427,12 @@
         <f t="shared" si="15"/>
         <v>72.494308785997703</v>
       </c>
-    </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O211" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>53.033239137260324</v>
+      </c>
+    </row>
+    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A212" s="8">
         <v>211</v>
       </c>
@@ -11656,8 +12481,12 @@
         <f t="shared" si="15"/>
         <v>77.079234558550652</v>
       </c>
-    </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O212" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>77.738959851145552</v>
+      </c>
+    </row>
+    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A213" s="8">
         <v>212</v>
       </c>
@@ -11706,8 +12535,12 @@
         <f t="shared" si="15"/>
         <v>79.754828266477844</v>
       </c>
-    </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O213" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>78.683946245805657</v>
+      </c>
+    </row>
+    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A214" s="8">
         <v>213</v>
       </c>
@@ -11756,8 +12589,12 @@
         <f t="shared" si="15"/>
         <v>81.096054570792901</v>
       </c>
-    </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O214" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>70.79111866575559</v>
+      </c>
+    </row>
+    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A215" s="8">
         <v>214</v>
       </c>
@@ -11806,8 +12643,12 @@
         <f t="shared" si="15"/>
         <v>86.296178035947037</v>
       </c>
-    </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O215" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>74.189049492409936</v>
+      </c>
+    </row>
+    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216" s="8">
         <v>215</v>
       </c>
@@ -11856,8 +12697,12 @@
         <f t="shared" si="15"/>
         <v>90.982938763167382</v>
       </c>
-    </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O216" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>84.247713372552198</v>
+      </c>
+    </row>
+    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A217" s="8">
         <v>216</v>
       </c>
@@ -11906,8 +12751,12 @@
         <f t="shared" si="15"/>
         <v>93.314355298022235</v>
       </c>
-    </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O217" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>93.457521638314404</v>
+      </c>
+    </row>
+    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A218" s="8">
         <v>217</v>
       </c>
@@ -11956,8 +12805,12 @@
         <f t="shared" si="15"/>
         <v>91.489305826162891</v>
       </c>
-    </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O218" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>100.71872969421355</v>
+      </c>
+    </row>
+    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219" s="8">
         <v>218</v>
       </c>
@@ -12006,8 +12859,12 @@
         <f t="shared" si="15"/>
         <v>87.806070241455643</v>
       </c>
-    </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O219" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>96.816521315660481</v>
+      </c>
+    </row>
+    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A220" s="8">
         <v>219</v>
       </c>
@@ -12056,8 +12913,12 @@
         <f t="shared" si="15"/>
         <v>82.867662984621816</v>
       </c>
-    </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O220" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>91.747888239116065</v>
+      </c>
+    </row>
+    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A221" s="8">
         <v>220</v>
       </c>
@@ -12106,8 +12967,12 @@
         <f t="shared" si="15"/>
         <v>77.827401020603972</v>
       </c>
-    </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O221" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>89.974587061643945</v>
+      </c>
+    </row>
+    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A222" s="8">
         <v>221</v>
       </c>
@@ -12156,8 +13021,12 @@
         <f t="shared" si="15"/>
         <v>67.915664800866935</v>
       </c>
-    </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O222" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>96.615722312316549</v>
+      </c>
+    </row>
+    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A223" s="8">
         <v>222</v>
       </c>
@@ -12206,8 +13075,12 @@
         <f t="shared" si="15"/>
         <v>59.572301219333958</v>
       </c>
-    </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O223" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>71.921984432450316</v>
+      </c>
+    </row>
+    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A224" s="8">
         <v>223</v>
       </c>
@@ -12256,8 +13129,12 @@
         <f t="shared" si="15"/>
         <v>53.674906769259245</v>
       </c>
-    </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O224" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>52.901471008058124</v>
+      </c>
+    </row>
+    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A225" s="8">
         <v>224</v>
       </c>
@@ -12306,8 +13183,12 @@
         <f t="shared" si="15"/>
         <v>59.380230079452993</v>
       </c>
-    </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O225" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>36.777478286912185</v>
+      </c>
+    </row>
+    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A226" s="8">
         <v>225</v>
       </c>
@@ -12356,8 +13237,12 @@
         <f t="shared" si="15"/>
         <v>66.812904766168074</v>
       </c>
-    </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O226" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>49.047746952662237</v>
+      </c>
+    </row>
+    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A227" s="8">
         <v>226</v>
       </c>
@@ -12406,8 +13291,12 @@
         <f t="shared" si="15"/>
         <v>77.409411253085452</v>
       </c>
-    </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O227" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>60.52594553803246</v>
+      </c>
+    </row>
+    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A228" s="8">
         <v>227</v>
       </c>
@@ -12456,8 +13345,12 @@
         <f t="shared" si="15"/>
         <v>85.322665227528361</v>
       </c>
-    </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O228" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>67.125259884480784</v>
+      </c>
+    </row>
+    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A229" s="8">
         <v>228</v>
       </c>
@@ -12506,8 +13399,12 @@
         <f t="shared" si="15"/>
         <v>90.940505598089899</v>
       </c>
-    </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O229" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>87.723507225058455</v>
+      </c>
+    </row>
+    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A230" s="8">
         <v>229</v>
       </c>
@@ -12556,8 +13453,12 @@
         <f t="shared" si="15"/>
         <v>94.190750825757149</v>
       </c>
-    </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O230" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>91.368492890044109</v>
+      </c>
+    </row>
+    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A231" s="8">
         <v>230</v>
       </c>
@@ -12606,8 +13507,12 @@
         <f t="shared" si="15"/>
         <v>93.596185087396407</v>
       </c>
-    </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O231" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>95.513213894249333</v>
+      </c>
+    </row>
+    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A232" s="8">
         <v>231</v>
       </c>
@@ -12656,8 +13561,12 @@
         <f t="shared" si="15"/>
         <v>93.644994762628073</v>
       </c>
-    </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O232" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>95.544116667283021</v>
+      </c>
+    </row>
+    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A233" s="8">
         <v>232</v>
       </c>
@@ -12706,8 +13615,12 @@
         <f t="shared" si="15"/>
         <v>91.022301740807208</v>
       </c>
-    </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O233" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>97.599303766119533</v>
+      </c>
+    </row>
+    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A234" s="8">
         <v>233</v>
       </c>
@@ -12756,8 +13669,12 @@
         <f t="shared" si="15"/>
         <v>88.02489561478005</v>
       </c>
-    </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O234" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>96.783782232563141</v>
+      </c>
+    </row>
+    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A235" s="8">
         <v>234</v>
       </c>
@@ -12806,8 +13723,12 @@
         <f t="shared" si="15"/>
         <v>82.537903930620928</v>
       </c>
-    </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O235" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>95.144794276216288</v>
+      </c>
+    </row>
+    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A236" s="8">
         <v>235</v>
       </c>
@@ -12856,8 +13777,12 @@
         <f t="shared" si="15"/>
         <v>76.163614946929059</v>
       </c>
-    </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O236" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>91.2689772866363</v>
+      </c>
+    </row>
+    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A237" s="8">
         <v>236</v>
       </c>
@@ -12906,8 +13831,12 @@
         <f t="shared" si="15"/>
         <v>70.437098476478582</v>
       </c>
-    </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O237" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>78.379489640361641</v>
+      </c>
+    </row>
+    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A238" s="8">
         <v>237</v>
       </c>
@@ -12956,8 +13885,12 @@
         <f t="shared" si="15"/>
         <v>69.166894497127714</v>
       </c>
-    </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O238" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>62.652989851841852</v>
+      </c>
+    </row>
+    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A239" s="8">
         <v>238</v>
       </c>
@@ -13006,8 +13939,12 @@
         <f t="shared" si="15"/>
         <v>74.055911997461465</v>
       </c>
-    </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O239" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>55.61176343623103</v>
+      </c>
+    </row>
+    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A240" s="8">
         <v>239</v>
       </c>
@@ -13056,8 +13993,12 @@
         <f t="shared" si="15"/>
         <v>82.248839240946111</v>
       </c>
-    </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O240" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>64.657148472856278</v>
+      </c>
+    </row>
+    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A241" s="8">
         <v>240</v>
       </c>
@@ -13106,8 +14047,12 @@
         <f t="shared" si="15"/>
         <v>88.870651816295478</v>
       </c>
-    </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O241" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>82.033386357248986</v>
+      </c>
+    </row>
+    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A242" s="8">
         <v>241</v>
       </c>
@@ -13156,8 +14101,12 @@
         <f t="shared" si="15"/>
         <v>89.706123498396096</v>
       </c>
-    </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O242" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>97.54956784643116</v>
+      </c>
+    </row>
+    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A243" s="8">
         <v>242</v>
       </c>
@@ -13206,8 +14155,12 @@
         <f t="shared" si="15"/>
         <v>87.952695731525282</v>
       </c>
-    </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O243" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>92.289284545818703</v>
+      </c>
+    </row>
+    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A244" s="8">
         <v>243</v>
       </c>
@@ -13256,8 +14209,12 @@
         <f t="shared" si="15"/>
         <v>86.475356665947388</v>
       </c>
-    </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O244" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>83.711535299672107</v>
+      </c>
+    </row>
+    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A245" s="8">
         <v>244</v>
       </c>
@@ -13306,8 +14263,12 @@
         <f t="shared" si="15"/>
         <v>88.222932282584381</v>
       </c>
-    </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O245" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>82.614540499174069</v>
+      </c>
+    </row>
+    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A246" s="8">
         <v>245</v>
       </c>
@@ -13356,8 +14317,12 @@
         <f t="shared" si="15"/>
         <v>88.821538157974018</v>
       </c>
-    </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O246" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>91.30417657282706</v>
+      </c>
+    </row>
+    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A247" s="8">
         <v>246</v>
       </c>
@@ -13406,8 +14371,12 @@
         <f t="shared" si="15"/>
         <v>87.639480148557922</v>
       </c>
-    </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O247" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>94.296253804000258</v>
+      </c>
+    </row>
+    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A248" s="8">
         <v>247</v>
       </c>
@@ -13456,8 +14425,12 @@
         <f t="shared" si="15"/>
         <v>85.461060994606513</v>
       </c>
-    </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O248" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>87.399441558948865</v>
+      </c>
+    </row>
+    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A249" s="8">
         <v>248</v>
       </c>
@@ -13506,8 +14479,12 @@
         <f t="shared" si="15"/>
         <v>84.173146376352435</v>
       </c>
-    </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O249" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>85.086488937486848</v>
+      </c>
+    </row>
+    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A250" s="8">
         <v>249</v>
       </c>
@@ -13556,8 +14533,12 @@
         <f t="shared" si="15"/>
         <v>83.511219392254688</v>
       </c>
-    </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O250" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>85.883033439677035</v>
+      </c>
+    </row>
+    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A251" s="8">
         <v>250</v>
       </c>
@@ -13598,16 +14579,20 @@
         <f>100*(testdata[[#This Row],[close]]-testdata[[#This Row],[LL]])/(testdata[[#This Row],[HH]]-testdata[[#This Row],[LL]])</f>
         <v>87.543859649123135</v>
       </c>
-      <c r="M251" s="11">
+      <c r="M251" s="14">
         <f t="shared" si="15"/>
         <v>83.202001217101852</v>
       </c>
-      <c r="N251" s="11">
+      <c r="N251" s="14">
         <f t="shared" si="15"/>
         <v>83.081262893810205</v>
       </c>
-    </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O251" s="14">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>82.839786247226897</v>
+      </c>
+    </row>
+    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A252" s="8">
         <v>251</v>
       </c>
@@ -13656,8 +14641,12 @@
         <f t="shared" si="15"/>
         <v>80.749895107092541</v>
       </c>
-    </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O252" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>88.804941850013108</v>
+      </c>
+    </row>
+    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A253" s="8">
         <v>252</v>
       </c>
@@ -13706,8 +14695,12 @@
         <f t="shared" si="15"/>
         <v>80.825188716294733</v>
       </c>
-    </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O253" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>77.373179756584079</v>
+      </c>
+    </row>
+    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A254" s="8">
         <v>253</v>
       </c>
@@ -13756,8 +14749,12 @@
         <f t="shared" si="15"/>
         <v>81.703198746490386</v>
       </c>
-    </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O254" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>73.437533624093504</v>
+      </c>
+    </row>
+    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A255" s="8">
         <v>254</v>
       </c>
@@ -13806,8 +14803,12 @@
         <f t="shared" si="15"/>
         <v>88.29826282179026</v>
       </c>
-    </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O255" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>71.879660542306965</v>
+      </c>
+    </row>
+    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A256" s="8">
         <v>255</v>
       </c>
@@ -13856,8 +14857,12 @@
         <f t="shared" si="15"/>
         <v>92.868088553757715</v>
       </c>
-    </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O256" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>86.082924877168296</v>
+      </c>
+    </row>
+    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A257" s="8">
         <v>256</v>
       </c>
@@ -13906,8 +14911,12 @@
         <f t="shared" si="15"/>
         <v>96.368961358987391</v>
       </c>
-    </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O257" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>96.429584630206506</v>
+      </c>
+    </row>
+    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A258" s="8">
         <v>257</v>
       </c>
@@ -13956,8 +14965,12 @@
         <f t="shared" si="15"/>
         <v>96.175086231622529</v>
       </c>
-    </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O258" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>96.673381535992945</v>
+      </c>
+    </row>
+    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A259" s="8">
         <v>258</v>
       </c>
@@ -14006,8 +15019,12 @@
         <f t="shared" si="15"/>
         <v>94.786116839381748</v>
       </c>
-    </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O259" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>100.17082608748504</v>
+      </c>
+    </row>
+    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A260" s="8">
         <v>259</v>
       </c>
@@ -14056,8 +15073,12 @@
         <f t="shared" si="15"/>
         <v>93.634230783619657</v>
       </c>
-    </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O260" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>95.136709238675877</v>
+      </c>
+    </row>
+    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A261" s="8">
         <v>260</v>
       </c>
@@ -14106,8 +15127,12 @@
         <f t="shared" si="15"/>
         <v>93.340270307635976</v>
       </c>
-    </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O261" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>89.932696619935399</v>
+      </c>
+    </row>
+    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A262" s="8">
         <v>261</v>
       </c>
@@ -14156,8 +15181,12 @@
         <f t="shared" si="15"/>
         <v>93.210629549237282</v>
       </c>
-    </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O262" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>96.222208767443732</v>
+      </c>
+    </row>
+    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A263" s="8">
         <v>262</v>
       </c>
@@ -14206,8 +15235,12 @@
         <f t="shared" si="15"/>
         <v>92.423231949237746</v>
       </c>
-    </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O263" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>96.228098335527392</v>
+      </c>
+    </row>
+    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A264" s="8">
         <v>263</v>
       </c>
@@ -14256,8 +15289,12 @@
         <f t="shared" si="15"/>
         <v>90.325749149278622</v>
       </c>
-    </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O264" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>93.474029944618081</v>
+      </c>
+    </row>
+    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A265" s="8">
         <v>264</v>
       </c>
@@ -14306,8 +15343,12 @@
         <f t="shared" si="15"/>
         <v>91.915341327106148</v>
       </c>
-    </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O265" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>82.798791034085212</v>
+      </c>
+    </row>
+    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A266" s="8">
         <v>265</v>
       </c>
@@ -14356,8 +15397,12 @@
         <f t="shared" si="15"/>
         <v>94.294294294294403</v>
       </c>
-    </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O266" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>87.56756756756775</v>
+      </c>
+    </row>
+    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A267" s="8">
         <v>266</v>
       </c>
@@ -14406,8 +15451,12 @@
         <f t="shared" si="15"/>
         <v>97.791948160220159</v>
       </c>
-    </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O267" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>94.886703781888286</v>
+      </c>
+    </row>
+    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A268" s="8">
         <v>267</v>
       </c>
@@ -14456,8 +15505,12 @@
         <f t="shared" si="15"/>
         <v>97.525414402824026</v>
       </c>
-    </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O268" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>101.22821280561564</v>
+      </c>
+    </row>
+    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A269" s="8">
         <v>268</v>
       </c>
@@ -14506,8 +15559,12 @@
         <f t="shared" si="15"/>
         <v>95.64270187941203</v>
       </c>
-    </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O269" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>102.90906546339252</v>
+      </c>
+    </row>
+    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A270" s="8">
         <v>269</v>
       </c>
@@ -14556,8 +15613,12 @@
         <f t="shared" si="15"/>
         <v>93.440740800207678</v>
       </c>
-    </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O270" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>95.044848177076972</v>
+      </c>
+    </row>
+    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A271" s="8">
         <v>270</v>
       </c>
@@ -14606,8 +15667,12 @@
         <f t="shared" si="15"/>
         <v>92.036658237150334</v>
       </c>
-    </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O271" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>93.186439686938627</v>
+      </c>
+    </row>
+    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A272" s="8">
         <v>271</v>
       </c>
@@ -14656,8 +15721,12 @@
         <f t="shared" si="15"/>
         <v>89.127760968952487</v>
       </c>
-    </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O272" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>100.81762634120096</v>
+      </c>
+    </row>
+    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A273" s="8">
         <v>272</v>
       </c>
@@ -14706,8 +15775,12 @@
         <f t="shared" si="15"/>
         <v>81.700492622944651</v>
       </c>
-    </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O273" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>104.3877137213349</v>
+      </c>
+    </row>
+    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A274" s="8">
         <v>273</v>
       </c>
@@ -14756,8 +15829,12 @@
         <f t="shared" si="19"/>
         <v>70.933061762679415</v>
       </c>
-    </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O274" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>94.4802354251173</v>
+      </c>
+    </row>
+    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A275" s="8">
         <v>274</v>
       </c>
@@ -14806,8 +15883,12 @@
         <f t="shared" si="19"/>
         <v>55.769758510266229</v>
       </c>
-    </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O275" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>91.723438479621322</v>
+      </c>
+    </row>
+    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A276" s="8">
         <v>275</v>
       </c>
@@ -14856,8 +15937,12 @@
         <f t="shared" si="19"/>
         <v>38.451553144926486</v>
       </c>
-    </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O276" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>78.550127479318832</v>
+      </c>
+    </row>
+    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A277" s="8">
         <v>276</v>
       </c>
@@ -14906,8 +15991,12 @@
         <f t="shared" si="19"/>
         <v>23.220843545330911</v>
       </c>
-    </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O277" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>42.727838370645244</v>
+      </c>
+    </row>
+    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A278" s="8">
         <v>277</v>
       </c>
@@ -14956,8 +16045,12 @@
         <f t="shared" si="19"/>
         <v>18.639978453884282</v>
       </c>
-    </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O278" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>7.8192888591552574</v>
+      </c>
+    </row>
+    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A279" s="8">
         <v>278</v>
       </c>
@@ -15006,8 +16099,12 @@
         <f t="shared" si="19"/>
         <v>20.241730269262778</v>
       </c>
-    </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O279" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>14.31014796005676</v>
+      </c>
+    </row>
+    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A280" s="8">
         <v>279</v>
       </c>
@@ -15056,8 +16153,12 @@
         <f t="shared" si="19"/>
         <v>22.167240867434998</v>
       </c>
-    </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O280" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>28.013966747924179</v>
+      </c>
+    </row>
+    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A281" s="8">
         <v>280</v>
       </c>
@@ -15106,8 +16207,12 @@
         <f t="shared" si="19"/>
         <v>21.09240788914046</v>
       </c>
-    </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O281" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>21.625575034691011</v>
+      </c>
+    </row>
+    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A282" s="8">
         <v>281</v>
       </c>
@@ -15156,8 +16261,12 @@
         <f t="shared" si="19"/>
         <v>24.594291125294291</v>
       </c>
-    </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O282" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>6.3565311112283069</v>
+      </c>
+    </row>
+    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A283" s="8">
         <v>282</v>
       </c>
@@ -15206,8 +16315,12 @@
         <f t="shared" si="19"/>
         <v>32.083097377603707</v>
       </c>
-    </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O283" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>12.828698764573829</v>
+      </c>
+    </row>
+    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A284" s="8">
         <v>283</v>
       </c>
@@ -15256,8 +16369,12 @@
         <f t="shared" si="19"/>
         <v>41.61585455702528</v>
       </c>
-    </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O284" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>25.999371961816038</v>
+      </c>
+    </row>
+    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A285" s="8">
         <v>284</v>
       </c>
@@ -15306,8 +16423,12 @@
         <f t="shared" si="19"/>
         <v>49.592090629894955</v>
       </c>
-    </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O285" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>33.492513187812264</v>
+      </c>
+    </row>
+    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A286" s="8">
         <v>285</v>
       </c>
@@ -15356,8 +16477,12 @@
         <f t="shared" si="19"/>
         <v>56.166269516420734</v>
       </c>
-    </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O286" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>45.633141861870214</v>
+      </c>
+    </row>
+    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A287" s="8">
         <v>286</v>
       </c>
@@ -15406,8 +16531,12 @@
         <f t="shared" si="19"/>
         <v>59.817132930628553</v>
       </c>
-    </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O287" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>58.698026597378941</v>
+      </c>
+    </row>
+    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A288" s="8">
         <v>287</v>
       </c>
@@ -15456,8 +16585,12 @@
         <f t="shared" si="19"/>
         <v>60.789588516382821</v>
       </c>
-    </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O288" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>61.25027333275024</v>
+      </c>
+    </row>
+    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A289" s="8">
         <v>288</v>
       </c>
@@ -15506,8 +16639,12 @@
         <f t="shared" si="19"/>
         <v>64.296889245608938</v>
       </c>
-    </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O289" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>48.981196674078177</v>
+      </c>
+    </row>
+    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A290" s="8">
         <v>289</v>
       </c>
@@ -15556,8 +16693,12 @@
         <f t="shared" si="19"/>
         <v>72.901476425028505</v>
       </c>
-    </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O290" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>46.323534004061315</v>
+      </c>
+    </row>
+    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A291" s="8">
         <v>290</v>
       </c>
@@ -15606,8 +16747,12 @@
         <f t="shared" si="19"/>
         <v>83.527601655907446</v>
       </c>
-    </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O291" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>65.70756136605047</v>
+      </c>
+    </row>
+    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A292" s="8">
         <v>291</v>
       </c>
@@ -15656,8 +16801,12 @@
         <f t="shared" si="19"/>
         <v>87.80238121526277</v>
       </c>
-    </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O292" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>93.848995226907704</v>
+      </c>
+    </row>
+    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A293" s="8">
         <v>292</v>
       </c>
@@ -15706,8 +16855,12 @@
         <f t="shared" si="19"/>
         <v>82.590158875984855</v>
       </c>
-    </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O293" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>106.66291539259785</v>
+      </c>
+    </row>
+    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A294" s="8">
         <v>293</v>
       </c>
@@ -15756,8 +16909,12 @@
         <f t="shared" si="19"/>
         <v>70.877606157828126</v>
       </c>
-    </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O294" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>98.032891180752941</v>
+      </c>
+    </row>
+    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A295" s="8">
         <v>294</v>
       </c>
@@ -15806,8 +16963,12 @@
         <f t="shared" si="19"/>
         <v>60.033624760181631</v>
       </c>
-    </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O295" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>75.606614247543277</v>
+      </c>
+    </row>
+    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A296" s="8">
         <v>295</v>
       </c>
@@ -15856,8 +17017,12 @@
         <f t="shared" si="19"/>
         <v>54.138828545331442</v>
       </c>
-    </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O296" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>56.677701689738754</v>
+      </c>
+    </row>
+    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A297" s="8">
         <v>296</v>
       </c>
@@ -15906,8 +17071,12 @@
         <f t="shared" si="19"/>
         <v>54.161300754296157</v>
       </c>
-    </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O297" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>47.749141716368726</v>
+      </c>
+    </row>
+    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A298" s="8">
         <v>297</v>
       </c>
@@ -15956,8 +17125,12 @@
         <f t="shared" si="19"/>
         <v>56.862037339147143</v>
       </c>
-    </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O298" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>49.88743247533391</v>
+      </c>
+    </row>
+    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A299" s="8">
         <v>298</v>
       </c>
@@ -16006,8 +17179,12 @@
         <f t="shared" si="19"/>
         <v>63.907537020171311</v>
       </c>
-    </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O299" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>43.710829028113295</v>
+      </c>
+    </row>
+    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A300" s="8">
         <v>299</v>
       </c>
@@ -16056,8 +17233,12 @@
         <f t="shared" si="19"/>
         <v>73.265254622949485</v>
       </c>
-    </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O300" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>48.914697705659677</v>
+      </c>
+    </row>
+    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A301" s="8">
         <v>300</v>
       </c>
@@ -16106,8 +17287,12 @@
         <f t="shared" si="19"/>
         <v>82.799290263412715</v>
       </c>
-    </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O301" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>70.494977405351307</v>
+      </c>
+    </row>
+    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A302" s="8">
         <v>301</v>
       </c>
@@ -16156,8 +17341,12 @@
         <f t="shared" si="19"/>
         <v>84.174278367702797</v>
       </c>
-    </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O302" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>96.26112444496718</v>
+      </c>
+    </row>
+    <row r="303" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A303" s="8">
         <v>302</v>
       </c>
@@ -16206,8 +17395,12 @@
         <f t="shared" si="19"/>
         <v>78.907593794122036</v>
       </c>
-    </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O303" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>97.44182266066187</v>
+      </c>
+    </row>
+    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A304" s="8">
         <v>303</v>
       </c>
@@ -16256,8 +17449,12 @@
         <f t="shared" si="19"/>
         <v>71.457141153483619</v>
       </c>
-    </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O304" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>81.171245919394607</v>
+      </c>
+    </row>
+    <row r="305" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A305" s="8">
         <v>304</v>
       </c>
@@ -16306,8 +17503,12 @@
         <f t="shared" si="19"/>
         <v>64.957833999112253</v>
       </c>
-    </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O305" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>77.607634265423769</v>
+      </c>
+    </row>
+    <row r="306" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A306" s="8">
         <v>305</v>
       </c>
@@ -16356,8 +17557,12 @@
         <f t="shared" si="19"/>
         <v>59.172954579079693</v>
       </c>
-    </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O306" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>72.94718153573011</v>
+      </c>
+    </row>
+    <row r="307" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A307" s="8">
         <v>306</v>
       </c>
@@ -16406,8 +17611,12 @@
         <f t="shared" si="19"/>
         <v>51.70143512353895</v>
       </c>
-    </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O307" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>66.733244562805083</v>
+      </c>
+    </row>
+    <row r="308" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A308" s="8">
         <v>307</v>
       </c>
@@ -16456,8 +17665,12 @@
         <f t="shared" si="19"/>
         <v>42.286142571075203</v>
       </c>
-    </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O308" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>66.084315296095127</v>
+      </c>
+    </row>
+    <row r="309" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A309" s="8">
         <v>308</v>
       </c>
@@ -16506,8 +17719,12 @@
         <f t="shared" si="19"/>
         <v>29.957704315515027</v>
       </c>
-    </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O309" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>59.272060278397163</v>
+      </c>
+    </row>
+    <row r="310" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A310" s="8">
         <v>309</v>
       </c>
@@ -16556,8 +17773,12 @@
         <f t="shared" si="19"/>
         <v>19.327699384910243</v>
       </c>
-    </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O310" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>33.392066930547671</v>
+      </c>
+    </row>
+    <row r="311" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A311" s="8">
         <v>310</v>
       </c>
@@ -16606,8 +17827,12 @@
         <f t="shared" si="19"/>
         <v>14.515949725027069</v>
       </c>
-    </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O311" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>11.644234717249763</v>
+      </c>
+    </row>
+    <row r="312" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A312" s="8">
         <v>311</v>
       </c>
@@ -16656,8 +17881,12 @@
         <f t="shared" si="19"/>
         <v>15.654060759586102</v>
       </c>
-    </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O312" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>9.5324634032561875</v>
+      </c>
+    </row>
+    <row r="313" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A313" s="8">
         <v>312</v>
       </c>
@@ -16706,8 +17935,12 @@
         <f t="shared" si="19"/>
         <v>16.776439089692154</v>
       </c>
-    </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O313" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>19.004016064257094</v>
+      </c>
+    </row>
+    <row r="314" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A314" s="8">
         <v>313</v>
       </c>
@@ -16756,8 +17989,12 @@
         <f t="shared" si="19"/>
         <v>16.509621293517956</v>
       </c>
-    </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O314" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>19.226156199767633</v>
+      </c>
+    </row>
+    <row r="315" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A315" s="8">
         <v>314</v>
       </c>
@@ -16806,8 +18043,12 @@
         <f t="shared" si="19"/>
         <v>17.335996974802327</v>
       </c>
-    </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O315" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>9.6200179611986343</v>
+      </c>
+    </row>
+    <row r="316" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A316" s="8">
         <v>315</v>
       </c>
@@ -16856,8 +18097,12 @@
         <f t="shared" si="19"/>
         <v>21.169644090874648</v>
       </c>
-    </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O316" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>9.181748371370638</v>
+      </c>
+    </row>
+    <row r="317" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A317" s="8">
         <v>316</v>
       </c>
@@ -16906,8 +18151,12 @@
         <f t="shared" si="19"/>
         <v>29.791761173385201</v>
       </c>
-    </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O317" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>7.3398733443060422</v>
+      </c>
+    </row>
+    <row r="318" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A318" s="8">
         <v>317</v>
       </c>
@@ -16956,8 +18205,12 @@
         <f t="shared" si="19"/>
         <v>36.193824839184543</v>
       </c>
-    </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O318" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>27.781119559549239</v>
+      </c>
+    </row>
+    <row r="319" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A319" s="8">
         <v>318</v>
       </c>
@@ -17006,8 +18259,12 @@
         <f t="shared" si="19"/>
         <v>39.64368653132442</v>
       </c>
-    </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O319" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>43.90470553988068</v>
+      </c>
+    </row>
+    <row r="320" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A320" s="8">
         <v>319</v>
       </c>
@@ -17056,8 +18313,12 @@
         <f t="shared" si="19"/>
         <v>38.855569983218082</v>
       </c>
-    </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O320" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>39.259999062442716</v>
+      </c>
+    </row>
+    <row r="321" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A321" s="8">
         <v>320</v>
       </c>
@@ -17106,8 +18367,12 @@
         <f t="shared" si="19"/>
         <v>42.544837458441712</v>
       </c>
-    </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O321" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>24.698552565978943</v>
+      </c>
+    </row>
+    <row r="322" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A322" s="8">
         <v>321</v>
       </c>
@@ -17156,8 +18421,12 @@
         <f t="shared" si="19"/>
         <v>53.567567419221213</v>
       </c>
-    </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O322" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>19.53996843889405</v>
+      </c>
+    </row>
+    <row r="323" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A323" s="8">
         <v>322</v>
       </c>
@@ -17206,8 +18475,12 @@
         <f t="shared" si="19"/>
         <v>66.997030808525849</v>
       </c>
-    </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O323" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>43.107601202538262</v>
+      </c>
+    </row>
+    <row r="324" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A324" s="8">
         <v>323</v>
       </c>
@@ -17256,8 +18529,12 @@
         <f t="shared" si="19"/>
         <v>79.439129194367112</v>
       </c>
-    </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O324" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>60.728837458707517</v>
+      </c>
+    </row>
+    <row r="325" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A325" s="8">
         <v>324</v>
       </c>
@@ -17306,8 +18583,12 @@
         <f t="shared" si="19"/>
         <v>86.002217443346993</v>
       </c>
-    </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O325" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>77.465389017392141</v>
+      </c>
+    </row>
+    <row r="326" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A326" s="8">
         <v>325</v>
       </c>
@@ -17356,8 +18637,12 @@
         <f t="shared" si="19"/>
         <v>91.23202168623186</v>
       </c>
-    </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O326" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>84.433748378347076</v>
+      </c>
+    </row>
+    <row r="327" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A327" s="8">
         <v>326</v>
       </c>
@@ -17406,8 +18691,12 @@
         <f t="shared" si="19"/>
         <v>92.281201511933205</v>
       </c>
-    </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O327" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>92.959975457197771</v>
+      </c>
+    </row>
+    <row r="328" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A328" s="8">
         <v>327</v>
       </c>
@@ -17456,8 +18745,12 @@
         <f t="shared" si="19"/>
         <v>89.76414151014643</v>
       </c>
-    </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O328" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>103.85352122851106</v>
+      </c>
+    </row>
+    <row r="329" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A329" s="8">
         <v>328</v>
       </c>
@@ -17506,8 +18799,12 @@
         <f t="shared" si="19"/>
         <v>82.828259994728512</v>
       </c>
-    </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O329" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>100.8377523963446</v>
+      </c>
+    </row>
+    <row r="330" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A330" s="8">
         <v>329</v>
       </c>
@@ -17556,8 +18853,12 @@
         <f t="shared" si="19"/>
         <v>71.452227482582472</v>
       </c>
-    </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O330" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>98.729248442021728</v>
+      </c>
+    </row>
+    <row r="331" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A331" s="8">
         <v>330</v>
       </c>
@@ -17606,8 +18907,12 @@
         <f t="shared" si="19"/>
         <v>60.290141456388675</v>
       </c>
-    </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O331" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>82.404037224400625</v>
+      </c>
+    </row>
+    <row r="332" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A332" s="8">
         <v>331</v>
       </c>
@@ -17656,8 +18961,12 @@
         <f t="shared" si="19"/>
         <v>50.793634450520649</v>
       </c>
-    </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O332" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>61.712917798929126</v>
+      </c>
+    </row>
+    <row r="333" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A333" s="8">
         <v>332</v>
       </c>
@@ -17706,8 +19015,12 @@
         <f t="shared" si="19"/>
         <v>48.541826982888644</v>
       </c>
-    </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O333" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>43.508891748732296</v>
+      </c>
+    </row>
+    <row r="334" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A334" s="8">
         <v>333</v>
       </c>
@@ -17756,8 +19069,12 @@
         <f t="shared" si="19"/>
         <v>48.335753294514355</v>
       </c>
-    </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O334" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>47.7773148690234</v>
+      </c>
+    </row>
+    <row r="335" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A335" s="8">
         <v>334</v>
       </c>
@@ -17806,8 +19123,12 @@
         <f t="shared" si="19"/>
         <v>47.580858012639936</v>
       </c>
-    </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O335" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>56.603960176533491</v>
+      </c>
+    </row>
+    <row r="336" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A336" s="8">
         <v>335</v>
       </c>
@@ -17856,8 +19177,12 @@
         <f t="shared" si="19"/>
         <v>41.342504587128467</v>
       </c>
-    </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O336" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>59.341045114520597</v>
+      </c>
+    </row>
+    <row r="337" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A337" s="8">
         <v>336</v>
       </c>
@@ -17906,8 +19231,12 @@
         <f t="shared" si="19"/>
         <v>35.261815032854692</v>
       </c>
-    </row>
-    <row r="338" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O337" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>45.039637409687032</v>
+      </c>
+    </row>
+    <row r="338" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A338" s="8">
         <v>337</v>
       </c>
@@ -17956,8 +19285,12 @@
         <f t="shared" si="23"/>
         <v>32.9653168019505</v>
       </c>
-    </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O338" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>26.536325929890339</v>
+      </c>
+    </row>
+    <row r="339" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A339" s="8">
         <v>338</v>
       </c>
@@ -18006,8 +19339,12 @@
         <f t="shared" si="23"/>
         <v>38.888442898343953</v>
       </c>
-    </row>
-    <row r="340" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O339" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>16.440103469806346</v>
+      </c>
+    </row>
+    <row r="340" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A340" s="8">
         <v>339</v>
       </c>
@@ -18056,8 +19393,12 @@
         <f t="shared" si="23"/>
         <v>50.306717502205423</v>
       </c>
-    </row>
-    <row r="341" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O340" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>21.664697194570437</v>
+      </c>
+    </row>
+    <row r="341" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A341" s="8">
         <v>340</v>
       </c>
@@ -18106,8 +19447,12 @@
         <f t="shared" si="23"/>
         <v>64.203249533516612</v>
       </c>
-    </row>
-    <row r="342" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O341" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>36.870931936721519</v>
+      </c>
+    </row>
+    <row r="342" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A342" s="8">
         <v>341</v>
       </c>
@@ -18156,8 +19501,12 @@
         <f t="shared" si="23"/>
         <v>77.115031848498504</v>
       </c>
-    </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O342" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>53.649176430378617</v>
+      </c>
+    </row>
+    <row r="343" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A343" s="8">
         <v>342</v>
       </c>
@@ -18206,8 +19555,12 @@
         <f t="shared" si="23"/>
         <v>87.987162680320111</v>
       </c>
-    </row>
-    <row r="344" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O343" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>69.473247737984906</v>
+      </c>
+    </row>
+    <row r="344" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A344" s="8">
         <v>343</v>
       </c>
@@ -18256,8 +19609,12 @@
         <f t="shared" si="23"/>
         <v>94.006958963760852</v>
       </c>
-    </row>
-    <row r="345" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O344" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>90.16328252680978</v>
+      </c>
+    </row>
+    <row r="345" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A345" s="8">
         <v>344</v>
       </c>
@@ -18306,8 +19663,12 @@
         <f t="shared" si="23"/>
         <v>94.474975705131271</v>
       </c>
-    </row>
-    <row r="346" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O345" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>102.92090755205444</v>
+      </c>
+    </row>
+    <row r="346" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A346" s="8">
         <v>345</v>
       </c>
@@ -18356,8 +19717,12 @@
         <f t="shared" si="23"/>
         <v>91.019510404195728</v>
       </c>
-    </row>
-    <row r="347" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O346" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>99.303082715225031</v>
+      </c>
+    </row>
+    <row r="347" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A347" s="8">
         <v>346</v>
       </c>
@@ -18406,8 +19771,12 @@
         <f t="shared" si="23"/>
         <v>87.283666791947624</v>
       </c>
-    </row>
-    <row r="348" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O347" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>92.408467684858635</v>
+      </c>
+    </row>
+    <row r="348" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A348" s="8">
         <v>347</v>
       </c>
@@ -18456,8 +19825,12 @@
         <f t="shared" si="23"/>
         <v>85.608319951059215</v>
       </c>
-    </row>
-    <row r="349" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O348" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>86.373021335168715</v>
+      </c>
+    </row>
+    <row r="349" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A349" s="8">
         <v>348</v>
       </c>
@@ -18506,8 +19879,12 @@
         <f t="shared" si="23"/>
         <v>85.891259463179708</v>
       </c>
-    </row>
-    <row r="350" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O349" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>82.220692819454115</v>
+      </c>
+    </row>
+    <row r="350" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A350" s="8">
         <v>349</v>
       </c>
@@ -18556,8 +19933,12 @@
         <f t="shared" si="23"/>
         <v>87.220606985625253</v>
       </c>
-    </row>
-    <row r="351" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O350" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>84.24320313121811</v>
+      </c>
+    </row>
+    <row r="351" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A351" s="8">
         <v>350</v>
       </c>
@@ -18606,8 +19987,12 @@
         <f t="shared" si="23"/>
         <v>89.652868768749713</v>
       </c>
-    </row>
-    <row r="352" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O351" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>83.913097089493533</v>
+      </c>
+    </row>
+    <row r="352" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A352" s="8">
         <v>351</v>
       </c>
@@ -18656,8 +20041,12 @@
         <f t="shared" si="23"/>
         <v>89.998946967927381</v>
       </c>
-    </row>
-    <row r="353" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O352" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>92.467286138631124</v>
+      </c>
+    </row>
+    <row r="353" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A353" s="8">
         <v>352</v>
       </c>
@@ -18706,8 +20095,12 @@
         <f t="shared" si="23"/>
         <v>88.643492941042311</v>
       </c>
-    </row>
-    <row r="354" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O353" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>96.644585158779705</v>
+      </c>
+    </row>
+    <row r="354" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A354" s="8">
         <v>353</v>
       </c>
@@ -18756,8 +20149,12 @@
         <f t="shared" si="23"/>
         <v>78.666972685981079</v>
       </c>
-    </row>
-    <row r="355" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O354" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>110.81453037155499</v>
+      </c>
+    </row>
+    <row r="355" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A355" s="8">
         <v>354</v>
       </c>
@@ -18806,8 +20203,12 @@
         <f t="shared" si="23"/>
         <v>68.910251054537014</v>
       </c>
-    </row>
-    <row r="356" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O355" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>87.741528187124402</v>
+      </c>
+    </row>
+    <row r="356" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A356" s="8">
         <v>355</v>
       </c>
@@ -18856,8 +20257,12 @@
         <f t="shared" si="23"/>
         <v>57.423824995481276</v>
       </c>
-    </row>
-    <row r="357" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O356" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>71.904137676431063</v>
+      </c>
+    </row>
+    <row r="357" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A357" s="8">
         <v>356</v>
       </c>
@@ -18906,8 +20311,12 @@
         <f t="shared" si="23"/>
         <v>60.285541697431483</v>
       </c>
-    </row>
-    <row r="358" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O357" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>38.499937194204989</v>
+      </c>
+    </row>
+    <row r="358" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A358" s="8">
         <v>357</v>
       </c>
@@ -18956,8 +20365,12 @@
         <f t="shared" si="23"/>
         <v>66.559979949822051</v>
       </c>
-    </row>
-    <row r="359" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O358" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>43.044085358636067</v>
+      </c>
+    </row>
+    <row r="359" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A359" s="8">
         <v>358</v>
       </c>
@@ -19006,8 +20419,12 @@
         <f t="shared" si="23"/>
         <v>81.010873057533033</v>
       </c>
-    </row>
-    <row r="360" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O359" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>55.959923216320504</v>
+      </c>
+    </row>
+    <row r="360" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A360" s="8">
         <v>359</v>
       </c>
@@ -19056,8 +20473,12 @@
         <f t="shared" si="23"/>
         <v>89.436947810906759</v>
       </c>
-    </row>
-    <row r="361" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O360" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>75.39770701438843</v>
+      </c>
+    </row>
+    <row r="361" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A361" s="8">
         <v>360</v>
       </c>
@@ -19106,8 +20527,12 @@
         <f t="shared" si="23"/>
         <v>94.955030438842527</v>
       </c>
-    </row>
-    <row r="362" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O361" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>95.120741058082785</v>
+      </c>
+    </row>
+    <row r="362" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A362" s="8">
         <v>361</v>
       </c>
@@ -19156,8 +20581,12 @@
         <f t="shared" si="23"/>
         <v>95.90857634821954</v>
       </c>
-    </row>
-    <row r="363" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O362" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>94.931757632118007</v>
+      </c>
+    </row>
+    <row r="363" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A363" s="8">
         <v>362</v>
       </c>
@@ -19206,8 +20635,12 @@
         <f t="shared" si="23"/>
         <v>95.248321962212458</v>
       </c>
-    </row>
-    <row r="364" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O363" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>96.793355784348023</v>
+      </c>
+    </row>
+    <row r="364" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A364" s="8">
         <v>363</v>
       </c>
@@ -19256,8 +20689,12 @@
         <f t="shared" si="23"/>
         <v>95.642290170376683</v>
       </c>
-    </row>
-    <row r="365" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O364" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>94.818711003699889</v>
+      </c>
+    </row>
+    <row r="365" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A365" s="8">
         <v>364</v>
       </c>
@@ -19306,8 +20743,12 @@
         <f t="shared" si="23"/>
         <v>94.25336377384059</v>
       </c>
-    </row>
-    <row r="366" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O365" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>98.299678288197782</v>
+      </c>
+    </row>
+    <row r="366" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A366" s="8">
         <v>365</v>
       </c>
@@ -19356,8 +20797,12 @@
         <f t="shared" si="23"/>
         <v>93.580377392096281</v>
       </c>
-    </row>
-    <row r="367" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O366" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>95.827440364465332</v>
+      </c>
+    </row>
+    <row r="367" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A367" s="8">
         <v>366</v>
       </c>
@@ -19406,8 +20851,12 @@
         <f t="shared" si="23"/>
         <v>91.767313051321764</v>
       </c>
-    </row>
-    <row r="368" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O367" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>94.072165691182164</v>
+      </c>
+    </row>
+    <row r="368" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A368" s="8">
         <v>367</v>
       </c>
@@ -19456,8 +20905,12 @@
         <f t="shared" si="23"/>
         <v>90.58388873243085</v>
       </c>
-    </row>
-    <row r="369" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O368" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>94.391799077314118</v>
+      </c>
+    </row>
+    <row r="369" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A369" s="8">
         <v>368</v>
       </c>
@@ -19506,8 +20959,12 @@
         <f t="shared" si="23"/>
         <v>86.730061290338199</v>
       </c>
-    </row>
-    <row r="370" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O369" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>98.399456711747007</v>
+      </c>
+    </row>
+    <row r="370" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A370" s="8">
         <v>369</v>
       </c>
@@ -19556,8 +21013,12 @@
         <f t="shared" si="23"/>
         <v>81.018081999836923</v>
       </c>
-    </row>
-    <row r="371" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O370" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>96.096348279735196</v>
+      </c>
+    </row>
+    <row r="371" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A371" s="8">
         <v>370</v>
       </c>
@@ -19606,8 +21067,12 @@
         <f t="shared" si="23"/>
         <v>69.570586819534071</v>
       </c>
-    </row>
-    <row r="372" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O371" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>100.03686442044098</v>
+      </c>
+    </row>
+    <row r="372" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A372" s="8">
         <v>371</v>
       </c>
@@ -19656,8 +21121,12 @@
         <f t="shared" si="23"/>
         <v>56.662124152613252</v>
       </c>
-    </row>
-    <row r="373" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O372" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>85.64642130009706</v>
+      </c>
+    </row>
+    <row r="373" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A373" s="8">
         <v>372</v>
       </c>
@@ -19706,8 +21175,12 @@
         <f t="shared" si="23"/>
         <v>40.953579615326404</v>
       </c>
-    </row>
-    <row r="374" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O373" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>70.154108349924741</v>
+      </c>
+    </row>
+    <row r="374" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A374" s="8">
         <v>373</v>
       </c>
@@ -19756,8 +21229,12 @@
         <f t="shared" si="23"/>
         <v>31.956830180117464</v>
       </c>
-    </row>
-    <row r="375" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O374" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>41.176091113444791</v>
+      </c>
+    </row>
+    <row r="375" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A375" s="8">
         <v>374</v>
       </c>
@@ -19806,8 +21283,12 @@
         <f t="shared" si="23"/>
         <v>23.574730090504989</v>
       </c>
-    </row>
-    <row r="376" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O375" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>36.676839651447125</v>
+      </c>
+    </row>
+    <row r="376" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A376" s="8">
         <v>375</v>
       </c>
@@ -19856,8 +21337,12 @@
         <f t="shared" si="23"/>
         <v>20.884094599792494</v>
       </c>
-    </row>
-    <row r="377" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O376" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>26.089466247597962</v>
+      </c>
+    </row>
+    <row r="377" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A377" s="8">
         <v>376</v>
       </c>
@@ -19906,8 +21391,12 @@
         <f t="shared" si="23"/>
         <v>18.001188572227608</v>
       </c>
-    </row>
-    <row r="378" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O377" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>16.606602455164541</v>
+      </c>
+    </row>
+    <row r="378" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A378" s="8">
         <v>377</v>
       </c>
@@ -19956,8 +21445,12 @@
         <f t="shared" si="23"/>
         <v>22.087024779665168</v>
       </c>
-    </row>
-    <row r="379" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O378" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>7.6987064743023055</v>
+      </c>
+    </row>
+    <row r="379" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A379" s="8">
         <v>378</v>
       </c>
@@ -20006,8 +21499,12 @@
         <f t="shared" si="23"/>
         <v>25.806647053560766</v>
       </c>
-    </row>
-    <row r="380" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O379" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>18.539389965529189</v>
+      </c>
+    </row>
+    <row r="380" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A380" s="8">
         <v>379</v>
       </c>
@@ -20056,8 +21553,12 @@
         <f t="shared" si="23"/>
         <v>31.899330964907545</v>
       </c>
-    </row>
-    <row r="381" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O380" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>21.744926165123672</v>
+      </c>
+    </row>
+    <row r="381" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A381" s="8">
         <v>380</v>
       </c>
@@ -20106,8 +21607,12 @@
         <f t="shared" si="23"/>
         <v>39.982635405205365</v>
       </c>
-    </row>
-    <row r="382" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O381" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>12.885711709135961</v>
+      </c>
+    </row>
+    <row r="382" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A382" s="8">
         <v>381</v>
       </c>
@@ -20156,8 +21661,12 @@
         <f t="shared" si="23"/>
         <v>56.261857062606282</v>
       </c>
-    </row>
-    <row r="383" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O382" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>12.229690048260267</v>
+      </c>
+    </row>
+    <row r="383" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A383" s="8">
         <v>382</v>
       </c>
@@ -20206,8 +21715,12 @@
         <f t="shared" si="23"/>
         <v>75.325434052944956</v>
       </c>
-    </row>
-    <row r="384" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O383" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>37.641773487203864</v>
+      </c>
+    </row>
+    <row r="384" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A384" s="8">
         <v>383</v>
       </c>
@@ -20256,8 +21769,12 @@
         <f t="shared" si="23"/>
         <v>88.350780224116463</v>
       </c>
-    </row>
-    <row r="385" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O384" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>79.838069138840183</v>
+      </c>
+    </row>
+    <row r="385" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A385" s="8">
         <v>384</v>
       </c>
@@ -20306,8 +21823,12 @@
         <f t="shared" si="23"/>
         <v>93.136926806401348</v>
       </c>
-    </row>
-    <row r="386" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O385" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>94.138019785936166</v>
+      </c>
+    </row>
+    <row r="386" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A386" s="8">
         <v>385</v>
       </c>
@@ -20356,8 +21877,12 @@
         <f t="shared" si="23"/>
         <v>92.416190345522168</v>
       </c>
-    </row>
-    <row r="387" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O386" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>93.238461130210624</v>
+      </c>
+    </row>
+    <row r="387" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A387" s="8">
         <v>386</v>
       </c>
@@ -20406,8 +21931,12 @@
         <f t="shared" si="23"/>
         <v>93.917672829446929</v>
       </c>
-    </row>
-    <row r="388" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O387" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>87.529852051283029</v>
+      </c>
+    </row>
+    <row r="388" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A388" s="8">
         <v>387</v>
       </c>
@@ -20456,8 +21985,12 @@
         <f t="shared" si="23"/>
         <v>95.085168596603978</v>
       </c>
-    </row>
-    <row r="389" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O388" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>92.977770553601715</v>
+      </c>
+    </row>
+    <row r="389" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A389" s="8">
         <v>388</v>
       </c>
@@ -20506,8 +22039,12 @@
         <f t="shared" si="23"/>
         <v>96.685001820465303</v>
       </c>
-    </row>
-    <row r="390" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O389" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>96.445896211872082</v>
+      </c>
+    </row>
+    <row r="390" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A390" s="8">
         <v>389</v>
       </c>
@@ -20556,8 +22093,12 @@
         <f t="shared" si="23"/>
         <v>96.051183394527087</v>
       </c>
-    </row>
-    <row r="391" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O390" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>97.733294302152757</v>
+      </c>
+    </row>
+    <row r="391" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A391" s="8">
         <v>390</v>
       </c>
@@ -20606,8 +22147,12 @@
         <f t="shared" si="23"/>
         <v>94.730090187410724</v>
       </c>
-    </row>
-    <row r="392" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O391" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>99.839094568720157</v>
+      </c>
+    </row>
+    <row r="392" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A392" s="8">
         <v>391</v>
       </c>
@@ -20656,8 +22201,12 @@
         <f t="shared" si="23"/>
         <v>92.274504993510888</v>
       </c>
-    </row>
-    <row r="393" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O392" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>97.947916894407854</v>
+      </c>
+    </row>
+    <row r="393" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A393" s="8">
         <v>392</v>
       </c>
@@ -20706,8 +22255,12 @@
         <f t="shared" si="23"/>
         <v>90.535039433481799</v>
       </c>
-    </row>
-    <row r="394" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O393" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>91.6216557791914</v>
+      </c>
+    </row>
+    <row r="394" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A394" s="8">
         <v>393</v>
       </c>
@@ -20756,8 +22309,12 @@
         <f t="shared" si="23"/>
         <v>90.862316413739734</v>
       </c>
-    </row>
-    <row r="395" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O394" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>86.272111366159578</v>
+      </c>
+    </row>
+    <row r="395" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A395" s="8">
         <v>394</v>
       </c>
@@ -20806,8 +22363,12 @@
         <f t="shared" si="23"/>
         <v>91.655966210976388</v>
       </c>
-    </row>
-    <row r="396" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O395" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>91.33040176338443</v>
+      </c>
+    </row>
+    <row r="396" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A396" s="8">
         <v>395</v>
       </c>
@@ -20856,8 +22417,12 @@
         <f t="shared" si="23"/>
         <v>89.002451663655066</v>
       </c>
-    </row>
-    <row r="397" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O396" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>102.94497975363922</v>
+      </c>
+    </row>
+    <row r="397" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A397" s="8">
         <v>396</v>
       </c>
@@ -20906,8 +22471,12 @@
         <f t="shared" si="23"/>
         <v>79.375114148110043</v>
       </c>
-    </row>
-    <row r="398" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O397" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>109.57452966254064</v>
+      </c>
+    </row>
+    <row r="398" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A398" s="8">
         <v>397</v>
       </c>
@@ -20956,8 +22525,12 @@
         <f t="shared" si="23"/>
         <v>66.662645905425748</v>
       </c>
-    </row>
-    <row r="399" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O398" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>92.625250302838239</v>
+      </c>
+    </row>
+    <row r="399" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A399" s="8">
         <v>398</v>
       </c>
@@ -21006,8 +22579,12 @@
         <f t="shared" si="23"/>
         <v>54.848257152311703</v>
       </c>
-    </row>
-    <row r="400" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O399" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>71.36872873829337</v>
+      </c>
+    </row>
+    <row r="400" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A400" s="8">
         <v>399</v>
       </c>
@@ -21056,8 +22633,12 @@
         <f t="shared" si="23"/>
         <v>51.510590387988707</v>
       </c>
-    </row>
-    <row r="401" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O400" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>46.00695896811466</v>
+      </c>
+    </row>
+    <row r="401" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A401" s="8">
         <v>400</v>
       </c>
@@ -21106,8 +22687,12 @@
         <f t="shared" si="23"/>
         <v>55.263326135720064</v>
       </c>
-    </row>
-    <row r="402" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O401" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>35.910876507333001</v>
+      </c>
+    </row>
+    <row r="402" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A402" s="8">
         <v>401</v>
       </c>
@@ -21156,8 +22741,12 @@
         <f t="shared" si="27"/>
         <v>67.268488017417738</v>
       </c>
-    </row>
-    <row r="403" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O402" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>36.598450043425458</v>
+      </c>
+    </row>
+    <row r="403" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A403" s="8">
         <v>402</v>
       </c>
@@ -21206,8 +22795,12 @@
         <f t="shared" si="27"/>
         <v>79.727867331926106</v>
       </c>
-    </row>
-    <row r="404" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O403" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>55.902513912876628</v>
+      </c>
+    </row>
+    <row r="404" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A404" s="8">
         <v>403</v>
       </c>
@@ -21256,8 +22849,12 @@
         <f t="shared" si="27"/>
         <v>89.17857257084377</v>
       </c>
-    </row>
-    <row r="405" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O404" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>80.952384379198065</v>
+      </c>
+    </row>
+    <row r="405" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A405" s="8">
         <v>404</v>
       </c>
@@ -21306,8 +22903,12 @@
         <f t="shared" si="27"/>
         <v>91.899214268960861</v>
       </c>
-    </row>
-    <row r="406" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O405" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>94.16677860935232</v>
+      </c>
+    </row>
+    <row r="406" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A406" s="8">
         <v>405</v>
       </c>
@@ -21356,8 +22957,12 @@
         <f t="shared" si="27"/>
         <v>87.677580358135785</v>
       </c>
-    </row>
-    <row r="407" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O406" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>105.08145645645621</v>
+      </c>
+    </row>
+    <row r="407" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A407" s="8">
         <v>406</v>
       </c>
@@ -21406,8 +23011,12 @@
         <f t="shared" si="27"/>
         <v>77.454788121454683</v>
       </c>
-    </row>
-    <row r="408" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O407" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>107.11778445111742</v>
+      </c>
+    </row>
+    <row r="408" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A408" s="8">
         <v>407</v>
       </c>
@@ -21456,8 +23065,12 @@
         <f t="shared" si="27"/>
         <v>66.151929707485294</v>
       </c>
-    </row>
-    <row r="409" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O408" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>84.742075408741883</v>
+      </c>
+    </row>
+    <row r="409" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A409" s="8">
         <v>408</v>
       </c>
@@ -21506,8 +23119,12 @@
         <f t="shared" si="27"/>
         <v>56.543432321210162</v>
       </c>
-    </row>
-    <row r="410" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O409" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>69.329996663330164</v>
+      </c>
+    </row>
+    <row r="410" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A410" s="8">
         <v>409</v>
       </c>
@@ -21556,8 +23173,12 @@
         <f t="shared" si="27"/>
         <v>55.555555555555657</v>
       </c>
-    </row>
-    <row r="411" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O410" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>47.347347347347366</v>
+      </c>
+    </row>
+    <row r="411" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A411" s="8">
         <v>410</v>
       </c>
@@ -21606,8 +23227,12 @@
         <f t="shared" si="27"/>
         <v>58.375041708375115</v>
       </c>
-    </row>
-    <row r="412" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O411" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>44.494494494494546</v>
+      </c>
+    </row>
+    <row r="412" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A412" s="8">
         <v>411</v>
       </c>
@@ -21656,8 +23281,12 @@
         <f t="shared" si="27"/>
         <v>69.736403069736539</v>
       </c>
-    </row>
-    <row r="413" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O412" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>40.740740740740819</v>
+      </c>
+    </row>
+    <row r="413" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A413" s="8">
         <v>412</v>
       </c>
@@ -21706,8 +23335,12 @@
         <f t="shared" si="27"/>
         <v>79.779021445688201</v>
       </c>
-    </row>
-    <row r="414" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O413" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>59.762034762034972</v>
+      </c>
+    </row>
+    <row r="414" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A414" s="8">
         <v>413</v>
       </c>
@@ -21756,8 +23389,12 @@
         <f t="shared" si="27"/>
         <v>87.694152103374066</v>
       </c>
-    </row>
-    <row r="415" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O414" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>84.961041733376163</v>
+      </c>
+    </row>
+    <row r="415" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A415" s="8">
         <v>414</v>
       </c>
@@ -21806,8 +23443,12 @@
         <f t="shared" si="27"/>
         <v>87.484010514750153</v>
       </c>
-    </row>
-    <row r="416" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O415" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>95.244412607525192</v>
+      </c>
+    </row>
+    <row r="416" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A416" s="8">
         <v>415</v>
       </c>
@@ -21856,8 +23497,12 @@
         <f t="shared" si="27"/>
         <v>86.512894708361898</v>
       </c>
-    </row>
-    <row r="417" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O416" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>85.790349388385692</v>
+      </c>
+    </row>
+    <row r="417" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A417" s="8">
         <v>416</v>
       </c>
@@ -21906,8 +23551,12 @@
         <f t="shared" si="27"/>
         <v>87.420241109278933</v>
       </c>
-    </row>
-    <row r="418" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O417" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>78.695230345588499</v>
+      </c>
+    </row>
+    <row r="418" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A418" s="8">
         <v>417</v>
       </c>
@@ -21956,8 +23605,12 @@
         <f t="shared" si="27"/>
         <v>91.980594706483032</v>
       </c>
-    </row>
-    <row r="419" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O418" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>81.372043599499165</v>
+      </c>
+    </row>
+    <row r="419" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A419" s="8">
         <v>418</v>
       </c>
@@ -22006,8 +23659,12 @@
         <f t="shared" si="27"/>
         <v>95.432319434854534</v>
       </c>
-    </row>
-    <row r="420" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O419" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>91.838275197634658</v>
+      </c>
+    </row>
+    <row r="420" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A420" s="8">
         <v>419</v>
       </c>
@@ -22056,8 +23713,12 @@
         <f t="shared" si="27"/>
         <v>96.014734555658251</v>
       </c>
-    </row>
-    <row r="421" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O420" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>100.98421995990412</v>
+      </c>
+    </row>
+    <row r="421" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A421" s="8">
         <v>420</v>
       </c>
@@ -22106,8 +23767,12 @@
         <f t="shared" si="27"/>
         <v>93.924522760814895</v>
       </c>
-    </row>
-    <row r="422" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O421" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>99.745098531554817</v>
+      </c>
+    </row>
+    <row r="422" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A422" s="8">
         <v>421</v>
       </c>
@@ -22156,8 +23821,12 @@
         <f t="shared" si="27"/>
         <v>90.251397047263893</v>
       </c>
-    </row>
-    <row r="423" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O422" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>98.334262316168747</v>
+      </c>
+    </row>
+    <row r="423" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A423" s="8">
         <v>422</v>
       </c>
@@ -22206,8 +23875,12 @@
         <f t="shared" si="27"/>
         <v>85.595495204036197</v>
       </c>
-    </row>
-    <row r="424" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O423" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>97.661912964404195</v>
+      </c>
+    </row>
+    <row r="424" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A424" s="8">
         <v>423</v>
       </c>
@@ -22256,8 +23929,12 @@
         <f t="shared" si="27"/>
         <v>78.409859156664865</v>
       </c>
-    </row>
-    <row r="425" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O424" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>96.314924003332834</v>
+      </c>
+    </row>
+    <row r="425" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A425" s="8">
         <v>424</v>
       </c>
@@ -22306,8 +23983,12 @@
         <f t="shared" si="27"/>
         <v>67.781199223406873</v>
       </c>
-    </row>
-    <row r="426" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O425" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>94.695628444145555</v>
+      </c>
+    </row>
+    <row r="426" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A426" s="8">
         <v>425</v>
       </c>
@@ -22356,8 +24037,12 @@
         <f t="shared" si="27"/>
         <v>56.559980646206476</v>
       </c>
-    </row>
-    <row r="427" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O426" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>77.882680754117359</v>
+      </c>
+    </row>
+    <row r="427" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A427" s="8">
         <v>426</v>
       </c>
@@ -22406,8 +24091,12 @@
         <f t="shared" si="27"/>
         <v>48.718630715755268</v>
       </c>
-    </row>
-    <row r="428" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O427" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>54.289338263311365</v>
+      </c>
+    </row>
+    <row r="428" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A428" s="8">
         <v>427</v>
       </c>
@@ -22456,8 +24145,12 @@
         <f t="shared" si="27"/>
         <v>48.21078085108666</v>
       </c>
-    </row>
-    <row r="429" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O428" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>39.031472515196569</v>
+      </c>
+    </row>
+    <row r="429" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A429" s="8">
         <v>428</v>
       </c>
@@ -22506,8 +24199,12 @@
         <f t="shared" si="27"/>
         <v>55.029445376554087</v>
       </c>
-    </row>
-    <row r="430" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O429" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>32.379087792355563</v>
+      </c>
+    </row>
+    <row r="430" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A430" s="8">
         <v>429</v>
       </c>
@@ -22556,8 +24253,12 @@
         <f t="shared" si="27"/>
         <v>64.677593456977107</v>
       </c>
-    </row>
-    <row r="431" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O430" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>44.277338004438747</v>
+      </c>
+    </row>
+    <row r="431" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A431" s="8">
         <v>430</v>
       </c>
@@ -22606,8 +24307,12 @@
         <f t="shared" si="27"/>
         <v>71.335540085774099</v>
       </c>
-    </row>
-    <row r="432" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O431" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>68.458070446476995</v>
+      </c>
+    </row>
+    <row r="432" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A432" s="8">
         <v>431</v>
       </c>
@@ -22656,8 +24361,12 @@
         <f t="shared" si="27"/>
         <v>73.534271920266747</v>
       </c>
-    </row>
-    <row r="433" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O432" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>74.70117641653772</v>
+      </c>
+    </row>
+    <row r="433" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A433" s="8">
         <v>432</v>
       </c>
@@ -22706,8 +24415,12 @@
         <f t="shared" si="27"/>
         <v>73.725756359884684</v>
       </c>
-    </row>
-    <row r="434" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O433" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>70.272920075453811</v>
+      </c>
+    </row>
+    <row r="434" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A434" s="8">
         <v>433</v>
       </c>
@@ -22756,8 +24469,12 @@
         <f t="shared" si="27"/>
         <v>79.369516964731545</v>
       </c>
-    </row>
-    <row r="435" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O434" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>58.697437454268083</v>
+      </c>
+    </row>
+    <row r="435" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A435" s="8">
         <v>434</v>
       </c>
@@ -22806,8 +24523,12 @@
         <f t="shared" si="27"/>
         <v>85.023842343073781</v>
       </c>
-    </row>
-    <row r="436" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O435" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>75.243935414905508</v>
+      </c>
+    </row>
+    <row r="436" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A436" s="8">
         <v>435</v>
       </c>
@@ -22856,8 +24577,12 @@
         <f t="shared" si="27"/>
         <v>87.76125306982884</v>
       </c>
-    </row>
-    <row r="437" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O436" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>95.954945844755827</v>
+      </c>
+    </row>
+    <row r="437" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A437" s="8">
         <v>436</v>
       </c>
@@ -22906,8 +24631,12 @@
         <f t="shared" si="27"/>
         <v>82.782747303778748</v>
       </c>
-    </row>
-    <row r="438" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O437" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>98.80816306771024</v>
+      </c>
+    </row>
+    <row r="438" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A438" s="8">
         <v>437</v>
       </c>
@@ -22956,8 +24685,12 @@
         <f t="shared" si="27"/>
         <v>74.727090152699404</v>
       </c>
-    </row>
-    <row r="439" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O438" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>92.687621750258444</v>
+      </c>
+    </row>
+    <row r="439" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A439" s="8">
         <v>438</v>
       </c>
@@ -23006,8 +24739,12 @@
         <f t="shared" si="27"/>
         <v>68.159769090874391</v>
       </c>
-    </row>
-    <row r="440" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O439" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>76.554420278842585</v>
+      </c>
+    </row>
+    <row r="440" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A440" s="8">
         <v>439</v>
       </c>
@@ -23056,8 +24793,12 @@
         <f t="shared" si="27"/>
         <v>64.387412433216497</v>
       </c>
-    </row>
-    <row r="441" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O440" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>66.256298401970852</v>
+      </c>
+    </row>
+    <row r="441" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A441" s="8">
         <v>440</v>
       </c>
@@ -23106,8 +24847,12 @@
         <f t="shared" si="27"/>
         <v>65.758653618844406</v>
       </c>
-    </row>
-    <row r="442" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O441" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>57.554865034925996</v>
+      </c>
+    </row>
+    <row r="442" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A442" s="8">
         <v>441</v>
       </c>
@@ -23156,8 +24901,12 @@
         <f t="shared" si="27"/>
         <v>68.100417487910633</v>
       </c>
-    </row>
-    <row r="443" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O442" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>62.325782255553946</v>
+      </c>
+    </row>
+    <row r="443" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A443" s="8">
         <v>442</v>
       </c>
@@ -23206,8 +24955,12 @@
         <f t="shared" si="27"/>
         <v>71.274058588706581</v>
       </c>
-    </row>
-    <row r="444" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O443" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>67.87439026366539</v>
+      </c>
+    </row>
+    <row r="444" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A444" s="8">
         <v>443</v>
       </c>
@@ -23256,8 +25009,12 @@
         <f t="shared" si="27"/>
         <v>67.371224020775088</v>
       </c>
-    </row>
-    <row r="445" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O444" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>85.809583648307054</v>
+      </c>
+    </row>
+    <row r="445" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A445" s="8">
         <v>444</v>
       </c>
@@ -23306,8 +25063,12 @@
         <f t="shared" si="27"/>
         <v>57.877581560980794</v>
       </c>
-    </row>
-    <row r="446" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O445" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>88.619129233530188</v>
+      </c>
+    </row>
+    <row r="446" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A446" s="8">
         <v>445</v>
       </c>
@@ -23356,8 +25117,12 @@
         <f t="shared" si="27"/>
         <v>42.972118350210771</v>
       </c>
-    </row>
-    <row r="447" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O446" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>72.401348812798119</v>
+      </c>
+    </row>
+    <row r="447" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A447" s="8">
         <v>446</v>
       </c>
@@ -23406,8 +25171,12 @@
         <f t="shared" si="27"/>
         <v>32.190557310413169</v>
       </c>
-    </row>
-    <row r="448" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O447" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>44.956949756006907</v>
+      </c>
+    </row>
+    <row r="448" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A448" s="8">
         <v>447</v>
       </c>
@@ -23456,8 +25225,12 @@
         <f t="shared" si="27"/>
         <v>24.390564097957451</v>
       </c>
-    </row>
-    <row r="449" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O448" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>34.958036119194453</v>
+      </c>
+    </row>
+    <row r="449" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A449" s="8">
         <v>448</v>
       </c>
@@ -23506,8 +25279,12 @@
         <f t="shared" si="27"/>
         <v>18.88285433624128</v>
       </c>
-    </row>
-    <row r="450" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O449" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>33.179815341186668</v>
+      </c>
+    </row>
+    <row r="450" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A450" s="8">
         <v>449</v>
       </c>
@@ -23556,8 +25333,12 @@
         <f t="shared" si="27"/>
         <v>14.17875115226982</v>
       </c>
-    </row>
-    <row r="451" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O450" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>19.146150385405619</v>
+      </c>
+    </row>
+    <row r="451" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A451" s="8">
         <v>450</v>
       </c>
@@ -23606,8 +25387,12 @@
         <f t="shared" si="27"/>
         <v>13.367856410231257</v>
       </c>
-    </row>
-    <row r="452" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O451" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>6.7552815082472435</v>
+      </c>
+    </row>
+    <row r="452" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A452" s="8">
         <v>451</v>
       </c>
@@ -23656,8 +25441,12 @@
         <f t="shared" si="27"/>
         <v>19.017237905350608</v>
       </c>
-    </row>
-    <row r="453" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O452" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>-0.31332292220144353</v>
+      </c>
+    </row>
+    <row r="453" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A453" s="8">
         <v>452</v>
       </c>
@@ -23706,8 +25495,12 @@
         <f t="shared" si="27"/>
         <v>26.868052440057806</v>
       </c>
-    </row>
-    <row r="454" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O453" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>10.109167040526401</v>
+      </c>
+    </row>
+    <row r="454" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A454" s="8">
         <v>453</v>
       </c>
@@ -23756,8 +25549,12 @@
         <f t="shared" si="27"/>
         <v>34.031204825282849</v>
       </c>
-    </row>
-    <row r="455" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O454" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>25.766412442051717</v>
+      </c>
+    </row>
+    <row r="455" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A455" s="8">
         <v>454</v>
       </c>
@@ -23806,8 +25603,12 @@
         <f t="shared" si="27"/>
         <v>35.172723194257493</v>
       </c>
-    </row>
-    <row r="456" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O455" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>41.304022730671377</v>
+      </c>
+    </row>
+    <row r="456" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A456" s="8">
         <v>455</v>
       </c>
@@ -23856,8 +25657,12 @@
         <f t="shared" si="27"/>
         <v>31.478989083295932</v>
       </c>
-    </row>
-    <row r="457" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O456" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>46.104381636010146</v>
+      </c>
+    </row>
+    <row r="457" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A457" s="8">
         <v>456</v>
       </c>
@@ -23906,8 +25711,12 @@
         <f t="shared" si="27"/>
         <v>26.332891203568266</v>
       </c>
-    </row>
-    <row r="458" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O457" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>33.54805885527395</v>
+      </c>
+    </row>
+    <row r="458" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A458" s="8">
         <v>457</v>
       </c>
@@ -23956,8 +25765,12 @@
         <f t="shared" si="27"/>
         <v>20.616017157081064</v>
       </c>
-    </row>
-    <row r="459" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O458" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>31.935148898065318</v>
+      </c>
+    </row>
+    <row r="459" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A459" s="8">
         <v>458</v>
       </c>
@@ -24006,8 +25819,12 @@
         <f t="shared" si="27"/>
         <v>17.761805121232413</v>
       </c>
-    </row>
-    <row r="460" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O459" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>22.078101964911479</v>
+      </c>
+    </row>
+    <row r="460" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A460" s="8">
         <v>459</v>
       </c>
@@ -24056,8 +25873,12 @@
         <f t="shared" si="27"/>
         <v>14.204862129515993</v>
       </c>
-    </row>
-    <row r="461" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O460" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>18.505629583415654</v>
+      </c>
+    </row>
+    <row r="461" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A461" s="8">
         <v>460</v>
       </c>
@@ -24106,8 +25927,12 @@
         <f t="shared" si="27"/>
         <v>14.61150631051361</v>
       </c>
-    </row>
-    <row r="462" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O461" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>11.481751272377259</v>
+      </c>
+    </row>
+    <row r="462" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A462" s="8">
         <v>461</v>
       </c>
@@ -24156,8 +25981,12 @@
         <f t="shared" si="27"/>
         <v>16.461815241200679</v>
       </c>
-    </row>
-    <row r="463" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O462" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>7.0762787406938585</v>
+      </c>
+    </row>
+    <row r="463" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A463" s="8">
         <v>462</v>
       </c>
@@ -24206,8 +26035,12 @@
         <f t="shared" si="27"/>
         <v>23.847593288058864</v>
       </c>
-    </row>
-    <row r="464" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O463" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>3.1191547778951332</v>
+      </c>
+    </row>
+    <row r="464" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A464" s="8">
         <v>463</v>
       </c>
@@ -24256,8 +26089,12 @@
         <f t="shared" si="27"/>
         <v>35.341359901596839</v>
       </c>
-    </row>
-    <row r="465" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O464" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>4.7087123643990907</v>
+      </c>
+    </row>
+    <row r="465" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A465" s="8">
         <v>464</v>
       </c>
@@ -24306,8 +26143,12 @@
         <f t="shared" si="27"/>
         <v>47.325229354825147</v>
       </c>
-    </row>
-    <row r="466" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O465" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>27.763304362197459</v>
+      </c>
+    </row>
+    <row r="466" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A466" s="8">
         <v>465</v>
       </c>
@@ -24356,8 +26197,12 @@
         <f t="shared" si="31"/>
         <v>56.395037963854186</v>
       </c>
-    </row>
-    <row r="467" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O466" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>46.342637151106857</v>
+      </c>
+    </row>
+    <row r="467" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A467" s="8">
         <v>466</v>
       </c>
@@ -24406,8 +26251,12 @@
         <f t="shared" si="31"/>
         <v>61.246366640481789</v>
       </c>
-    </row>
-    <row r="468" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O467" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>53.315760521288354</v>
+      </c>
+    </row>
+    <row r="468" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A468" s="8">
         <v>467</v>
       </c>
@@ -24456,8 +26305,12 @@
         <f t="shared" si="31"/>
         <v>68.733673845038425</v>
       </c>
-    </row>
-    <row r="469" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O468" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>47.06479460549744</v>
+      </c>
+    </row>
+    <row r="469" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A469" s="8">
         <v>468</v>
       </c>
@@ -24506,8 +26359,12 @@
         <f t="shared" si="31"/>
         <v>78.457292738133219</v>
       </c>
-    </row>
-    <row r="470" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O469" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>54.187688115375153</v>
+      </c>
+    </row>
+    <row r="470" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A470" s="8">
         <v>469</v>
       </c>
@@ -24556,8 +26413,12 @@
         <f t="shared" si="31"/>
         <v>87.841591968423657</v>
       </c>
-    </row>
-    <row r="471" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O470" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>76.795641123371411</v>
+      </c>
+    </row>
+    <row r="471" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A471" s="8">
         <v>470</v>
       </c>
@@ -24606,8 +26467,12 @@
         <f t="shared" si="31"/>
         <v>87.985554146820675</v>
       </c>
-    </row>
-    <row r="472" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O471" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>103.95666244046203</v>
+      </c>
+    </row>
+    <row r="472" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A472" s="8">
         <v>471</v>
       </c>
@@ -24656,8 +26521,12 @@
         <f t="shared" si="31"/>
         <v>80.06370205331153</v>
       </c>
-    </row>
-    <row r="473" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O472" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>106.53802862196497</v>
+      </c>
+    </row>
+    <row r="473" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A473" s="8">
         <v>472</v>
       </c>
@@ -24706,8 +26575,12 @@
         <f t="shared" si="31"/>
         <v>67.284838795630151</v>
       </c>
-    </row>
-    <row r="474" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O473" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>91.798561151079127</v>
+      </c>
+    </row>
+    <row r="474" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A474" s="8">
         <v>473</v>
       </c>
@@ -24756,8 +26629,12 @@
         <f t="shared" si="31"/>
         <v>59.195310418331985</v>
       </c>
-    </row>
-    <row r="475" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O474" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>66.123101518784949</v>
+      </c>
+    </row>
+    <row r="475" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A475" s="8">
         <v>474</v>
       </c>
@@ -24806,8 +26683,12 @@
         <f t="shared" si="31"/>
         <v>55.661904602403375</v>
       </c>
-    </row>
-    <row r="476" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O475" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>54.533071164812213</v>
+      </c>
+    </row>
+    <row r="476" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A476" s="8">
         <v>475</v>
       </c>
@@ -24856,8 +26737,12 @@
         <f t="shared" si="31"/>
         <v>52.31439336085856</v>
       </c>
-    </row>
-    <row r="477" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O476" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>66.972292296033245</v>
+      </c>
+    </row>
+    <row r="477" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A477" s="8">
         <v>476</v>
       </c>
@@ -24906,8 +26791,12 @@
         <f t="shared" si="31"/>
         <v>42.483274904121622</v>
       </c>
-    </row>
-    <row r="478" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O477" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>74.973705716575466</v>
+      </c>
+    </row>
+    <row r="478" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A478" s="8">
         <v>477</v>
       </c>
@@ -24956,8 +26845,12 @@
         <f t="shared" si="31"/>
         <v>27.122331076119888</v>
       </c>
-    </row>
-    <row r="479" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O478" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>61.080013553972137</v>
+      </c>
+    </row>
+    <row r="479" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A479" s="8">
         <v>478</v>
       </c>
@@ -25006,8 +26899,12 @@
         <f t="shared" si="31"/>
         <v>13.98587530307225</v>
       </c>
-    </row>
-    <row r="480" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O479" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>30.805472760960164</v>
+      </c>
+    </row>
+    <row r="480" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A480" s="8">
         <v>479</v>
       </c>
@@ -25056,8 +26953,12 @@
         <f t="shared" si="31"/>
         <v>9.2101538894308081</v>
       </c>
-    </row>
-    <row r="481" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O480" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>3.808671154351682</v>
+      </c>
+    </row>
+    <row r="481" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A481" s="8">
         <v>480</v>
       </c>
@@ -25106,8 +27007,12 @@
         <f t="shared" si="31"/>
         <v>11.914692348241871</v>
       </c>
-    </row>
-    <row r="482" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O481" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>-0.770133382528293</v>
+      </c>
+    </row>
+    <row r="482" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A482" s="8">
         <v>481</v>
       </c>
@@ -25156,8 +27061,12 @@
         <f t="shared" si="31"/>
         <v>23.074382740465765</v>
       </c>
-    </row>
-    <row r="483" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O482" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>-8.8871472802026403</v>
+      </c>
+    </row>
+    <row r="483" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A483" s="8">
         <v>482</v>
       </c>
@@ -25206,8 +27115,12 @@
         <f t="shared" si="31"/>
         <v>36.911077570690757</v>
       </c>
-    </row>
-    <row r="484" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O483" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>3.8912732167815562</v>
+      </c>
+    </row>
+    <row r="484" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A484" s="8">
         <v>483</v>
       </c>
@@ -25256,8 +27169,12 @@
         <f t="shared" si="31"/>
         <v>55.088196310804278</v>
       </c>
-    </row>
-    <row r="485" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O484" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>19.687666064477781</v>
+      </c>
+    </row>
+    <row r="485" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A485" s="8">
         <v>484</v>
       </c>
@@ -25306,8 +27223,12 @@
         <f t="shared" si="31"/>
         <v>69.695065390111964</v>
       </c>
-    </row>
-    <row r="486" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O485" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>43.333686192889814</v>
+      </c>
+    </row>
+    <row r="486" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A486" s="8">
         <v>485</v>
       </c>
@@ -25356,8 +27277,12 @@
         <f t="shared" si="31"/>
         <v>76.620464492712259</v>
       </c>
-    </row>
-    <row r="487" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O486" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>81.467039367244325</v>
+      </c>
+    </row>
+    <row r="487" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A487" s="8">
         <v>486</v>
       </c>
@@ -25406,8 +27331,12 @@
         <f t="shared" si="31"/>
         <v>71.950665055173332</v>
       </c>
-    </row>
-    <row r="488" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O487" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>98.293868922818532</v>
+      </c>
+    </row>
+    <row r="488" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A488" s="8">
         <v>487</v>
       </c>
@@ -25456,8 +27385,12 @@
         <f t="shared" si="31"/>
         <v>54.208007278002732</v>
       </c>
-    </row>
-    <row r="489" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O488" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>103.32845851958575</v>
+      </c>
+    </row>
+    <row r="489" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A489" s="8">
         <v>488</v>
       </c>
@@ -25506,8 +27439,12 @@
         <f t="shared" si="31"/>
         <v>37.533823658691034</v>
       </c>
-    </row>
-    <row r="490" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O489" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>64.25221858105084</v>
+      </c>
+    </row>
+    <row r="490" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A490" s="8">
         <v>489</v>
       </c>
@@ -25556,8 +27493,12 @@
         <f t="shared" si="31"/>
         <v>24.233189283713717</v>
       </c>
-    </row>
-    <row r="491" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O490" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>34.94524785830356</v>
+      </c>
+    </row>
+    <row r="491" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A491" s="8">
         <v>490</v>
       </c>
@@ -25606,8 +27547,12 @@
         <f t="shared" si="31"/>
         <v>23.432948339153143</v>
       </c>
-    </row>
-    <row r="492" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O491" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>15.804727370400428</v>
+      </c>
+    </row>
+    <row r="492" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A492" s="8">
         <v>491</v>
       </c>
@@ -25656,8 +27601,12 @@
         <f t="shared" si="31"/>
         <v>25.121144835407623</v>
       </c>
-    </row>
-    <row r="493" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O492" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>16.885003133673727</v>
+      </c>
+    </row>
+    <row r="493" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A493" s="8">
         <v>492</v>
       </c>
@@ -25706,8 +27655,12 @@
         <f t="shared" si="31"/>
         <v>26.708496732026202</v>
       </c>
-    </row>
-    <row r="494" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O493" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>32.847058823529544</v>
+      </c>
+    </row>
+    <row r="494" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A494" s="8">
         <v>493</v>
       </c>
@@ -25756,8 +27709,12 @@
         <f t="shared" si="31"/>
         <v>22.776839512820164</v>
       </c>
-    </row>
-    <row r="495" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O494" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>37.426344206637722</v>
+      </c>
+    </row>
+    <row r="495" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A495" s="8">
         <v>494</v>
       </c>
@@ -25806,8 +27763,12 @@
         <f t="shared" si="31"/>
         <v>15.474439428566873</v>
       </c>
-    </row>
-    <row r="496" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O495" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>31.759287418671228</v>
+      </c>
+    </row>
+    <row r="496" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A496" s="8">
         <v>495</v>
       </c>
@@ -25856,8 +27817,12 @@
         <f t="shared" si="31"/>
         <v>9.7745941683781297</v>
       </c>
-    </row>
-    <row r="497" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O496" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>16.244422693717773</v>
+      </c>
+    </row>
+    <row r="497" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A497" s="8">
         <v>496</v>
       </c>
@@ -25906,8 +27871,12 @@
         <f t="shared" si="31"/>
         <v>6.8288920328159612</v>
       </c>
-    </row>
-    <row r="498" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O497" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>7.2567145799981194</v>
+      </c>
+    </row>
+    <row r="498" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A498" s="8">
         <v>497</v>
       </c>
@@ -25956,8 +27925,12 @@
         <f t="shared" si="31"/>
         <v>6.0580400351900714</v>
       </c>
-    </row>
-    <row r="499" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O498" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>8.1352012242961624</v>
+      </c>
+    </row>
+    <row r="499" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A499" s="8">
         <v>498</v>
       </c>
@@ -26006,8 +27979,12 @@
         <f t="shared" si="31"/>
         <v>4.8874547335211327</v>
       </c>
-    </row>
-    <row r="500" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O499" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>8.6065161991604207</v>
+      </c>
+    </row>
+    <row r="500" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A500" s="8">
         <v>499</v>
       </c>
@@ -26056,8 +28033,12 @@
         <f t="shared" si="31"/>
         <v>6.7548907092234183</v>
       </c>
-    </row>
-    <row r="501" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O500" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>-4.1699052449932275</v>
+      </c>
+    </row>
+    <row r="501" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A501" s="8">
         <v>500</v>
       </c>
@@ -26106,8 +28087,12 @@
         <f t="shared" si="31"/>
         <v>13.377506007604916</v>
       </c>
-    </row>
-    <row r="502" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O501" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>-9.6420926487482888</v>
+      </c>
+    </row>
+    <row r="502" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A502" s="8">
         <v>501</v>
       </c>
@@ -26156,8 +28141,12 @@
         <f t="shared" si="31"/>
         <v>25.261420045361444</v>
       </c>
-    </row>
-    <row r="503" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O502" s="13">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>-1.5750720918578196</v>
+      </c>
+    </row>
+    <row r="503" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A503" s="8">
         <v>502</v>
       </c>
@@ -26198,19 +28187,26 @@
         <f>100*(testdata[[#This Row],[close]]-testdata[[#This Row],[LL]])/(testdata[[#This Row],[HH]]-testdata[[#This Row],[LL]])</f>
         <v>47.987897125567308</v>
       </c>
-      <c r="M503" s="11">
+      <c r="M503" s="14">
         <f t="shared" si="31"/>
         <v>43.135349705670613</v>
       </c>
-      <c r="N503" s="11">
+      <c r="N503" s="14">
         <f t="shared" si="31"/>
         <v>35.567440385141069</v>
+      </c>
+      <c r="O503" s="14">
+        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
+        <v>20.43162174408198</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="J15:K503" formulaRange="1"/>
+  </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>

--- a/indicators/Stoch/Stoch.Calc.xlsx
+++ b/indicators/Stoch/Stoch.Calc.xlsx
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daves\Repos\Stock.Indicators\indicators\Stoch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1FCD2B-74A5-4648-B17E-6302C4DC9F10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5453D62-80F2-4579-82D7-D2639FCCE753}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1291,8 +1291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O503"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2060,8 +2060,8 @@
         <v>88.499536357857821</v>
       </c>
       <c r="O19" s="14">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>81.237287618488494</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>99.392909466911789</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -2114,8 +2114,8 @@
         <v>87.119734584911257</v>
       </c>
       <c r="O20" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>107.38741459363567</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>56.718214571824632</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -2168,8 +2168,8 @@
         <v>77.827270477604301</v>
       </c>
       <c r="O21" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>104.75129918337012</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>37.441227418955549</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -2222,8 +2222,8 @@
         <v>65.429349170997071</v>
       </c>
       <c r="O22" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>86.414253897549642</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>33.951992081168243</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -2276,8 +2276,8 @@
         <v>58.275114444485666</v>
       </c>
       <c r="O23" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>63.778962531427325</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>50.019342314073185</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -2330,8 +2330,8 @@
         <v>59.497371512403468</v>
       </c>
       <c r="O24" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>42.428059880260861</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>85.101338960617355</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -2384,8 +2384,8 @@
         <v>66.775101746477858</v>
       </c>
       <c r="O25" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>46.785130219545692</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>96.760059036876129</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -2438,8 +2438,8 @@
         <v>76.774398926516014</v>
       </c>
       <c r="O26" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>59.281032897289464</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>103.0144479703558</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -2492,8 +2492,8 @@
         <v>82.365420312914026</v>
       </c>
       <c r="O27" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>77.486077963404398</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>89.684433837178489</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -2546,8 +2546,8 @@
         <v>86.322019575946626</v>
       </c>
       <c r="O28" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>81.686288129756377</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>93.275616745232014</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -2600,8 +2600,8 @@
         <v>88.763258701900767</v>
       </c>
       <c r="O29" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>80.600177467718879</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>101.00788055317358</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -2654,8 +2654,8 @@
         <v>92.121560081432605</v>
       </c>
       <c r="O30" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>86.604688991769052</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>100.39686671592793</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -2708,8 +2708,8 @@
         <v>94.86975796186961</v>
       </c>
       <c r="O31" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>90.840316004903315</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>100.91392089731906</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -2762,8 +2762,8 @@
         <v>96.470393825026733</v>
       </c>
       <c r="O32" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>94.117767658154065</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>99.999333075335727</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -2816,8 +2816,8 @@
         <v>97.334801724573126</v>
       </c>
       <c r="O33" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>97.057966523912285</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>97.750054525564366</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -2870,8 +2870,8 @@
         <v>97.467030965558195</v>
       </c>
       <c r="O34" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>97.838759570058613</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>96.909438058807552</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
@@ -2924,8 +2924,8 @@
         <v>97.399024974626585</v>
       </c>
       <c r="O35" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>97.311697052543337</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>97.530016857751463</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -2978,8 +2978,8 @@
         <v>97.470626271281574</v>
       </c>
       <c r="O36" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>97.035832384107607</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>98.122817102042546</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -3032,8 +3032,8 @@
         <v>97.09705937545435</v>
       </c>
       <c r="O37" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>98.970246174710553</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>94.287279176570024</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -3086,8 +3086,8 @@
         <v>96.69041540575688</v>
       </c>
       <c r="O38" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>97.625732164119</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>95.287440268213686</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -3140,8 +3140,8 @@
         <v>96.41807891977426</v>
       </c>
       <c r="O39" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>95.51220924548133</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>97.77688343121369</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -3194,8 +3194,8 @@
         <v>96.211370239083536</v>
       </c>
       <c r="O40" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>97.553430849742512</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>94.198279323095079</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -3248,8 +3248,8 @@
         <v>95.633849923035413</v>
       </c>
       <c r="O41" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>97.92115761224332</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>92.202888389223546</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
@@ -3302,8 +3302,8 @@
         <v>92.747513488207218</v>
       </c>
       <c r="O42" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>101.81853155974937</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>79.140986380893963</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
@@ -3356,8 +3356,8 @@
         <v>88.790822045558912</v>
       </c>
       <c r="O43" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>99.031934925058437</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>73.42915272630961</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
@@ -3410,8 +3410,8 @@
         <v>82.194554689574588</v>
       </c>
       <c r="O44" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>97.180876047766873</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>59.715072652286125</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
@@ -3464,8 +3464,8 @@
         <v>74.714411406533955</v>
       </c>
       <c r="O45" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>92.600085012973267</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>47.885900996874994</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
@@ -3518,8 +3518,8 @@
         <v>64.8390545381301</v>
       </c>
       <c r="O46" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>86.428773613195162</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>32.454475925532535</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
@@ -3572,8 +3572,8 @@
         <v>55.491498928599761</v>
       </c>
       <c r="O47" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>73.157042422024489</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>28.993183688462679</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
@@ -3626,8 +3626,8 @@
         <v>48.48672893415943</v>
       </c>
       <c r="O48" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>55.945657562491661</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>37.298335991661077</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
@@ -3680,8 +3680,8 @@
         <v>46.159259699234362</v>
       </c>
       <c r="O49" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>44.354204506058366</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>48.866842488998358</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
@@ -3734,8 +3734,8 @@
         <v>44.549235207839708</v>
       </c>
       <c r="O50" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>49.990398208112239</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>36.387490707430928</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
@@ -3788,8 +3788,8 @@
         <v>46.428803108686687</v>
       </c>
       <c r="O51" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>38.494472680991564</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>58.330298750229375</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
@@ -3842,8 +3842,8 @@
         <v>48.778153303291383</v>
       </c>
       <c r="O52" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>38.114784150601238</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>64.773207032326596</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
@@ -3896,8 +3896,8 @@
         <v>55.144866188482808</v>
       </c>
       <c r="O53" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>43.577013838892995</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>72.496644712867521</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
@@ -3950,8 +3950,8 @@
         <v>55.630160698255366</v>
       </c>
       <c r="O54" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>63.186778391062248</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>44.295234159045037</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
@@ -4004,8 +4004,8 @@
         <v>48.546945322388495</v>
       </c>
       <c r="O55" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>79.92045246309381</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>1.4866846113305314</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
@@ -4058,8 +4058,8 @@
         <v>36.117084187368746</v>
       </c>
       <c r="O56" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>61.072834645669282</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>-1.3165415000820531</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
@@ -4112,8 +4112,8 @@
         <v>23.7572786902427</v>
       </c>
       <c r="O57" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>41.726965349780556</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>-3.197251299064078</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
@@ -4166,8 +4166,8 @@
         <v>19.22737598336629</v>
       </c>
       <c r="O58" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>19.141160687285627</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>19.356698927487294</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
@@ -4220,8 +4220,8 @@
         <v>18.490201932992274</v>
       </c>
       <c r="O59" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>12.615232184783984</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>27.302656555304701</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
@@ -4274,8 +4274,8 @@
         <v>24.747652246199166</v>
       </c>
       <c r="O60" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>7.1533841384085832</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>51.139054407885041</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
@@ -4328,8 +4328,8 @@
         <v>34.110907184798528</v>
       </c>
       <c r="O61" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>7.6122246599861541</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>73.858930972017092</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
@@ -4382,8 +4382,8 @@
         <v>47.137427041370209</v>
       </c>
       <c r="O62" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>20.397788370487717</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>87.246885047693937</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
@@ -4436,8 +4436,8 @@
         <v>56.815044858522953</v>
       </c>
       <c r="O63" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>45.289855072463482</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>74.102829537612166</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
@@ -4490,8 +4490,8 @@
         <v>61.542443064182095</v>
       </c>
       <c r="O64" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>61.542443064181995</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>61.542443064182237</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
@@ -4544,8 +4544,8 @@
         <v>60.78296596610582</v>
       </c>
       <c r="O65" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>65.891267733152205</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>53.120513315536243</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
@@ -4598,8 +4598,8 @@
         <v>58.116415081223977</v>
       </c>
       <c r="O66" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>65.193271049857643</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>47.501131128273471</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
@@ -4652,8 +4652,8 @@
         <v>56.792981866731104</v>
       </c>
       <c r="O67" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>55.234658758786239</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>59.130466528648398</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
@@ -4706,8 +4706,8 @@
         <v>56.657506742962056</v>
       </c>
       <c r="O68" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>54.327740806335186</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>60.152155647902362</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
@@ -4760,8 +4760,8 @@
         <v>59.370247490598246</v>
       </c>
       <c r="O69" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>52.678323792163283</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>69.408133038250696</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
@@ -4814,8 +4814,8 @@
         <v>60.626647161308149</v>
       </c>
       <c r="O70" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>59.197256618257953</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>62.770732975883462</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
@@ -4868,8 +4868,8 @@
         <v>59.803449942058954</v>
       </c>
       <c r="O71" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>68.704753719121086</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>46.451494276465738</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
@@ -4922,8 +4922,8 @@
         <v>51.894802708754561</v>
       </c>
       <c r="O72" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>77.70387284645858</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>13.181197502198543</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
@@ -4976,8 +4976,8 @@
         <v>42.517897838245865</v>
       </c>
       <c r="O73" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>61.132437872123276</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>14.596087787429767</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
@@ -5030,8 +5030,8 @@
         <v>33.589779970886966</v>
       </c>
       <c r="O74" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>43.632451009758533</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>18.525773412579611</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
@@ -5084,8 +5084,8 @@
         <v>30.504231194351174</v>
       </c>
       <c r="O75" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>32.045450962463171</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>28.19240154218317</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
@@ -5138,8 +5138,8 @@
         <v>31.097088875225722</v>
       </c>
       <c r="O76" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>23.312864897815544</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>42.773424841340983</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
@@ -5192,8 +5192,8 @@
         <v>34.893208543316483</v>
       </c>
       <c r="O77" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>24.766018718502536</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>50.083993280537399</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
@@ -5246,8 +5246,8 @@
         <v>46.750634142816843</v>
       </c>
       <c r="O78" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>9.6401062108579936</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>102.41642604075513</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
@@ -5300,8 +5300,8 @@
         <v>60.820792707313423</v>
       </c>
       <c r="O79" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>28.063025007099156</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>109.95744425763483</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
@@ -5354,8 +5354,8 @@
         <v>77.809456530128116</v>
       </c>
       <c r="O80" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>51.582779742049297</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>117.14947171224637</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
@@ -5408,8 +5408,8 @@
         <v>85.429869173688203</v>
       </c>
       <c r="O81" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>79.955335442111561</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>93.641669771053188</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
@@ -5462,8 +5462,8 @@
         <v>87.491104782342475</v>
       </c>
       <c r="O82" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>95.706547580260633</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>75.16794058546526</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
@@ -5516,8 +5516,8 @@
         <v>85.428418052531541</v>
       </c>
       <c r="O83" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>86.815784688125291</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>83.347368099140937</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
@@ -5570,8 +5570,8 @@
         <v>84.551217884551178</v>
       </c>
       <c r="O84" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>82.582582582582603</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>87.504170837504006</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
@@ -5624,8 +5624,8 @@
         <v>85.90256923590249</v>
       </c>
       <c r="O85" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>82.832832832832821</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>90.507173840506994</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
@@ -5678,8 +5678,8 @@
         <v>86.85270056109988</v>
       </c>
       <c r="O86" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>85.387844262645984</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>89.049985008780709</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
@@ -5732,8 +5732,8 @@
         <v>88.701826118624808</v>
       </c>
       <c r="O87" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>83.939653939653908</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>95.845084387081158</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
@@ -5786,8 +5786,8 @@
         <v>91.151317299989557</v>
       </c>
       <c r="O88" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>83.882129936905528</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>102.0550983446156</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
@@ -5840,8 +5840,8 @@
         <v>93.539501014212931</v>
       </c>
       <c r="O89" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>91.119143336644839</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>97.170037530565082</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
@@ -5894,8 +5894,8 @@
         <v>94.217320119521048</v>
       </c>
       <c r="O90" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>96.419221310493896</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>90.914468333061791</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
@@ -5948,8 +5948,8 @@
         <v>92.475961065818751</v>
       </c>
       <c r="O91" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>98.304215556606891</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>83.733579329636541</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
@@ -6002,8 +6002,8 @@
         <v>86.629881057141873</v>
       </c>
       <c r="O92" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>105.46676351749298</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>58.374557366615221</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
@@ -6056,8 +6056,8 @@
         <v>81.309657371422631</v>
       </c>
       <c r="O93" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>89.617575180514166</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>68.847780657785307</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
@@ -6110,8 +6110,8 @@
         <v>76.562128923868343</v>
       </c>
       <c r="O94" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>79.047889816081323</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>72.833487585548909</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
@@ -6164,8 +6164,8 @@
         <v>70.377661497177002</v>
       </c>
       <c r="O95" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>93.8169093977464</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>35.218789646322904</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
@@ -6218,8 +6218,8 @@
         <v>56.538211779863616</v>
       </c>
       <c r="O96" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>98.339936709717506</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>-6.1643756149172191</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
@@ -6272,8 +6272,8 @@
         <v>40.517401290873515</v>
       </c>
       <c r="O97" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>67.038569851037408</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>0.73564845062765016</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
@@ -6326,8 +6326,8 @@
         <v>38.581534091585269</v>
       </c>
       <c r="O98" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>10.04373037670068</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>81.388239663912145</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
@@ -6380,8 +6380,8 @@
         <v>51.294414076255372</v>
       </c>
       <c r="O99" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>6.3312636908721345</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>118.7391396543302</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
@@ -6434,8 +6434,8 @@
         <v>71.56564302981576</v>
       </c>
       <c r="O100" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>38.555921346501776</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>121.08022555478675</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
@@ -6488,8 +6488,8 @@
         <v>85.21424693458367</v>
       </c>
       <c r="O101" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>68.050245477088509</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>110.96024912082638</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
@@ -6542,8 +6542,8 @@
         <v>92.56802961406008</v>
       </c>
       <c r="O102" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>86.029414227427736</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>102.37595269400859</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
@@ -6596,8 +6596,8 @@
         <v>94.431480251725603</v>
       </c>
       <c r="O103" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>95.972729186238183</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>92.119606849956739</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
@@ -6650,8 +6650,8 @@
         <v>93.840478873545351</v>
       </c>
       <c r="O104" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>97.474949563055105</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>88.388772839280705</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
@@ -6704,8 +6704,8 @@
         <v>93.155986561387621</v>
       </c>
       <c r="O105" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>91.900238942356765</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>95.039607989933899</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
@@ -6758,8 +6758,8 @@
         <v>93.942459142542063</v>
       </c>
       <c r="O106" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>89.786830371760857</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>100.17590229871385</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
@@ -6812,8 +6812,8 @@
         <v>95.889798422670069</v>
       </c>
       <c r="O107" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>91.938872529661211</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>101.81618726218332</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
@@ -6866,8 +6866,8 @@
         <v>95.849815580945688</v>
       </c>
       <c r="O108" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>100.22162305137729</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>89.292104375298265</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
@@ -6920,8 +6920,8 @@
         <v>94.421570134995633</v>
       </c>
       <c r="O109" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>99.793636024821922</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>86.36347130025618</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
@@ -6974,8 +6974,8 @@
         <v>91.944608421881</v>
       </c>
       <c r="O110" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>94.965072805981777</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>87.413911845729814</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
@@ -7028,8 +7028,8 @@
         <v>89.420826665289894</v>
       </c>
       <c r="O111" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>96.077346843956519</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>79.436046397289942</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
@@ -7082,8 +7082,8 @@
         <v>85.085075385130551</v>
       </c>
       <c r="O112" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>97.798659456182719</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>66.014699278552314</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
@@ -7136,8 +7136,8 @@
         <v>81.084661365053933</v>
       </c>
       <c r="O113" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>86.387715755960301</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>73.13007977869438</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
@@ -7190,8 +7190,8 @@
         <v>79.449464779897752</v>
       </c>
       <c r="O114" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>75.974440698717132</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>84.662000901668677</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
@@ -7244,8 +7244,8 @@
         <v>80.449494593086413</v>
       </c>
       <c r="O115" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>77.891738200918297</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>84.286129181338623</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
@@ -7298,8 +7298,8 @@
         <v>79.533243213954975</v>
       </c>
       <c r="O116" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>87.2309695774521</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>67.986653668709295</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
@@ -7352,8 +7352,8 @@
         <v>79.503004801497056</v>
       </c>
       <c r="O117" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>76.316491238262643</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>84.282775146348655</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.25">
@@ -7406,8 +7406,8 @@
         <v>77.955193207297995</v>
       </c>
       <c r="O118" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>79.69570360874738</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>75.344427605123911</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.25">
@@ -7460,8 +7460,8 @@
         <v>76.417634965457111</v>
       </c>
       <c r="O119" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>87.109494283003727</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>60.379845989137181</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
@@ -7514,8 +7514,8 @@
         <v>67.926321484273259</v>
       </c>
       <c r="O120" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>92.534322173694349</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>31.014320450141611</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.25">
@@ -7568,8 +7568,8 @@
         <v>60.740036519512181</v>
       </c>
       <c r="O121" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>71.167943333956472</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>45.09817629784574</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.25">
@@ -7622,8 +7622,8 @@
         <v>56.530753082477254</v>
       </c>
       <c r="O122" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>52.704549256273694</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>62.270058821782598</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.25">
@@ -7676,8 +7676,8 @@
         <v>53.227232537577294</v>
       </c>
       <c r="O123" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>68.258178603006257</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>30.680813439433848</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.25">
@@ -7730,8 +7730,8 @@
         <v>50.987326849395679</v>
       </c>
       <c r="O124" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>55.349248452696671</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>44.444444444444187</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.25">
@@ -7784,8 +7784,8 @@
         <v>43.949307397583091</v>
       </c>
       <c r="O125" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>57.188328912466673</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>24.090775125257736</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.25">
@@ -7838,8 +7838,8 @@
         <v>43.891204580859572</v>
       </c>
       <c r="O126" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>40.59871163319427</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>48.829944002357522</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.25">
@@ -7892,8 +7892,8 @@
         <v>40.418508694370566</v>
       </c>
       <c r="O127" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>44.478969306555328</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>34.327817776093426</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.25">
@@ -7946,8 +7946,8 @@
         <v>44.068039240452826</v>
       </c>
       <c r="O128" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>35.647341164582329</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>56.699086354258569</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.25">
@@ -8000,8 +8000,8 @@
         <v>42.051282051281866</v>
       </c>
       <c r="O129" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>47.179487179486941</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>34.358974358974237</v>
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.25">
@@ -8054,8 +8054,8 @@
         <v>42.173382173382009</v>
       </c>
       <c r="O130" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>49.010989010988752</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>31.916971916971903</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.25">
@@ -8108,8 +8108,8 @@
         <v>38.510031306239689</v>
       </c>
       <c r="O131" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>40.953422564796867</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>34.844944418403927</v>
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.25">
@@ -8162,8 +8162,8 @@
         <v>42.017776851899903</v>
       </c>
       <c r="O132" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>26.032498307379782</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>65.995694668680088</v>
       </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.25">
@@ -8216,8 +8216,8 @@
         <v>50.926861448188241</v>
       </c>
       <c r="O133" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>21.816919257677426</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>94.591774733954438</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.25">
@@ -8270,8 +8270,8 @@
         <v>65.050204159468379</v>
       </c>
       <c r="O134" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>35.833884856802086</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>108.87468311346785</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.25">
@@ -8324,8 +8324,8 @@
         <v>79.679496013704195</v>
       </c>
       <c r="O135" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>51.241904667377753</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>122.33588303319388</v>
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.25">
@@ -8378,8 +8378,8 @@
         <v>89.285089367652915</v>
       </c>
       <c r="O136" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>79.258042892379137</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>104.32565908056358</v>
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.25">
@@ -8432,8 +8432,8 @@
         <v>93.932611688620966</v>
       </c>
       <c r="O137" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>94.595973518451558</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>92.937568943875078</v>
       </c>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.25">
@@ -8486,8 +8486,8 @@
         <v>94.573185987116062</v>
       </c>
       <c r="O138" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>92.079528796642734</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>98.313671772826069</v>
       </c>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.25">
@@ -8540,8 +8540,8 @@
         <v>95.400919811414028</v>
       </c>
       <c r="O139" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>92.639131277874725</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>99.543602611722946</v>
       </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.25">
@@ -8594,8 +8594,8 @@
         <v>96.184050520559708</v>
       </c>
       <c r="O140" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>96.651505759393643</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>95.48286766230882</v>
       </c>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.25">
@@ -8648,8 +8648,8 @@
         <v>95.305774054837244</v>
       </c>
       <c r="O141" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>99.546951794141052</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>88.944007445881567</v>
       </c>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.25">
@@ -8702,8 +8702,8 @@
         <v>94.023321671722371</v>
       </c>
       <c r="O142" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>96.201051157489104</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>90.756727443072265</v>
       </c>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.25">
@@ -8756,8 +8756,8 @@
         <v>93.277829042199713</v>
       </c>
       <c r="O143" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>92.405797101449508</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>94.585876953325027</v>
       </c>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.25">
@@ -8810,8 +8810,8 @@
         <v>93.137840302862756</v>
       </c>
       <c r="O144" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>93.883082974239329</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>92.019976295797932</v>
       </c>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.25">
@@ -8864,8 +8864,8 @@
         <v>91.964467910231619</v>
       </c>
       <c r="O145" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>97.064724228803726</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>84.314083432373451</v>
       </c>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.25">
@@ -8918,8 +8918,8 @@
         <v>88.184422333028763</v>
       </c>
       <c r="O146" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>99.805850437153794</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>70.752280176841253</v>
       </c>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.25">
@@ -8972,8 +8972,8 @@
         <v>84.191800978136669</v>
       </c>
       <c r="O147" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>91.000693129413634</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>73.978462751221258</v>
       </c>
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.25">
@@ -9026,8 +9026,8 @@
         <v>81.305956892127682</v>
       </c>
       <c r="O148" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>82.404255690545853</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>79.658508694500426</v>
       </c>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.25">
@@ -9080,8 +9080,8 @@
         <v>80.23445776751042</v>
       </c>
       <c r="O149" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>82.384951488302335</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>77.008717186322514</v>
       </c>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.25">
@@ -9134,8 +9134,8 @@
         <v>79.483393592845061</v>
       </c>
       <c r="O150" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>81.381856021530979</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>76.635699949816171</v>
       </c>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.25">
@@ -9188,8 +9188,8 @@
         <v>79.79346257134317</v>
       </c>
       <c r="O151" s="14">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>76.006358857203566</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>85.474118142552555</v>
       </c>
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.25">
@@ -9242,8 +9242,8 @@
         <v>78.412953781233583</v>
       </c>
       <c r="O152" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>85.203492270129374</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>68.227146047889931</v>
       </c>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.25">
@@ -9296,8 +9296,8 @@
         <v>73.513986751359653</v>
       </c>
       <c r="O153" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>92.867437676318332</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>44.483810363921634</v>
       </c>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.25">
@@ -9350,8 +9350,8 @@
         <v>57.218559866771535</v>
       </c>
       <c r="O154" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>106.05421205101736</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>-16.034918409597182</v>
       </c>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.25">
@@ -9404,8 +9404,8 @@
         <v>38.613418643349469</v>
       </c>
       <c r="O155" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>77.435734197009481</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>-19.620054687140552</v>
       </c>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.25">
@@ -9458,8 +9458,8 @@
         <v>24.390783159959195</v>
       </c>
       <c r="O156" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>30.833639802458599</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>14.72649819621008</v>
       </c>
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.25">
@@ -9512,8 +9512,8 @@
         <v>26.405233908911423</v>
       </c>
       <c r="O157" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>1.5275296837236283</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>63.721790246693111</v>
       </c>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.25">
@@ -9566,8 +9566,8 @@
         <v>38.978494623655799</v>
       </c>
       <c r="O158" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>3.0913978494622256</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>92.809139784946169</v>
       </c>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.25">
@@ -9620,8 +9620,8 @@
         <v>44.847670250896009</v>
       </c>
       <c r="O159" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>56.989247311827796</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>26.635304659498317</v>
       </c>
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.25">
@@ -9674,8 +9674,8 @@
         <v>39.656322042169329</v>
       </c>
       <c r="O160" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>72.428883335857392</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>-9.5025198983627917</v>
       </c>
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.25">
@@ -9728,8 +9728,8 @@
         <v>23.195957505286529</v>
       </c>
       <c r="O161" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>54.505973715651223</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>-23.769066810260515</v>
       </c>
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.25">
@@ -9782,8 +9782,8 @@
         <v>18.462992410856881</v>
       </c>
       <c r="O162" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>6.2330043582883121</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>36.807974489709729</v>
       </c>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.25">
@@ -9836,8 +9836,8 @@
         <v>22.360632933402695</v>
       </c>
       <c r="O163" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>-2.8440271257174032</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>60.167623022082843</v>
       </c>
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.25">
@@ -9890,8 +9890,8 @@
         <v>33.213238277400805</v>
       </c>
       <c r="O164" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>19.442183968005395</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>53.869819741493927</v>
       </c>
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.25">
@@ -9944,8 +9944,8 @@
         <v>37.004115226337198</v>
       </c>
       <c r="O165" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>39.111111111110901</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>33.843621399176627</v>
       </c>
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.25">
@@ -9998,8 +9998,8 @@
         <v>38.349283590159217</v>
       </c>
       <c r="O166" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>37.050914661620041</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>40.296836982967989</v>
       </c>
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.25">
@@ -10052,8 +10052,8 @@
         <v>40.430987353939237</v>
       </c>
       <c r="O167" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>28.605208614940565</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>58.169655462437262</v>
       </c>
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.25">
@@ -10106,8 +10106,8 @@
         <v>47.689135201705938</v>
       </c>
       <c r="O168" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>27.617283950616965</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>77.796912078339403</v>
       </c>
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.25">
@@ -10160,8 +10160,8 @@
         <v>59.201096821534605</v>
       </c>
       <c r="O169" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>30.534584636774184</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>102.20086509867525</v>
       </c>
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.25">
@@ -10214,8 +10214,8 @@
         <v>72.693990030933605</v>
       </c>
       <c r="O170" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>44.436857389529678</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>115.0796889930395</v>
       </c>
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.25">
@@ -10268,8 +10268,8 @@
         <v>81.543274244004053</v>
       </c>
       <c r="O171" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>76.083995799088569</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>89.732191911377271</v>
       </c>
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.25">
@@ -10322,8 +10322,8 @@
         <v>83.214618971623807</v>
       </c>
       <c r="O172" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>92.547082721323221</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>69.215923347074721</v>
       </c>
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.25">
@@ -10376,8 +10376,8 @@
         <v>78.80781703362338</v>
       </c>
       <c r="O173" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>89.219150025601692</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>63.190817545655904</v>
       </c>
     </row>
     <row r="174" spans="1:15" x14ac:dyDescent="0.25">
@@ -10430,8 +10430,8 @@
         <v>76.129032258064385</v>
       </c>
       <c r="O174" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>75.913978494623478</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>76.451612903225708</v>
       </c>
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.25">
@@ -10484,8 +10484,8 @@
         <v>77.631225240520521</v>
       </c>
       <c r="O175" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>66.783743633276487</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>93.902447651386609</v>
       </c>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.25">
@@ -10538,8 +10538,8 @@
         <v>83.20813077617602</v>
       </c>
       <c r="O176" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>68.958658039326707</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>104.58233988145</v>
       </c>
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.25">
@@ -10592,8 +10592,8 @@
         <v>90.851700912659865</v>
       </c>
       <c r="O177" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>74.220563639506878</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>115.79840682238935</v>
       </c>
     </row>
     <row r="178" spans="1:15" x14ac:dyDescent="0.25">
@@ -10646,8 +10646,8 @@
         <v>96.040212723469836</v>
       </c>
       <c r="O178" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>90.879635217264621</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>103.78107898277767</v>
       </c>
     </row>
     <row r="179" spans="1:15" x14ac:dyDescent="0.25">
@@ -10700,8 +10700,8 @@
         <v>98.714573188850196</v>
       </c>
       <c r="O179" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>99.431822485066988</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>97.638699244525043</v>
       </c>
     </row>
     <row r="180" spans="1:15" x14ac:dyDescent="0.25">
@@ -10754,8 +10754,8 @@
         <v>97.967011574669414</v>
       </c>
       <c r="O180" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>100.0518653106202</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>94.839730970743233</v>
       </c>
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.25">
@@ -10808,8 +10808,8 @@
         <v>97.506514144843891</v>
       </c>
       <c r="O181" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>98.041524060339952</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>96.703999271599798</v>
       </c>
     </row>
     <row r="182" spans="1:15" x14ac:dyDescent="0.25">
@@ -10862,8 +10862,8 @@
         <v>97.053728857437179</v>
       </c>
       <c r="O182" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>97.16600121526821</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>96.885320320690624</v>
       </c>
     </row>
     <row r="183" spans="1:15" x14ac:dyDescent="0.25">
@@ -10916,8 +10916,8 @@
         <v>96.218822762895002</v>
       </c>
       <c r="O183" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>99.816735442550026</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>90.82195374341245</v>
       </c>
     </row>
     <row r="184" spans="1:15" x14ac:dyDescent="0.25">
@@ -10970,8 +10970,8 @@
         <v>94.22653167463973</v>
       </c>
       <c r="O184" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>100.15532317925906</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>85.333344417710776</v>
       </c>
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.25">
@@ -11024,8 +11024,8 @@
         <v>89.83786815371225</v>
       </c>
       <c r="O185" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>101.85040022965833</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>71.819070039793161</v>
       </c>
     </row>
     <row r="186" spans="1:15" x14ac:dyDescent="0.25">
@@ -11078,8 +11078,8 @@
         <v>85.2842973079389</v>
       </c>
       <c r="O186" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>94.334584152321867</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>71.708867041364414</v>
       </c>
     </row>
     <row r="187" spans="1:15" x14ac:dyDescent="0.25">
@@ -11132,8 +11132,8 @@
         <v>82.155450755270763</v>
       </c>
       <c r="O187" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>82.715159737160974</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>81.315887282435455</v>
       </c>
     </row>
     <row r="188" spans="1:15" x14ac:dyDescent="0.25">
@@ -11186,8 +11186,8 @@
         <v>83.774599808181279</v>
       </c>
       <c r="O188" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>73.945700875602341</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>98.517948207049699</v>
       </c>
     </row>
     <row r="189" spans="1:15" x14ac:dyDescent="0.25">
@@ -11240,8 +11240,8 @@
         <v>88.539703432672624</v>
       </c>
       <c r="O189" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>75.510180779574966</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>108.08398741231909</v>
       </c>
     </row>
     <row r="190" spans="1:15" x14ac:dyDescent="0.25">
@@ -11294,8 +11294,8 @@
         <v>93.855010519988809</v>
       </c>
       <c r="O190" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>85.92199650741793</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>105.75453153884513</v>
       </c>
     </row>
     <row r="191" spans="1:15" x14ac:dyDescent="0.25">
@@ -11348,8 +11348,8 @@
         <v>97.266282497345358</v>
       </c>
       <c r="O191" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>93.953117078955273</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>102.23603062493052</v>
       </c>
     </row>
     <row r="192" spans="1:15" x14ac:dyDescent="0.25">
@@ -11402,8 +11402,8 @@
         <v>98.257692342735382</v>
       </c>
       <c r="O192" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>98.715688437423125</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>97.570698200703788</v>
       </c>
     </row>
     <row r="193" spans="1:15" x14ac:dyDescent="0.25">
@@ -11456,8 +11456,8 @@
         <v>98.291589521752016</v>
       </c>
       <c r="O193" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>99.028350438607816</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>97.18644814646828</v>
       </c>
     </row>
     <row r="194" spans="1:15" x14ac:dyDescent="0.25">
@@ -11510,8 +11510,8 @@
         <v>97.469864208135661</v>
       </c>
       <c r="O194" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>99.494214093024311</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>94.433339380802664</v>
       </c>
     </row>
     <row r="195" spans="1:15" x14ac:dyDescent="0.25">
@@ -11564,8 +11564,8 @@
         <v>96.2691615335428</v>
       </c>
       <c r="O195" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>99.954312057402461</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>90.741435747753343</v>
       </c>
     </row>
     <row r="196" spans="1:15" x14ac:dyDescent="0.25">
@@ -11618,8 +11618,8 @@
         <v>94.440179552583686</v>
       </c>
       <c r="O196" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>98.448012416857523</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>88.428430256172931</v>
       </c>
     </row>
     <row r="197" spans="1:15" x14ac:dyDescent="0.25">
@@ -11672,8 +11672,8 @@
         <v>93.610617150344396</v>
       </c>
       <c r="O197" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>92.893847333086256</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>94.685771876231598</v>
       </c>
     </row>
     <row r="198" spans="1:15" x14ac:dyDescent="0.25">
@@ -11726,8 +11726,8 @@
         <v>94.038968724157144</v>
       </c>
       <c r="O198" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>90.693624186369021</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>99.056985530839313</v>
       </c>
     </row>
     <row r="199" spans="1:15" x14ac:dyDescent="0.25">
@@ -11780,8 +11780,8 @@
         <v>95.273808587214262</v>
       </c>
       <c r="O199" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>93.539860342406513</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>97.8747309544259</v>
       </c>
     </row>
     <row r="200" spans="1:15" x14ac:dyDescent="0.25">
@@ -11834,8 +11834,8 @@
         <v>95.681335304062898</v>
       </c>
       <c r="O200" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>96.660841493149945</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>94.212076020432363</v>
       </c>
     </row>
     <row r="201" spans="1:15" x14ac:dyDescent="0.25">
@@ -11888,8 +11888,8 @@
         <v>96.090603967610775</v>
       </c>
       <c r="O201" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>94.392917935442682</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>98.637133015862901</v>
       </c>
     </row>
     <row r="202" spans="1:15" x14ac:dyDescent="0.25">
@@ -11942,8 +11942,8 @@
         <v>96.474308466775327</v>
       </c>
       <c r="O202" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>94.839132986102385</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>98.927071687784775</v>
       </c>
     </row>
     <row r="203" spans="1:15" x14ac:dyDescent="0.25">
@@ -11996,8 +11996,8 @@
         <v>97.142108616030043</v>
       </c>
       <c r="O203" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>97.036360533523123</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>97.300730739790424</v>
       </c>
     </row>
     <row r="204" spans="1:15" x14ac:dyDescent="0.25">
@@ -12050,8 +12050,8 @@
         <v>97.254844182454363</v>
       </c>
       <c r="O204" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>97.209225181427513</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>97.323272683994645</v>
       </c>
     </row>
     <row r="205" spans="1:15" x14ac:dyDescent="0.25">
@@ -12104,8 +12104,8 @@
         <v>94.547053356145952</v>
       </c>
       <c r="O205" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>105.30411261206478</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>78.411464472267681</v>
       </c>
     </row>
     <row r="206" spans="1:15" x14ac:dyDescent="0.25">
@@ -12158,8 +12158,8 @@
         <v>89.821961006569595</v>
       </c>
       <c r="O206" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>103.42647180259993</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>69.415194812524049</v>
       </c>
     </row>
     <row r="207" spans="1:15" x14ac:dyDescent="0.25">
@@ -12212,8 +12212,8 @@
         <v>78.773716690416407</v>
       </c>
       <c r="O207" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>108.05530860223266</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>34.851328822692068</v>
       </c>
     </row>
     <row r="208" spans="1:15" x14ac:dyDescent="0.25">
@@ -12266,8 +12266,8 @@
         <v>68.134196056431861</v>
       </c>
       <c r="O208" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>89.902664516829873</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>35.481493365834865</v>
       </c>
     </row>
     <row r="209" spans="1:15" x14ac:dyDescent="0.25">
@@ -12320,8 +12320,8 @@
         <v>61.459159051778499</v>
       </c>
       <c r="O209" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>58.388287966146777</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>66.065465680226083</v>
       </c>
     </row>
     <row r="210" spans="1:15" x14ac:dyDescent="0.25">
@@ -12374,8 +12374,8 @@
         <v>64.169348191286531</v>
       </c>
       <c r="O210" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>47.981068267794882</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>88.45176807652399</v>
       </c>
     </row>
     <row r="211" spans="1:15" x14ac:dyDescent="0.25">
@@ -12428,8 +12428,8 @@
         <v>72.494308785997703</v>
       </c>
       <c r="O211" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>53.033239137260324</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>101.68591325910376</v>
       </c>
     </row>
     <row r="212" spans="1:15" x14ac:dyDescent="0.25">
@@ -12482,8 +12482,8 @@
         <v>77.079234558550652</v>
       </c>
       <c r="O212" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>77.738959851145552</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>76.089646619658339</v>
       </c>
     </row>
     <row r="213" spans="1:15" x14ac:dyDescent="0.25">
@@ -12536,8 +12536,8 @@
         <v>79.754828266477844</v>
       </c>
       <c r="O213" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>78.683946245805657</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>81.361151297486145</v>
       </c>
     </row>
     <row r="214" spans="1:15" x14ac:dyDescent="0.25">
@@ -12590,8 +12590,8 @@
         <v>81.096054570792901</v>
       </c>
       <c r="O214" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>70.79111866575559</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>96.553458428348875</v>
       </c>
     </row>
     <row r="215" spans="1:15" x14ac:dyDescent="0.25">
@@ -12644,8 +12644,8 @@
         <v>86.296178035947037</v>
       </c>
       <c r="O215" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>74.189049492409936</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>104.45687085125269</v>
       </c>
     </row>
     <row r="216" spans="1:15" x14ac:dyDescent="0.25">
@@ -12698,8 +12698,8 @@
         <v>90.982938763167382</v>
       </c>
       <c r="O216" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>84.247713372552198</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>101.08577684909014</v>
       </c>
     </row>
     <row r="217" spans="1:15" x14ac:dyDescent="0.25">
@@ -12752,8 +12752,8 @@
         <v>93.314355298022235</v>
       </c>
       <c r="O217" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>93.457521638314404</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>93.099605787583982</v>
       </c>
     </row>
     <row r="218" spans="1:15" x14ac:dyDescent="0.25">
@@ -12806,8 +12806,8 @@
         <v>91.489305826162891</v>
       </c>
       <c r="O218" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>100.71872969421355</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>77.645170024086923</v>
       </c>
     </row>
     <row r="219" spans="1:15" x14ac:dyDescent="0.25">
@@ -12860,8 +12860,8 @@
         <v>87.806070241455643</v>
       </c>
       <c r="O219" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>96.816521315660481</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>74.290393630148401</v>
       </c>
     </row>
     <row r="220" spans="1:15" x14ac:dyDescent="0.25">
@@ -12914,8 +12914,8 @@
         <v>82.867662984621816</v>
       </c>
       <c r="O220" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>91.747888239116065</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>69.547325102880478</v>
       </c>
     </row>
     <row r="221" spans="1:15" x14ac:dyDescent="0.25">
@@ -12968,8 +12968,8 @@
         <v>77.827401020603972</v>
       </c>
       <c r="O221" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>89.974587061643945</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>59.606621959043991</v>
       </c>
     </row>
     <row r="222" spans="1:15" x14ac:dyDescent="0.25">
@@ -13022,8 +13022,8 @@
         <v>67.915664800866935</v>
       </c>
       <c r="O222" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>96.615722312316549</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>24.865578533692542</v>
       </c>
     </row>
     <row r="223" spans="1:15" x14ac:dyDescent="0.25">
@@ -13076,8 +13076,8 @@
         <v>59.572301219333958</v>
       </c>
       <c r="O223" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>71.921984432450316</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>41.04777639965944</v>
       </c>
     </row>
     <row r="224" spans="1:15" x14ac:dyDescent="0.25">
@@ -13130,8 +13130,8 @@
         <v>53.674906769259245</v>
       </c>
       <c r="O224" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>52.901471008058124</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>54.835060411060923</v>
       </c>
     </row>
     <row r="225" spans="1:15" x14ac:dyDescent="0.25">
@@ -13184,8 +13184,8 @@
         <v>59.380230079452993</v>
       </c>
       <c r="O225" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>36.777478286912185</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>93.284357768264201</v>
       </c>
     </row>
     <row r="226" spans="1:15" x14ac:dyDescent="0.25">
@@ -13238,8 +13238,8 @@
         <v>66.812904766168074</v>
       </c>
       <c r="O226" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>49.047746952662237</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>93.460641486426852</v>
       </c>
     </row>
     <row r="227" spans="1:15" x14ac:dyDescent="0.25">
@@ -13292,8 +13292,8 @@
         <v>77.409411253085452</v>
       </c>
       <c r="O227" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>60.52594553803246</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>102.73460982566493</v>
       </c>
     </row>
     <row r="228" spans="1:15" x14ac:dyDescent="0.25">
@@ -13346,8 +13346,8 @@
         <v>85.322665227528361</v>
       </c>
       <c r="O228" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>67.125259884480784</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>112.61877324209971</v>
       </c>
     </row>
     <row r="229" spans="1:15" x14ac:dyDescent="0.25">
@@ -13400,8 +13400,8 @@
         <v>90.940505598089899</v>
       </c>
       <c r="O229" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>87.723507225058455</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>95.766003157637073</v>
       </c>
     </row>
     <row r="230" spans="1:15" x14ac:dyDescent="0.25">
@@ -13454,8 +13454,8 @@
         <v>94.190750825757149</v>
       </c>
       <c r="O230" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>91.368492890044109</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>98.424137729326702</v>
       </c>
     </row>
     <row r="231" spans="1:15" x14ac:dyDescent="0.25">
@@ -13508,8 +13508,8 @@
         <v>93.596185087396407</v>
       </c>
       <c r="O231" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>95.513213894249333</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>90.720641877117032</v>
       </c>
     </row>
     <row r="232" spans="1:15" x14ac:dyDescent="0.25">
@@ -13562,8 +13562,8 @@
         <v>93.644994762628073</v>
       </c>
       <c r="O232" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>95.544116667283021</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>90.796311905645666</v>
       </c>
     </row>
     <row r="233" spans="1:15" x14ac:dyDescent="0.25">
@@ -13616,8 +13616,8 @@
         <v>91.022301740807208</v>
       </c>
       <c r="O233" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>97.599303766119533</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>81.156798702838699</v>
       </c>
     </row>
     <row r="234" spans="1:15" x14ac:dyDescent="0.25">
@@ -13670,8 +13670,8 @@
         <v>88.02489561478005</v>
       </c>
       <c r="O234" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>96.783782232563141</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>74.886565688105378</v>
       </c>
     </row>
     <row r="235" spans="1:15" x14ac:dyDescent="0.25">
@@ -13724,8 +13724,8 @@
         <v>82.537903930620928</v>
       </c>
       <c r="O235" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>95.144794276216288</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>63.627568412227902</v>
       </c>
     </row>
     <row r="236" spans="1:15" x14ac:dyDescent="0.25">
@@ -13778,8 +13778,8 @@
         <v>76.163614946929059</v>
       </c>
       <c r="O236" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>91.2689772866363</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>53.505571437368218</v>
       </c>
     </row>
     <row r="237" spans="1:15" x14ac:dyDescent="0.25">
@@ -13832,8 +13832,8 @@
         <v>70.437098476478582</v>
       </c>
       <c r="O237" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>78.379489640361641</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>58.523511730653979</v>
       </c>
     </row>
     <row r="238" spans="1:15" x14ac:dyDescent="0.25">
@@ -13886,8 +13886,8 @@
         <v>69.166894497127714</v>
       </c>
       <c r="O238" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>62.652989851841852</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>78.937751465056522</v>
       </c>
     </row>
     <row r="239" spans="1:15" x14ac:dyDescent="0.25">
@@ -13940,8 +13940,8 @@
         <v>74.055911997461465</v>
       </c>
       <c r="O239" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>55.61176343623103</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>101.7221348393071</v>
       </c>
     </row>
     <row r="240" spans="1:15" x14ac:dyDescent="0.25">
@@ -13994,8 +13994,8 @@
         <v>82.248839240946111</v>
       </c>
       <c r="O240" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>64.657148472856278</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>108.6363753930809</v>
       </c>
     </row>
     <row r="241" spans="1:15" x14ac:dyDescent="0.25">
@@ -14048,8 +14048,8 @@
         <v>88.870651816295478</v>
       </c>
       <c r="O241" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>82.033386357248986</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>99.126550004865209</v>
       </c>
     </row>
     <row r="242" spans="1:15" x14ac:dyDescent="0.25">
@@ -14102,8 +14102,8 @@
         <v>89.706123498396096</v>
       </c>
       <c r="O242" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>97.54956784643116</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>77.9409569763435</v>
       </c>
     </row>
     <row r="243" spans="1:15" x14ac:dyDescent="0.25">
@@ -14156,8 +14156,8 @@
         <v>87.952695731525282</v>
       </c>
       <c r="O243" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>92.289284545818703</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>81.447812510085129</v>
       </c>
     </row>
     <row r="244" spans="1:15" x14ac:dyDescent="0.25">
@@ -14210,8 +14210,8 @@
         <v>86.475356665947388</v>
       </c>
       <c r="O244" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>83.711535299672107</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>90.621088715360287</v>
       </c>
     </row>
     <row r="245" spans="1:15" x14ac:dyDescent="0.25">
@@ -14264,8 +14264,8 @@
         <v>88.222932282584381</v>
       </c>
       <c r="O245" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>82.614540499174069</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>96.635519957699813</v>
       </c>
     </row>
     <row r="246" spans="1:15" x14ac:dyDescent="0.25">
@@ -14318,8 +14318,8 @@
         <v>88.821538157974018</v>
       </c>
       <c r="O246" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>91.30417657282706</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>85.097580535694448</v>
       </c>
     </row>
     <row r="247" spans="1:15" x14ac:dyDescent="0.25">
@@ -14372,8 +14372,8 @@
         <v>87.639480148557922</v>
       </c>
       <c r="O247" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>94.296253804000258</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>77.654319665394411</v>
       </c>
     </row>
     <row r="248" spans="1:15" x14ac:dyDescent="0.25">
@@ -14426,8 +14426,8 @@
         <v>85.461060994606513</v>
       </c>
       <c r="O248" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>87.399441558948865</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>82.553490148093005</v>
       </c>
     </row>
     <row r="249" spans="1:15" x14ac:dyDescent="0.25">
@@ -14480,8 +14480,8 @@
         <v>84.173146376352435</v>
       </c>
       <c r="O249" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>85.086488937486848</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>82.803132534650814</v>
       </c>
     </row>
     <row r="250" spans="1:15" x14ac:dyDescent="0.25">
@@ -14534,8 +14534,8 @@
         <v>83.511219392254688</v>
       </c>
       <c r="O250" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>85.883033439677035</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>79.953498321121145</v>
       </c>
     </row>
     <row r="251" spans="1:15" x14ac:dyDescent="0.25">
@@ -14588,8 +14588,8 @@
         <v>83.081262893810205</v>
       </c>
       <c r="O251" s="14">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>82.839786247226897</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>83.44347786368516</v>
       </c>
     </row>
     <row r="252" spans="1:15" x14ac:dyDescent="0.25">
@@ -14642,8 +14642,8 @@
         <v>80.749895107092541</v>
       </c>
       <c r="O252" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>88.804941850013108</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>68.667324992711713</v>
       </c>
     </row>
     <row r="253" spans="1:15" x14ac:dyDescent="0.25">
@@ -14696,8 +14696,8 @@
         <v>80.825188716294733</v>
       </c>
       <c r="O253" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>77.373179756584079</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>86.003202155860691</v>
       </c>
     </row>
     <row r="254" spans="1:15" x14ac:dyDescent="0.25">
@@ -14750,8 +14750,8 @@
         <v>81.703198746490386</v>
       </c>
       <c r="O254" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>73.437533624093504</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>94.101696430085724</v>
       </c>
     </row>
     <row r="255" spans="1:15" x14ac:dyDescent="0.25">
@@ -14804,8 +14804,8 @@
         <v>88.29826282179026</v>
       </c>
       <c r="O255" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>71.879660542306965</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>112.92616624101518</v>
       </c>
     </row>
     <row r="256" spans="1:15" x14ac:dyDescent="0.25">
@@ -14858,8 +14858,8 @@
         <v>92.868088553757715</v>
       </c>
       <c r="O256" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>86.082924877168296</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>103.04583406864182</v>
       </c>
     </row>
     <row r="257" spans="1:15" x14ac:dyDescent="0.25">
@@ -14912,8 +14912,8 @@
         <v>96.368961358987391</v>
       </c>
       <c r="O257" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>96.429584630206506</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>96.278026452158684</v>
       </c>
     </row>
     <row r="258" spans="1:15" x14ac:dyDescent="0.25">
@@ -14966,8 +14966,8 @@
         <v>96.175086231622529</v>
       </c>
       <c r="O258" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>96.673381535992945</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>95.427643275066913</v>
       </c>
     </row>
     <row r="259" spans="1:15" x14ac:dyDescent="0.25">
@@ -15020,8 +15020,8 @@
         <v>94.786116839381748</v>
       </c>
       <c r="O259" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>100.17082608748504</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>86.709052967226796</v>
       </c>
     </row>
     <row r="260" spans="1:15" x14ac:dyDescent="0.25">
@@ -15074,8 +15074,8 @@
         <v>93.634230783619657</v>
       </c>
       <c r="O260" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>95.136709238675877</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>91.380513101035291</v>
       </c>
     </row>
     <row r="261" spans="1:15" x14ac:dyDescent="0.25">
@@ -15128,8 +15128,8 @@
         <v>93.340270307635976</v>
       </c>
       <c r="O261" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>89.932696619935399</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>98.451630839186834</v>
       </c>
     </row>
     <row r="262" spans="1:15" x14ac:dyDescent="0.25">
@@ -15182,8 +15182,8 @@
         <v>93.210629549237282</v>
       </c>
       <c r="O262" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>96.222208767443732</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>88.693260721927601</v>
       </c>
     </row>
     <row r="263" spans="1:15" x14ac:dyDescent="0.25">
@@ -15236,8 +15236,8 @@
         <v>92.423231949237746</v>
       </c>
       <c r="O263" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>96.228098335527392</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>86.715932369803312</v>
       </c>
     </row>
     <row r="264" spans="1:15" x14ac:dyDescent="0.25">
@@ -15290,8 +15290,8 @@
         <v>90.325749149278622</v>
       </c>
       <c r="O264" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>93.474029944618081</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>85.603327956269396</v>
       </c>
     </row>
     <row r="265" spans="1:15" x14ac:dyDescent="0.25">
@@ -15344,8 +15344,8 @@
         <v>91.915341327106148</v>
       </c>
       <c r="O265" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>82.798791034085212</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>105.59016676663754</v>
       </c>
     </row>
     <row r="266" spans="1:15" x14ac:dyDescent="0.25">
@@ -15398,8 +15398,8 @@
         <v>94.294294294294403</v>
       </c>
       <c r="O266" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>87.56756756756775</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>104.38438438438439</v>
       </c>
     </row>
     <row r="267" spans="1:15" x14ac:dyDescent="0.25">
@@ -15452,8 +15452,8 @@
         <v>97.791948160220159</v>
       </c>
       <c r="O267" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>94.886703781888286</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>102.14981472771797</v>
       </c>
     </row>
     <row r="268" spans="1:15" x14ac:dyDescent="0.25">
@@ -15506,8 +15506,8 @@
         <v>97.525414402824026</v>
       </c>
       <c r="O268" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>101.22821280561564</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>91.97121679863659</v>
       </c>
     </row>
     <row r="269" spans="1:15" x14ac:dyDescent="0.25">
@@ -15560,8 +15560,8 @@
         <v>95.64270187941203</v>
       </c>
       <c r="O269" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>102.90906546339252</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>84.743156503441327</v>
       </c>
     </row>
     <row r="270" spans="1:15" x14ac:dyDescent="0.25">
@@ -15614,8 +15614,8 @@
         <v>93.440740800207678</v>
       </c>
       <c r="O270" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>95.044848177076972</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>91.034579734903758</v>
       </c>
     </row>
     <row r="271" spans="1:15" x14ac:dyDescent="0.25">
@@ -15668,8 +15668,8 @@
         <v>92.036658237150334</v>
       </c>
       <c r="O271" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>93.186439686938627</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>90.311986062467895</v>
       </c>
     </row>
     <row r="272" spans="1:15" x14ac:dyDescent="0.25">
@@ -15722,8 +15722,8 @@
         <v>89.127760968952487</v>
       </c>
       <c r="O272" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>100.81762634120096</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>71.592962910579786</v>
       </c>
     </row>
     <row r="273" spans="1:15" x14ac:dyDescent="0.25">
@@ -15776,8 +15776,8 @@
         <v>81.700492622944651</v>
       </c>
       <c r="O273" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>104.3877137213349</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>47.669660975359278</v>
       </c>
     </row>
     <row r="274" spans="1:15" x14ac:dyDescent="0.25">
@@ -15830,8 +15830,8 @@
         <v>70.933061762679415</v>
       </c>
       <c r="O274" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>94.4802354251173</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>35.612301269022595</v>
       </c>
     </row>
     <row r="275" spans="1:15" x14ac:dyDescent="0.25">
@@ -15884,8 +15884,8 @@
         <v>55.769758510266229</v>
       </c>
       <c r="O275" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>91.723438479621322</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>1.839238556233596</v>
       </c>
     </row>
     <row r="276" spans="1:15" x14ac:dyDescent="0.25">
@@ -15938,8 +15938,8 @@
         <v>38.451553144926486</v>
       </c>
       <c r="O276" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>78.550127479318832</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>-21.696308356662044</v>
       </c>
     </row>
     <row r="277" spans="1:15" x14ac:dyDescent="0.25">
@@ -15992,8 +15992,8 @@
         <v>23.220843545330911</v>
       </c>
       <c r="O277" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>42.727838370645244</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>-6.0396486926405757</v>
       </c>
     </row>
     <row r="278" spans="1:15" x14ac:dyDescent="0.25">
@@ -16046,8 +16046,8 @@
         <v>18.639978453884282</v>
       </c>
       <c r="O278" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>7.8192888591552574</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>34.871012845977816</v>
       </c>
     </row>
     <row r="279" spans="1:15" x14ac:dyDescent="0.25">
@@ -16100,8 +16100,8 @@
         <v>20.241730269262778</v>
       </c>
       <c r="O279" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>14.31014796005676</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>29.139103733071813</v>
       </c>
     </row>
     <row r="280" spans="1:15" x14ac:dyDescent="0.25">
@@ -16154,8 +16154,8 @@
         <v>22.167240867434998</v>
       </c>
       <c r="O280" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>28.013966747924179</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>13.397152046701223</v>
       </c>
     </row>
     <row r="281" spans="1:15" x14ac:dyDescent="0.25">
@@ -16208,8 +16208,8 @@
         <v>21.09240788914046</v>
       </c>
       <c r="O281" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>21.625575034691011</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>20.292657170814635</v>
       </c>
     </row>
     <row r="282" spans="1:15" x14ac:dyDescent="0.25">
@@ -16262,8 +16262,8 @@
         <v>24.594291125294291</v>
       </c>
       <c r="O282" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>6.3565311112283069</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>51.950931146393259</v>
       </c>
     </row>
     <row r="283" spans="1:15" x14ac:dyDescent="0.25">
@@ -16316,8 +16316,8 @@
         <v>32.083097377603707</v>
       </c>
       <c r="O283" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>12.828698764573829</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>60.964695297148523</v>
       </c>
     </row>
     <row r="284" spans="1:15" x14ac:dyDescent="0.25">
@@ -16370,8 +16370,8 @@
         <v>41.61585455702528</v>
       </c>
       <c r="O284" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>25.999371961816038</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>65.040578449839145</v>
       </c>
     </row>
     <row r="285" spans="1:15" x14ac:dyDescent="0.25">
@@ -16424,8 +16424,8 @@
         <v>49.592090629894955</v>
       </c>
       <c r="O285" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>33.492513187812264</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>73.741456793018983</v>
       </c>
     </row>
     <row r="286" spans="1:15" x14ac:dyDescent="0.25">
@@ -16478,8 +16478,8 @@
         <v>56.166269516420734</v>
       </c>
       <c r="O286" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>45.633141861870214</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>71.96596099824653</v>
       </c>
     </row>
     <row r="287" spans="1:15" x14ac:dyDescent="0.25">
@@ -16532,8 +16532,8 @@
         <v>59.817132930628553</v>
       </c>
       <c r="O287" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>58.698026597378941</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>61.495792430502959</v>
       </c>
     </row>
     <row r="288" spans="1:15" x14ac:dyDescent="0.25">
@@ -16586,8 +16586,8 @@
         <v>60.789588516382821</v>
       </c>
       <c r="O288" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>61.25027333275024</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>60.098561291831686</v>
       </c>
     </row>
     <row r="289" spans="1:15" x14ac:dyDescent="0.25">
@@ -16640,8 +16640,8 @@
         <v>64.296889245608938</v>
       </c>
       <c r="O289" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>48.981196674078177</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>87.270428102905072</v>
       </c>
     </row>
     <row r="290" spans="1:15" x14ac:dyDescent="0.25">
@@ -16694,8 +16694,8 @@
         <v>72.901476425028505</v>
       </c>
       <c r="O290" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>46.323534004061315</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>112.76839005647929</v>
       </c>
     </row>
     <row r="291" spans="1:15" x14ac:dyDescent="0.25">
@@ -16748,8 +16748,8 @@
         <v>83.527601655907446</v>
       </c>
       <c r="O291" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>65.70756136605047</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>110.25766209069289</v>
       </c>
     </row>
     <row r="292" spans="1:15" x14ac:dyDescent="0.25">
@@ -16802,8 +16802,8 @@
         <v>87.80238121526277</v>
       </c>
       <c r="O292" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>93.848995226907704</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>78.732460197795405</v>
       </c>
     </row>
     <row r="293" spans="1:15" x14ac:dyDescent="0.25">
@@ -16856,8 +16856,8 @@
         <v>82.590158875984855</v>
       </c>
       <c r="O293" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>106.66291539259785</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>46.481024101065373</v>
       </c>
     </row>
     <row r="294" spans="1:15" x14ac:dyDescent="0.25">
@@ -16910,8 +16910,8 @@
         <v>70.877606157828126</v>
       </c>
       <c r="O294" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>98.032891180752941</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>30.14467862344091</v>
       </c>
     </row>
     <row r="295" spans="1:15" x14ac:dyDescent="0.25">
@@ -16964,8 +16964,8 @@
         <v>60.033624760181631</v>
       </c>
       <c r="O295" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>75.606614247543277</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>36.674140529139166</v>
       </c>
     </row>
     <row r="296" spans="1:15" x14ac:dyDescent="0.25">
@@ -17018,8 +17018,8 @@
         <v>54.138828545331442</v>
       </c>
       <c r="O296" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>56.677701689738754</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>50.330518828720457</v>
       </c>
     </row>
     <row r="297" spans="1:15" x14ac:dyDescent="0.25">
@@ -17072,8 +17072,8 @@
         <v>54.161300754296157</v>
       </c>
       <c r="O297" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>47.749141716368726</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>63.779539311187321</v>
       </c>
     </row>
     <row r="298" spans="1:15" x14ac:dyDescent="0.25">
@@ -17126,8 +17126,8 @@
         <v>56.862037339147143</v>
       </c>
       <c r="O298" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>49.88743247533391</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>67.323944634866976</v>
       </c>
     </row>
     <row r="299" spans="1:15" x14ac:dyDescent="0.25">
@@ -17180,8 +17180,8 @@
         <v>63.907537020171311</v>
       </c>
       <c r="O299" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>43.710829028113295</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>94.202599008258332</v>
       </c>
     </row>
     <row r="300" spans="1:15" x14ac:dyDescent="0.25">
@@ -17234,8 +17234,8 @@
         <v>73.265254622949485</v>
       </c>
       <c r="O300" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>48.914697705659677</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>109.79108999888419</v>
       </c>
     </row>
     <row r="301" spans="1:15" x14ac:dyDescent="0.25">
@@ -17288,8 +17288,8 @@
         <v>82.799290263412715</v>
       </c>
       <c r="O301" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>70.494977405351307</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>101.25575955050479</v>
       </c>
     </row>
     <row r="302" spans="1:15" x14ac:dyDescent="0.25">
@@ -17342,8 +17342,8 @@
         <v>84.174278367702797</v>
       </c>
       <c r="O302" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>96.26112444496718</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>66.044009251806216</v>
       </c>
     </row>
     <row r="303" spans="1:15" x14ac:dyDescent="0.25">
@@ -17396,8 +17396,8 @@
         <v>78.907593794122036</v>
       </c>
       <c r="O303" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>97.44182266066187</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>51.10625049431232</v>
       </c>
     </row>
     <row r="304" spans="1:15" x14ac:dyDescent="0.25">
@@ -17450,8 +17450,8 @@
         <v>71.457141153483619</v>
       </c>
       <c r="O304" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>81.171245919394607</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>56.885984004617114</v>
       </c>
     </row>
     <row r="305" spans="1:15" x14ac:dyDescent="0.25">
@@ -17504,8 +17504,8 @@
         <v>64.957833999112253</v>
       </c>
       <c r="O305" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>77.607634265423769</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>45.983133599644958</v>
       </c>
     </row>
     <row r="306" spans="1:15" x14ac:dyDescent="0.25">
@@ -17558,8 +17558,8 @@
         <v>59.172954579079693</v>
       </c>
       <c r="O306" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>72.94718153573011</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>38.511614144104087</v>
       </c>
     </row>
     <row r="307" spans="1:15" x14ac:dyDescent="0.25">
@@ -17612,8 +17612,8 @@
         <v>51.70143512353895</v>
       </c>
       <c r="O307" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>66.733244562805083</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>29.15372096463976</v>
       </c>
     </row>
     <row r="308" spans="1:15" x14ac:dyDescent="0.25">
@@ -17666,8 +17666,8 @@
         <v>42.286142571075203</v>
       </c>
       <c r="O308" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>66.084315296095127</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>6.5888834835453167</v>
       </c>
     </row>
     <row r="309" spans="1:15" x14ac:dyDescent="0.25">
@@ -17720,8 +17720,8 @@
         <v>29.957704315515027</v>
       </c>
       <c r="O309" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>59.272060278397163</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>-14.013829628808189</v>
       </c>
     </row>
     <row r="310" spans="1:15" x14ac:dyDescent="0.25">
@@ -17774,8 +17774,8 @@
         <v>19.327699384910243</v>
       </c>
       <c r="O310" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>33.392066930547671</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>-1.7688519335459105</v>
       </c>
     </row>
     <row r="311" spans="1:15" x14ac:dyDescent="0.25">
@@ -17828,8 +17828,8 @@
         <v>14.515949725027069</v>
       </c>
       <c r="O311" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>11.644234717249763</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>18.823522236693027</v>
       </c>
     </row>
     <row r="312" spans="1:15" x14ac:dyDescent="0.25">
@@ -17882,8 +17882,8 @@
         <v>15.654060759586102</v>
       </c>
       <c r="O312" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>9.5324634032561875</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>24.836456794080974</v>
       </c>
     </row>
     <row r="313" spans="1:15" x14ac:dyDescent="0.25">
@@ -17936,8 +17936,8 @@
         <v>16.776439089692154</v>
       </c>
       <c r="O313" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>19.004016064257094</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>13.435073627844744</v>
       </c>
     </row>
     <row r="314" spans="1:15" x14ac:dyDescent="0.25">
@@ -17990,8 +17990,8 @@
         <v>16.509621293517956</v>
       </c>
       <c r="O314" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>19.226156199767633</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>12.434818934143443</v>
       </c>
     </row>
     <row r="315" spans="1:15" x14ac:dyDescent="0.25">
@@ -18044,8 +18044,8 @@
         <v>17.335996974802327</v>
       </c>
       <c r="O315" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>9.6200179611986343</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>28.909965495207871</v>
       </c>
     </row>
     <row r="316" spans="1:15" x14ac:dyDescent="0.25">
@@ -18098,8 +18098,8 @@
         <v>21.169644090874648</v>
       </c>
       <c r="O316" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>9.181748371370638</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>39.151487670130663</v>
       </c>
     </row>
     <row r="317" spans="1:15" x14ac:dyDescent="0.25">
@@ -18152,8 +18152,8 @@
         <v>29.791761173385201</v>
       </c>
       <c r="O317" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>7.3398733443060422</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>63.469592917003943</v>
       </c>
     </row>
     <row r="318" spans="1:15" x14ac:dyDescent="0.25">
@@ -18206,8 +18206,8 @@
         <v>36.193824839184543</v>
       </c>
       <c r="O318" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>27.781119559549239</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>48.8128827586375</v>
       </c>
     </row>
     <row r="319" spans="1:15" x14ac:dyDescent="0.25">
@@ -18260,8 +18260,8 @@
         <v>39.64368653132442</v>
       </c>
       <c r="O319" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>43.90470553988068</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>33.252158018490036</v>
       </c>
     </row>
     <row r="320" spans="1:15" x14ac:dyDescent="0.25">
@@ -18314,8 +18314,8 @@
         <v>38.855569983218082</v>
       </c>
       <c r="O320" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>39.259999062442716</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>38.24892636438112</v>
       </c>
     </row>
     <row r="321" spans="1:15" x14ac:dyDescent="0.25">
@@ -18368,8 +18368,8 @@
         <v>42.544837458441712</v>
       </c>
       <c r="O321" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>24.698552565978943</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>69.314264797135863</v>
       </c>
     </row>
     <row r="322" spans="1:15" x14ac:dyDescent="0.25">
@@ -18422,8 +18422,8 @@
         <v>53.567567419221213</v>
       </c>
       <c r="O322" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>19.53996843889405</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>104.60896588971197</v>
       </c>
     </row>
     <row r="323" spans="1:15" x14ac:dyDescent="0.25">
@@ -18476,8 +18476,8 @@
         <v>66.997030808525849</v>
       </c>
       <c r="O323" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>43.107601202538262</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>102.83117521750725</v>
       </c>
     </row>
     <row r="324" spans="1:15" x14ac:dyDescent="0.25">
@@ -18530,8 +18530,8 @@
         <v>79.439129194367112</v>
       </c>
       <c r="O324" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>60.728837458707517</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>107.50456679785648</v>
       </c>
     </row>
     <row r="325" spans="1:15" x14ac:dyDescent="0.25">
@@ -18584,8 +18584,8 @@
         <v>86.002217443346993</v>
       </c>
       <c r="O325" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>77.465389017392141</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>98.807460082279277</v>
       </c>
     </row>
     <row r="326" spans="1:15" x14ac:dyDescent="0.25">
@@ -18638,8 +18638,8 @@
         <v>91.23202168623186</v>
       </c>
       <c r="O326" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>84.433748378347076</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>101.42943164805905</v>
       </c>
     </row>
     <row r="327" spans="1:15" x14ac:dyDescent="0.25">
@@ -18692,8 +18692,8 @@
         <v>92.281201511933205</v>
       </c>
       <c r="O327" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>92.959975457197771</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>91.26304059403634</v>
       </c>
     </row>
     <row r="328" spans="1:15" x14ac:dyDescent="0.25">
@@ -18746,8 +18746,8 @@
         <v>89.76414151014643</v>
       </c>
       <c r="O328" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>103.85352122851106</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>68.630071932599492</v>
       </c>
     </row>
     <row r="329" spans="1:15" x14ac:dyDescent="0.25">
@@ -18800,8 +18800,8 @@
         <v>82.828259994728512</v>
       </c>
       <c r="O329" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>100.8377523963446</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>55.814021392304369</v>
       </c>
     </row>
     <row r="330" spans="1:15" x14ac:dyDescent="0.25">
@@ -18854,8 +18854,8 @@
         <v>71.452227482582472</v>
       </c>
       <c r="O330" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>98.729248442021728</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>30.536696043423575</v>
       </c>
     </row>
     <row r="331" spans="1:15" x14ac:dyDescent="0.25">
@@ -18908,8 +18908,8 @@
         <v>60.290141456388675</v>
       </c>
       <c r="O331" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>82.404037224400625</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>27.119297804370731</v>
       </c>
     </row>
     <row r="332" spans="1:15" x14ac:dyDescent="0.25">
@@ -18962,8 +18962,8 @@
         <v>50.793634450520649</v>
       </c>
       <c r="O332" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>61.712917798929126</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>34.414709427907937</v>
       </c>
     </row>
     <row r="333" spans="1:15" x14ac:dyDescent="0.25">
@@ -19016,8 +19016,8 @@
         <v>48.541826982888644</v>
       </c>
       <c r="O333" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>43.508891748732296</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>56.091229834123183</v>
       </c>
     </row>
     <row r="334" spans="1:15" x14ac:dyDescent="0.25">
@@ -19070,8 +19070,8 @@
         <v>48.335753294514355</v>
       </c>
       <c r="O334" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>47.7773148690234</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>49.173410932750798</v>
       </c>
     </row>
     <row r="335" spans="1:15" x14ac:dyDescent="0.25">
@@ -19124,8 +19124,8 @@
         <v>47.580858012639936</v>
       </c>
       <c r="O335" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>56.603960176533491</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>34.046204766799605</v>
       </c>
     </row>
     <row r="336" spans="1:15" x14ac:dyDescent="0.25">
@@ -19178,8 +19178,8 @@
         <v>41.342504587128467</v>
       </c>
       <c r="O336" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>59.341045114520597</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>14.344693796040261</v>
       </c>
     </row>
     <row r="337" spans="1:15" x14ac:dyDescent="0.25">
@@ -19232,8 +19232,8 @@
         <v>35.261815032854692</v>
       </c>
       <c r="O337" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>45.039637409687032</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>20.595081467606192</v>
       </c>
     </row>
     <row r="338" spans="1:15" x14ac:dyDescent="0.25">
@@ -19286,8 +19286,8 @@
         <v>32.9653168019505</v>
       </c>
       <c r="O338" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>26.536325929890339</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>42.608803110040739</v>
       </c>
     </row>
     <row r="339" spans="1:15" x14ac:dyDescent="0.25">
@@ -19340,8 +19340,8 @@
         <v>38.888442898343953</v>
       </c>
       <c r="O339" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>16.440103469806346</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>72.560952041150358</v>
       </c>
     </row>
     <row r="340" spans="1:15" x14ac:dyDescent="0.25">
@@ -19394,8 +19394,8 @@
         <v>50.306717502205423</v>
       </c>
       <c r="O340" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>21.664697194570437</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>93.269747963657906</v>
       </c>
     </row>
     <row r="341" spans="1:15" x14ac:dyDescent="0.25">
@@ -19448,8 +19448,8 @@
         <v>64.203249533516612</v>
       </c>
       <c r="O341" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>36.870931936721519</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>105.20172592870927</v>
       </c>
     </row>
     <row r="342" spans="1:15" x14ac:dyDescent="0.25">
@@ -19502,8 +19502,8 @@
         <v>77.115031848498504</v>
       </c>
       <c r="O342" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>53.649176430378617</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>112.3138149756783</v>
       </c>
     </row>
     <row r="343" spans="1:15" x14ac:dyDescent="0.25">
@@ -19556,8 +19556,8 @@
         <v>87.987162680320111</v>
       </c>
       <c r="O343" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>69.473247737984906</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>115.75803509382288</v>
       </c>
     </row>
     <row r="344" spans="1:15" x14ac:dyDescent="0.25">
@@ -19610,8 +19610,8 @@
         <v>94.006958963760852</v>
       </c>
       <c r="O344" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>90.16328252680978</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>99.77247361918748</v>
       </c>
     </row>
     <row r="345" spans="1:15" x14ac:dyDescent="0.25">
@@ -19664,8 +19664,8 @@
         <v>94.474975705131271</v>
       </c>
       <c r="O345" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>102.92090755205444</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>81.806077934746497</v>
       </c>
     </row>
     <row r="346" spans="1:15" x14ac:dyDescent="0.25">
@@ -19718,8 +19718,8 @@
         <v>91.019510404195728</v>
       </c>
       <c r="O346" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>99.303082715225031</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>78.594151937651759</v>
       </c>
     </row>
     <row r="347" spans="1:15" x14ac:dyDescent="0.25">
@@ -19772,8 +19772,8 @@
         <v>87.283666791947624</v>
       </c>
       <c r="O347" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>92.408467684858635</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>79.596465452581128</v>
       </c>
     </row>
     <row r="348" spans="1:15" x14ac:dyDescent="0.25">
@@ -19826,8 +19826,8 @@
         <v>85.608319951059215</v>
       </c>
       <c r="O348" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>86.373021335168715</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>84.461267874894958</v>
       </c>
     </row>
     <row r="349" spans="1:15" x14ac:dyDescent="0.25">
@@ -19880,8 +19880,8 @@
         <v>85.891259463179708</v>
       </c>
       <c r="O349" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>82.220692819454115</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>91.397109428768061</v>
       </c>
     </row>
     <row r="350" spans="1:15" x14ac:dyDescent="0.25">
@@ -19934,8 +19934,8 @@
         <v>87.220606985625253</v>
       </c>
       <c r="O350" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>84.24320313121811</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>91.686712767236003</v>
       </c>
     </row>
     <row r="351" spans="1:15" x14ac:dyDescent="0.25">
@@ -19988,8 +19988,8 @@
         <v>89.652868768749713</v>
       </c>
       <c r="O351" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>83.913097089493533</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>98.26252628763396</v>
       </c>
     </row>
     <row r="352" spans="1:15" x14ac:dyDescent="0.25">
@@ -20042,8 +20042,8 @@
         <v>89.998946967927381</v>
       </c>
       <c r="O352" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>92.467286138631124</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>86.296438211871731</v>
       </c>
     </row>
     <row r="353" spans="1:15" x14ac:dyDescent="0.25">
@@ -20096,8 +20096,8 @@
         <v>88.643492941042311</v>
       </c>
       <c r="O353" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>96.644585158779705</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>76.641854614436198</v>
       </c>
     </row>
     <row r="354" spans="1:15" x14ac:dyDescent="0.25">
@@ -20150,8 +20150,8 @@
         <v>78.666972685981079</v>
       </c>
       <c r="O354" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>110.81453037155499</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>30.445636157620214</v>
       </c>
     </row>
     <row r="355" spans="1:15" x14ac:dyDescent="0.25">
@@ -20204,8 +20204,8 @@
         <v>68.910251054537014</v>
       </c>
       <c r="O355" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>87.741528187124402</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>40.663335355655931</v>
       </c>
     </row>
     <row r="356" spans="1:15" x14ac:dyDescent="0.25">
@@ -20258,8 +20258,8 @@
         <v>57.423824995481276</v>
       </c>
       <c r="O356" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>71.904137676431063</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>35.703355974056578</v>
       </c>
     </row>
     <row r="357" spans="1:15" x14ac:dyDescent="0.25">
@@ -20312,8 +20312,8 @@
         <v>60.285541697431483</v>
       </c>
       <c r="O357" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>38.499937194204989</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>92.963948452271211</v>
       </c>
     </row>
     <row r="358" spans="1:15" x14ac:dyDescent="0.25">
@@ -20366,8 +20366,8 @@
         <v>66.559979949822051</v>
       </c>
       <c r="O358" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>43.044085358636067</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>101.83382183660106</v>
       </c>
     </row>
     <row r="359" spans="1:15" x14ac:dyDescent="0.25">
@@ -20420,8 +20420,8 @@
         <v>81.010873057533033</v>
       </c>
       <c r="O359" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>55.959923216320504</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>118.58729781935179</v>
       </c>
     </row>
     <row r="360" spans="1:15" x14ac:dyDescent="0.25">
@@ -20474,8 +20474,8 @@
         <v>89.436947810906759</v>
       </c>
       <c r="O360" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>75.39770701438843</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>110.49580900568424</v>
       </c>
     </row>
     <row r="361" spans="1:15" x14ac:dyDescent="0.25">
@@ -20528,8 +20528,8 @@
         <v>94.955030438842527</v>
       </c>
       <c r="O361" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>95.120741058082785</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>94.70646450998214</v>
       </c>
     </row>
     <row r="362" spans="1:15" x14ac:dyDescent="0.25">
@@ -20582,8 +20582,8 @@
         <v>95.90857634821954</v>
       </c>
       <c r="O362" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>94.931757632118007</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>97.373804422371876</v>
       </c>
     </row>
     <row r="363" spans="1:15" x14ac:dyDescent="0.25">
@@ -20636,8 +20636,8 @@
         <v>95.248321962212458</v>
       </c>
       <c r="O363" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>96.793355784348023</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>92.93077122900911</v>
       </c>
     </row>
     <row r="364" spans="1:15" x14ac:dyDescent="0.25">
@@ -20690,8 +20690,8 @@
         <v>95.642290170376683</v>
       </c>
       <c r="O364" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>94.818711003699889</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>96.877658920391895</v>
       </c>
     </row>
     <row r="365" spans="1:15" x14ac:dyDescent="0.25">
@@ -20744,8 +20744,8 @@
         <v>94.25336377384059</v>
       </c>
       <c r="O365" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>98.299678288197782</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>88.183892002304788</v>
       </c>
     </row>
     <row r="366" spans="1:15" x14ac:dyDescent="0.25">
@@ -20798,8 +20798,8 @@
         <v>93.580377392096281</v>
       </c>
       <c r="O366" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>95.827440364465332</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>90.209782933542698</v>
       </c>
     </row>
     <row r="367" spans="1:15" x14ac:dyDescent="0.25">
@@ -20852,8 +20852,8 @@
         <v>91.767313051321764</v>
       </c>
       <c r="O367" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>94.072165691182164</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>88.310034091531179</v>
       </c>
     </row>
     <row r="368" spans="1:15" x14ac:dyDescent="0.25">
@@ -20906,8 +20906,8 @@
         <v>90.58388873243085</v>
       </c>
       <c r="O368" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>94.391799077314118</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>84.872023215105941</v>
       </c>
     </row>
     <row r="369" spans="1:15" x14ac:dyDescent="0.25">
@@ -20960,8 +20960,8 @@
         <v>86.730061290338199</v>
       </c>
       <c r="O369" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>98.399456711747007</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>69.225968158224987</v>
       </c>
     </row>
     <row r="370" spans="1:15" x14ac:dyDescent="0.25">
@@ -21014,8 +21014,8 @@
         <v>81.018081999836923</v>
       </c>
       <c r="O370" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>96.096348279735196</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>58.400682579989535</v>
       </c>
     </row>
     <row r="371" spans="1:15" x14ac:dyDescent="0.25">
@@ -21068,8 +21068,8 @@
         <v>69.570586819534071</v>
       </c>
       <c r="O371" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>100.03686442044098</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>23.871170418173705</v>
       </c>
     </row>
     <row r="372" spans="1:15" x14ac:dyDescent="0.25">
@@ -21122,8 +21122,8 @@
         <v>56.662124152613252</v>
       </c>
       <c r="O372" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>85.64642130009706</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>13.185678431387558</v>
       </c>
     </row>
     <row r="373" spans="1:15" x14ac:dyDescent="0.25">
@@ -21176,8 +21176,8 @@
         <v>40.953579615326404</v>
       </c>
       <c r="O373" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>70.154108349924741</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>-2.8472134865710927</v>
       </c>
     </row>
     <row r="374" spans="1:15" x14ac:dyDescent="0.25">
@@ -21230,8 +21230,8 @@
         <v>31.956830180117464</v>
       </c>
       <c r="O374" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>41.176091113444791</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>18.12793878012647</v>
       </c>
     </row>
     <row r="375" spans="1:15" x14ac:dyDescent="0.25">
@@ -21284,8 +21284,8 @@
         <v>23.574730090504989</v>
       </c>
       <c r="O375" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>36.676839651447125</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>3.9215657490917906</v>
       </c>
     </row>
     <row r="376" spans="1:15" x14ac:dyDescent="0.25">
@@ -21338,8 +21338,8 @@
         <v>20.884094599792494</v>
       </c>
       <c r="O376" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>26.089466247597962</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>13.076037128084302</v>
       </c>
     </row>
     <row r="377" spans="1:15" x14ac:dyDescent="0.25">
@@ -21392,8 +21392,8 @@
         <v>18.001188572227608</v>
       </c>
       <c r="O377" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>16.606602455164541</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>20.093067747822211</v>
       </c>
     </row>
     <row r="378" spans="1:15" x14ac:dyDescent="0.25">
@@ -21446,8 +21446,8 @@
         <v>22.087024779665168</v>
       </c>
       <c r="O378" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>7.6987064743023055</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>43.669502237709459</v>
       </c>
     </row>
     <row r="379" spans="1:15" x14ac:dyDescent="0.25">
@@ -21500,8 +21500,8 @@
         <v>25.806647053560766</v>
       </c>
       <c r="O379" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>18.539389965529189</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>36.707532685608129</v>
       </c>
     </row>
     <row r="380" spans="1:15" x14ac:dyDescent="0.25">
@@ -21554,8 +21554,8 @@
         <v>31.899330964907545</v>
       </c>
       <c r="O380" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>21.744926165123672</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>47.130938164583348</v>
       </c>
     </row>
     <row r="381" spans="1:15" x14ac:dyDescent="0.25">
@@ -21608,8 +21608,8 @@
         <v>39.982635405205365</v>
       </c>
       <c r="O381" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>12.885711709135961</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>80.628020949309459</v>
       </c>
     </row>
     <row r="382" spans="1:15" x14ac:dyDescent="0.25">
@@ -21662,8 +21662,8 @@
         <v>56.261857062606282</v>
       </c>
       <c r="O382" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>12.229690048260267</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>122.31010758412532</v>
       </c>
     </row>
     <row r="383" spans="1:15" x14ac:dyDescent="0.25">
@@ -21716,8 +21716,8 @@
         <v>75.325434052944956</v>
       </c>
       <c r="O383" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>37.641773487203864</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>131.8509249015566</v>
       </c>
     </row>
     <row r="384" spans="1:15" x14ac:dyDescent="0.25">
@@ -21770,8 +21770,8 @@
         <v>88.350780224116463</v>
       </c>
       <c r="O384" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>79.838069138840183</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>101.11984685203086</v>
       </c>
     </row>
     <row r="385" spans="1:15" x14ac:dyDescent="0.25">
@@ -21824,8 +21824,8 @@
         <v>93.136926806401348</v>
       </c>
       <c r="O385" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>94.138019785936166</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>91.635287337099129</v>
       </c>
     </row>
     <row r="386" spans="1:15" x14ac:dyDescent="0.25">
@@ -21878,8 +21878,8 @@
         <v>92.416190345522168</v>
       </c>
       <c r="O386" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>93.238461130210624</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>91.182784168489462</v>
       </c>
     </row>
     <row r="387" spans="1:15" x14ac:dyDescent="0.25">
@@ -21932,8 +21932,8 @@
         <v>93.917672829446929</v>
       </c>
       <c r="O387" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>87.529852051283029</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>103.49940399669276</v>
       </c>
     </row>
     <row r="388" spans="1:15" x14ac:dyDescent="0.25">
@@ -21986,8 +21986,8 @@
         <v>95.085168596603978</v>
       </c>
       <c r="O388" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>92.977770553601715</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>98.246265661107373</v>
       </c>
     </row>
     <row r="389" spans="1:15" x14ac:dyDescent="0.25">
@@ -22040,8 +22040,8 @@
         <v>96.685001820465303</v>
       </c>
       <c r="O389" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>96.445896211872082</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>97.043660233355155</v>
       </c>
     </row>
     <row r="390" spans="1:15" x14ac:dyDescent="0.25">
@@ -22094,8 +22094,8 @@
         <v>96.051183394527087</v>
       </c>
       <c r="O390" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>97.733294302152757</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>93.528017033088616</v>
       </c>
     </row>
     <row r="391" spans="1:15" x14ac:dyDescent="0.25">
@@ -22148,8 +22148,8 @@
         <v>94.730090187410724</v>
       </c>
       <c r="O391" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>99.839094568720157</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>87.066583615446575</v>
       </c>
     </row>
     <row r="392" spans="1:15" x14ac:dyDescent="0.25">
@@ -22202,8 +22202,8 @@
         <v>92.274504993510888</v>
       </c>
       <c r="O392" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>97.947916894407854</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>83.764387142165418</v>
       </c>
     </row>
     <row r="393" spans="1:15" x14ac:dyDescent="0.25">
@@ -22256,8 +22256,8 @@
         <v>90.535039433481799</v>
       </c>
       <c r="O393" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>91.6216557791914</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>88.905114914917391</v>
       </c>
     </row>
     <row r="394" spans="1:15" x14ac:dyDescent="0.25">
@@ -22310,8 +22310,8 @@
         <v>90.862316413739734</v>
       </c>
       <c r="O394" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>86.272111366159578</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>97.747623985109954</v>
       </c>
     </row>
     <row r="395" spans="1:15" x14ac:dyDescent="0.25">
@@ -22364,8 +22364,8 @@
         <v>91.655966210976388</v>
       </c>
       <c r="O395" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>91.33040176338443</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>92.144312882364346</v>
       </c>
     </row>
     <row r="396" spans="1:15" x14ac:dyDescent="0.25">
@@ -22418,8 +22418,8 @@
         <v>89.002451663655066</v>
       </c>
       <c r="O396" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>102.94497975363922</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>68.088659528678846</v>
       </c>
     </row>
     <row r="397" spans="1:15" x14ac:dyDescent="0.25">
@@ -22472,8 +22472,8 @@
         <v>79.375114148110043</v>
       </c>
       <c r="O397" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>109.57452966254064</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>34.075990876464147</v>
       </c>
     </row>
     <row r="398" spans="1:15" x14ac:dyDescent="0.25">
@@ -22526,8 +22526,8 @@
         <v>66.662645905425748</v>
       </c>
       <c r="O398" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>92.625250302838239</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>27.71873930930704</v>
       </c>
     </row>
     <row r="399" spans="1:15" x14ac:dyDescent="0.25">
@@ -22580,8 +22580,8 @@
         <v>54.848257152311703</v>
       </c>
       <c r="O399" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>71.36872873829337</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>30.067549773339209</v>
       </c>
     </row>
     <row r="400" spans="1:15" x14ac:dyDescent="0.25">
@@ -22634,8 +22634,8 @@
         <v>51.510590387988707</v>
       </c>
       <c r="O400" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>46.00695896811466</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>59.766037517799774</v>
       </c>
     </row>
     <row r="401" spans="1:15" x14ac:dyDescent="0.25">
@@ -22688,8 +22688,8 @@
         <v>55.263326135720064</v>
       </c>
       <c r="O401" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>35.910876507333001</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>84.292000578300645</v>
       </c>
     </row>
     <row r="402" spans="1:15" x14ac:dyDescent="0.25">
@@ -22742,8 +22742,8 @@
         <v>67.268488017417738</v>
       </c>
       <c r="O402" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>36.598450043425458</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>113.27354497840619</v>
       </c>
     </row>
     <row r="403" spans="1:15" x14ac:dyDescent="0.25">
@@ -22796,8 +22796,8 @@
         <v>79.727867331926106</v>
       </c>
       <c r="O403" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>55.902513912876628</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>115.46589746050032</v>
       </c>
     </row>
     <row r="404" spans="1:15" x14ac:dyDescent="0.25">
@@ -22850,8 +22850,8 @@
         <v>89.17857257084377</v>
       </c>
       <c r="O404" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>80.952384379198065</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>101.51785485831235</v>
       </c>
     </row>
     <row r="405" spans="1:15" x14ac:dyDescent="0.25">
@@ -22904,8 +22904,8 @@
         <v>91.899214268960861</v>
       </c>
       <c r="O405" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>94.16677860935232</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>88.497867758373673</v>
       </c>
     </row>
     <row r="406" spans="1:15" x14ac:dyDescent="0.25">
@@ -22958,8 +22958,8 @@
         <v>87.677580358135785</v>
       </c>
       <c r="O406" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>105.08145645645621</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>61.571766210655113</v>
       </c>
     </row>
     <row r="407" spans="1:15" x14ac:dyDescent="0.25">
@@ -23012,8 +23012,8 @@
         <v>77.454788121454683</v>
       </c>
       <c r="O407" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>107.11778445111742</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>32.960293626960606</v>
       </c>
     </row>
     <row r="408" spans="1:15" x14ac:dyDescent="0.25">
@@ -23066,8 +23066,8 @@
         <v>66.151929707485294</v>
       </c>
       <c r="O408" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>84.742075408741883</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>38.266711155600404</v>
       </c>
     </row>
     <row r="409" spans="1:15" x14ac:dyDescent="0.25">
@@ -23120,8 +23120,8 @@
         <v>56.543432321210162</v>
       </c>
       <c r="O409" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>69.329996663330164</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>37.363585808030166</v>
       </c>
     </row>
     <row r="410" spans="1:15" x14ac:dyDescent="0.25">
@@ -23174,8 +23174,8 @@
         <v>55.555555555555657</v>
       </c>
       <c r="O410" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>47.347347347347366</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>67.867867867868085</v>
       </c>
     </row>
     <row r="411" spans="1:15" x14ac:dyDescent="0.25">
@@ -23228,8 +23228,8 @@
         <v>58.375041708375115</v>
       </c>
       <c r="O411" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>44.494494494494546</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>79.195862529195992</v>
       </c>
     </row>
     <row r="412" spans="1:15" x14ac:dyDescent="0.25">
@@ -23282,8 +23282,8 @@
         <v>69.736403069736539</v>
       </c>
       <c r="O412" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>40.740740740740819</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>113.22989656323014</v>
       </c>
     </row>
     <row r="413" spans="1:15" x14ac:dyDescent="0.25">
@@ -23336,8 +23336,8 @@
         <v>79.779021445688201</v>
       </c>
       <c r="O413" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>59.762034762034972</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>109.80450147116804</v>
       </c>
     </row>
     <row r="414" spans="1:15" x14ac:dyDescent="0.25">
@@ -23390,8 +23390,8 @@
         <v>87.694152103374066</v>
       </c>
       <c r="O414" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>84.961041733376163</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>91.793817658370955</v>
       </c>
     </row>
     <row r="415" spans="1:15" x14ac:dyDescent="0.25">
@@ -23444,8 +23444,8 @@
         <v>87.484010514750153</v>
       </c>
       <c r="O415" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>95.244412607525192</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>75.843407375587617</v>
       </c>
     </row>
     <row r="416" spans="1:15" x14ac:dyDescent="0.25">
@@ -23498,8 +23498,8 @@
         <v>86.512894708361898</v>
       </c>
       <c r="O416" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>85.790349388385692</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>87.596712688326193</v>
       </c>
     </row>
     <row r="417" spans="1:15" x14ac:dyDescent="0.25">
@@ -23552,8 +23552,8 @@
         <v>87.420241109278933</v>
       </c>
       <c r="O417" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>78.695230345588499</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>100.50775725481455</v>
       </c>
     </row>
     <row r="418" spans="1:15" x14ac:dyDescent="0.25">
@@ -23606,8 +23606,8 @@
         <v>91.980594706483032</v>
       </c>
       <c r="O418" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>81.372043599499165</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>107.89342136695882</v>
       </c>
     </row>
     <row r="419" spans="1:15" x14ac:dyDescent="0.25">
@@ -23660,8 +23660,8 @@
         <v>95.432319434854534</v>
       </c>
       <c r="O419" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>91.838275197634658</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>100.82338579068434</v>
       </c>
     </row>
     <row r="420" spans="1:15" x14ac:dyDescent="0.25">
@@ -23714,8 +23714,8 @@
         <v>96.014734555658251</v>
       </c>
       <c r="O420" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>100.98421995990412</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>88.56050644928942</v>
       </c>
     </row>
     <row r="421" spans="1:15" x14ac:dyDescent="0.25">
@@ -23768,8 +23768,8 @@
         <v>93.924522760814895</v>
       </c>
       <c r="O421" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>99.745098531554817</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>85.193659104705006</v>
       </c>
     </row>
     <row r="422" spans="1:15" x14ac:dyDescent="0.25">
@@ -23822,8 +23822,8 @@
         <v>90.251397047263893</v>
       </c>
       <c r="O422" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>98.334262316168747</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>78.127099143906634</v>
       </c>
     </row>
     <row r="423" spans="1:15" x14ac:dyDescent="0.25">
@@ -23876,8 +23876,8 @@
         <v>85.595495204036197</v>
       </c>
       <c r="O423" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>97.661912964404195</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>67.495868563484208</v>
       </c>
     </row>
     <row r="424" spans="1:15" x14ac:dyDescent="0.25">
@@ -23930,8 +23930,8 @@
         <v>78.409859156664865</v>
       </c>
       <c r="O424" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>96.314924003332834</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>51.552261886662876</v>
       </c>
     </row>
     <row r="425" spans="1:15" x14ac:dyDescent="0.25">
@@ -23984,8 +23984,8 @@
         <v>67.781199223406873</v>
       </c>
       <c r="O425" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>94.695628444145555</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>27.409555392298842</v>
       </c>
     </row>
     <row r="426" spans="1:15" x14ac:dyDescent="0.25">
@@ -24038,8 +24038,8 @@
         <v>56.559980646206476</v>
       </c>
       <c r="O426" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>77.882680754117359</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>24.575930484340162</v>
       </c>
     </row>
     <row r="427" spans="1:15" x14ac:dyDescent="0.25">
@@ -24092,8 +24092,8 @@
         <v>48.718630715755268</v>
       </c>
       <c r="O427" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>54.289338263311365</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>40.362569394421115</v>
       </c>
     </row>
     <row r="428" spans="1:15" x14ac:dyDescent="0.25">
@@ -24146,8 +24146,8 @@
         <v>48.21078085108666</v>
       </c>
       <c r="O428" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>39.031472515196569</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>61.97974335492178</v>
       </c>
     </row>
     <row r="429" spans="1:15" x14ac:dyDescent="0.25">
@@ -24200,8 +24200,8 @@
         <v>55.029445376554087</v>
       </c>
       <c r="O429" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>32.379087792355563</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>89.004981752851862</v>
       </c>
     </row>
     <row r="430" spans="1:15" x14ac:dyDescent="0.25">
@@ -24254,8 +24254,8 @@
         <v>64.677593456977107</v>
       </c>
       <c r="O430" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>44.277338004438747</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>95.277976635784654</v>
       </c>
     </row>
     <row r="431" spans="1:15" x14ac:dyDescent="0.25">
@@ -24308,8 +24308,8 @@
         <v>71.335540085774099</v>
       </c>
       <c r="O431" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>68.458070446476995</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>75.651744544719776</v>
       </c>
     </row>
     <row r="432" spans="1:15" x14ac:dyDescent="0.25">
@@ -24362,8 +24362,8 @@
         <v>73.534271920266747</v>
       </c>
       <c r="O432" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>74.70117641653772</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>71.783915175860272</v>
       </c>
     </row>
     <row r="433" spans="1:15" x14ac:dyDescent="0.25">
@@ -24416,8 +24416,8 @@
         <v>73.725756359884684</v>
       </c>
       <c r="O433" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>70.272920075453811</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>78.905010786530994</v>
       </c>
     </row>
     <row r="434" spans="1:15" x14ac:dyDescent="0.25">
@@ -24470,8 +24470,8 @@
         <v>79.369516964731545</v>
       </c>
       <c r="O434" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>58.697437454268083</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>110.37763623042676</v>
       </c>
     </row>
     <row r="435" spans="1:15" x14ac:dyDescent="0.25">
@@ -24524,8 +24524,8 @@
         <v>85.023842343073781</v>
       </c>
       <c r="O435" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>75.243935414905508</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>99.693702735326184</v>
       </c>
     </row>
     <row r="436" spans="1:15" x14ac:dyDescent="0.25">
@@ -24578,8 +24578,8 @@
         <v>87.76125306982884</v>
       </c>
       <c r="O436" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>95.954945844755827</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>75.470713907438352</v>
       </c>
     </row>
     <row r="437" spans="1:15" x14ac:dyDescent="0.25">
@@ -24632,8 +24632,8 @@
         <v>82.782747303778748</v>
       </c>
       <c r="O437" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>98.80816306771024</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>58.744623657881476</v>
       </c>
     </row>
     <row r="438" spans="1:15" x14ac:dyDescent="0.25">
@@ -24686,8 +24686,8 @@
         <v>74.727090152699404</v>
       </c>
       <c r="O438" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>92.687621750258444</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>47.786292756360837</v>
       </c>
     </row>
     <row r="439" spans="1:15" x14ac:dyDescent="0.25">
@@ -24740,8 +24740,8 @@
         <v>68.159769090874391</v>
       </c>
       <c r="O439" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>76.554420278842585</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>55.567792308922094</v>
       </c>
     </row>
     <row r="440" spans="1:15" x14ac:dyDescent="0.25">
@@ -24794,8 +24794,8 @@
         <v>64.387412433216497</v>
       </c>
       <c r="O440" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>66.256298401970852</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>61.584083480084956</v>
       </c>
     </row>
     <row r="441" spans="1:15" x14ac:dyDescent="0.25">
@@ -24848,8 +24848,8 @@
         <v>65.758653618844406</v>
       </c>
       <c r="O441" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>57.554865034925996</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>78.064336494722028</v>
       </c>
     </row>
     <row r="442" spans="1:15" x14ac:dyDescent="0.25">
@@ -24902,8 +24902,8 @@
         <v>68.100417487910633</v>
       </c>
       <c r="O442" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>62.325782255553946</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>76.762370336445628</v>
       </c>
     </row>
     <row r="443" spans="1:15" x14ac:dyDescent="0.25">
@@ -24956,8 +24956,8 @@
         <v>71.274058588706581</v>
       </c>
       <c r="O443" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>67.87439026366539</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>76.373561076268373</v>
       </c>
     </row>
     <row r="444" spans="1:15" x14ac:dyDescent="0.25">
@@ -25010,8 +25010,8 @@
         <v>67.371224020775088</v>
       </c>
       <c r="O444" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>85.809583648307054</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>39.713684579477132</v>
       </c>
     </row>
     <row r="445" spans="1:15" x14ac:dyDescent="0.25">
@@ -25064,8 +25064,8 @@
         <v>57.877581560980794</v>
       </c>
       <c r="O445" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>88.619129233530188</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>11.765260052156705</v>
       </c>
     </row>
     <row r="446" spans="1:15" x14ac:dyDescent="0.25">
@@ -25118,8 +25118,8 @@
         <v>42.972118350210771</v>
       </c>
       <c r="O446" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>72.401348812798119</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>-1.1717273436702271</v>
       </c>
     </row>
     <row r="447" spans="1:15" x14ac:dyDescent="0.25">
@@ -25172,8 +25172,8 @@
         <v>32.190557310413169</v>
       </c>
       <c r="O447" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>44.956949756006907</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>13.040968642022563</v>
       </c>
     </row>
     <row r="448" spans="1:15" x14ac:dyDescent="0.25">
@@ -25226,8 +25226,8 @@
         <v>24.390564097957451</v>
       </c>
       <c r="O448" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>34.958036119194453</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>8.539356066101945</v>
       </c>
     </row>
     <row r="449" spans="1:15" x14ac:dyDescent="0.25">
@@ -25280,8 +25280,8 @@
         <v>18.88285433624128</v>
       </c>
       <c r="O449" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>33.179815341186668</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>-2.5625871711767942</v>
       </c>
     </row>
     <row r="450" spans="1:15" x14ac:dyDescent="0.25">
@@ -25334,8 +25334,8 @@
         <v>14.17875115226982</v>
       </c>
       <c r="O450" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>19.146150385405619</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>6.7276523025661241</v>
       </c>
     </row>
     <row r="451" spans="1:15" x14ac:dyDescent="0.25">
@@ -25388,8 +25388,8 @@
         <v>13.367856410231257</v>
       </c>
       <c r="O451" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>6.7552815082472435</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>23.286718763207279</v>
       </c>
     </row>
     <row r="452" spans="1:15" x14ac:dyDescent="0.25">
@@ -25442,8 +25442,8 @@
         <v>19.017237905350608</v>
       </c>
       <c r="O452" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>-0.31332292220144353</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>48.013079146678685</v>
       </c>
     </row>
     <row r="453" spans="1:15" x14ac:dyDescent="0.25">
@@ -25496,8 +25496,8 @@
         <v>26.868052440057806</v>
       </c>
       <c r="O453" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>10.109167040526401</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>52.0063805393549</v>
       </c>
     </row>
     <row r="454" spans="1:15" x14ac:dyDescent="0.25">
@@ -25550,8 +25550,8 @@
         <v>34.031204825282849</v>
       </c>
       <c r="O454" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>25.766412442051717</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>46.428393400129536</v>
       </c>
     </row>
     <row r="455" spans="1:15" x14ac:dyDescent="0.25">
@@ -25604,8 +25604,8 @@
         <v>35.172723194257493</v>
       </c>
       <c r="O455" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>41.304022730671377</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>25.97577388963667</v>
       </c>
     </row>
     <row r="456" spans="1:15" x14ac:dyDescent="0.25">
@@ -25658,8 +25658,8 @@
         <v>31.478989083295932</v>
       </c>
       <c r="O456" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>46.104381636010146</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>9.5409002542246171</v>
       </c>
     </row>
     <row r="457" spans="1:15" x14ac:dyDescent="0.25">
@@ -25712,8 +25712,8 @@
         <v>26.332891203568266</v>
       </c>
       <c r="O457" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>33.54805885527395</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>15.51013972600974</v>
       </c>
     </row>
     <row r="458" spans="1:15" x14ac:dyDescent="0.25">
@@ -25766,8 +25766,8 @@
         <v>20.616017157081064</v>
       </c>
       <c r="O458" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>31.935148898065318</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>3.6373195456046901</v>
       </c>
     </row>
     <row r="459" spans="1:15" x14ac:dyDescent="0.25">
@@ -25820,8 +25820,8 @@
         <v>17.761805121232413</v>
       </c>
       <c r="O459" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>22.078101964911479</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>11.287359855713817</v>
       </c>
     </row>
     <row r="460" spans="1:15" x14ac:dyDescent="0.25">
@@ -25874,8 +25874,8 @@
         <v>14.204862129515993</v>
       </c>
       <c r="O460" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>18.505629583415654</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>7.7537109486664981</v>
       </c>
     </row>
     <row r="461" spans="1:15" x14ac:dyDescent="0.25">
@@ -25928,8 +25928,8 @@
         <v>14.61150631051361</v>
       </c>
       <c r="O461" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>11.481751272377259</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>19.306138867718136</v>
       </c>
     </row>
     <row r="462" spans="1:15" x14ac:dyDescent="0.25">
@@ -25982,8 +25982,8 @@
         <v>16.461815241200679</v>
       </c>
       <c r="O462" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>7.0762787406938585</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>30.5401199919609</v>
       </c>
     </row>
     <row r="463" spans="1:15" x14ac:dyDescent="0.25">
@@ -26036,8 +26036,8 @@
         <v>23.847593288058864</v>
       </c>
       <c r="O463" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>3.1191547778951332</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>54.940251053304472</v>
       </c>
     </row>
     <row r="464" spans="1:15" x14ac:dyDescent="0.25">
@@ -26090,8 +26090,8 @@
         <v>35.341359901596839</v>
       </c>
       <c r="O464" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>4.7087123643990907</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>81.290331207393464</v>
       </c>
     </row>
     <row r="465" spans="1:15" x14ac:dyDescent="0.25">
@@ -26144,8 +26144,8 @@
         <v>47.325229354825147</v>
       </c>
       <c r="O465" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>27.763304362197459</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>76.668116843766668</v>
       </c>
     </row>
     <row r="466" spans="1:15" x14ac:dyDescent="0.25">
@@ -26198,8 +26198,8 @@
         <v>56.395037963854186</v>
       </c>
       <c r="O466" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>46.342637151106857</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>71.473639182975191</v>
       </c>
     </row>
     <row r="467" spans="1:15" x14ac:dyDescent="0.25">
@@ -26252,8 +26252,8 @@
         <v>61.246366640481789</v>
       </c>
       <c r="O467" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>53.315760521288354</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>73.142275819271916</v>
       </c>
     </row>
     <row r="468" spans="1:15" x14ac:dyDescent="0.25">
@@ -26306,8 +26306,8 @@
         <v>68.733673845038425</v>
       </c>
       <c r="O468" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>47.06479460549744</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>101.23699270434992</v>
       </c>
     </row>
     <row r="469" spans="1:15" x14ac:dyDescent="0.25">
@@ -26360,8 +26360,8 @@
         <v>78.457292738133219</v>
       </c>
       <c r="O469" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>54.187688115375153</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>114.86169967227033</v>
       </c>
     </row>
     <row r="470" spans="1:15" x14ac:dyDescent="0.25">
@@ -26414,8 +26414,8 @@
         <v>87.841591968423657</v>
       </c>
       <c r="O470" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>76.795641123371411</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>104.41051823600205</v>
       </c>
     </row>
     <row r="471" spans="1:15" x14ac:dyDescent="0.25">
@@ -26468,8 +26468,8 @@
         <v>87.985554146820675</v>
       </c>
       <c r="O471" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>103.95666244046203</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>64.02889170635865</v>
       </c>
     </row>
     <row r="472" spans="1:15" x14ac:dyDescent="0.25">
@@ -26522,8 +26522,8 @@
         <v>80.06370205331153</v>
       </c>
       <c r="O472" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>106.53802862196497</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>40.352212200331365</v>
       </c>
     </row>
     <row r="473" spans="1:15" x14ac:dyDescent="0.25">
@@ -26576,8 +26576,8 @@
         <v>67.284838795630151</v>
       </c>
       <c r="O473" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>91.798561151079127</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>30.514255262456686</v>
       </c>
     </row>
     <row r="474" spans="1:15" x14ac:dyDescent="0.25">
@@ -26630,8 +26630,8 @@
         <v>59.195310418331985</v>
       </c>
       <c r="O474" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>66.123101518784949</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>48.803623767652539</v>
       </c>
     </row>
     <row r="475" spans="1:15" x14ac:dyDescent="0.25">
@@ -26684,8 +26684,8 @@
         <v>55.661904602403375</v>
       </c>
       <c r="O475" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>54.533071164812213</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>57.355154758790107</v>
       </c>
     </row>
     <row r="476" spans="1:15" x14ac:dyDescent="0.25">
@@ -26738,8 +26738,8 @@
         <v>52.31439336085856</v>
       </c>
       <c r="O476" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>66.972292296033245</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>30.327544958096524</v>
       </c>
     </row>
     <row r="477" spans="1:15" x14ac:dyDescent="0.25">
@@ -26792,8 +26792,8 @@
         <v>42.483274904121622</v>
       </c>
       <c r="O477" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>74.973705716575466</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>-6.2523713145591557</v>
       </c>
     </row>
     <row r="478" spans="1:15" x14ac:dyDescent="0.25">
@@ -26846,8 +26846,8 @@
         <v>27.122331076119888</v>
       </c>
       <c r="O478" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>61.080013553972137</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>-23.81419264065849</v>
       </c>
     </row>
     <row r="479" spans="1:15" x14ac:dyDescent="0.25">
@@ -26900,8 +26900,8 @@
         <v>13.98587530307225</v>
       </c>
       <c r="O479" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>30.805472760960164</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>-11.243520883759619</v>
       </c>
     </row>
     <row r="480" spans="1:15" x14ac:dyDescent="0.25">
@@ -26954,8 +26954,8 @@
         <v>9.2101538894308081</v>
       </c>
       <c r="O480" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>3.808671154351682</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>17.312377992049502</v>
       </c>
     </row>
     <row r="481" spans="1:15" x14ac:dyDescent="0.25">
@@ -27008,8 +27008,8 @@
         <v>11.914692348241871</v>
       </c>
       <c r="O481" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>-0.770133382528293</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>30.941930944397114</v>
       </c>
     </row>
     <row r="482" spans="1:15" x14ac:dyDescent="0.25">
@@ -27062,8 +27062,8 @@
         <v>23.074382740465765</v>
       </c>
       <c r="O482" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>-8.8871472802026403</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>71.01667777146838</v>
       </c>
     </row>
     <row r="483" spans="1:15" x14ac:dyDescent="0.25">
@@ -27116,8 +27116,8 @@
         <v>36.911077570690757</v>
       </c>
       <c r="O483" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>3.8912732167815562</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>86.440784101554542</v>
       </c>
     </row>
     <row r="484" spans="1:15" x14ac:dyDescent="0.25">
@@ -27170,8 +27170,8 @@
         <v>55.088196310804278</v>
       </c>
       <c r="O484" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>19.687666064477781</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>108.18899168029401</v>
       </c>
     </row>
     <row r="485" spans="1:15" x14ac:dyDescent="0.25">
@@ -27224,8 +27224,8 @@
         <v>69.695065390111964</v>
       </c>
       <c r="O485" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>43.333686192889814</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>109.23713418594522</v>
       </c>
     </row>
     <row r="486" spans="1:15" x14ac:dyDescent="0.25">
@@ -27278,8 +27278,8 @@
         <v>76.620464492712259</v>
       </c>
       <c r="O486" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>81.467039367244325</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>69.350602180914194</v>
       </c>
     </row>
     <row r="487" spans="1:15" x14ac:dyDescent="0.25">
@@ -27332,8 +27332,8 @@
         <v>71.950665055173332</v>
       </c>
       <c r="O487" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>98.293868922818532</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>32.435859253705559</v>
       </c>
     </row>
     <row r="488" spans="1:15" x14ac:dyDescent="0.25">
@@ -27386,8 +27386,8 @@
         <v>54.208007278002732</v>
       </c>
       <c r="O488" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>103.32845851958575</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>-19.472669584371772</v>
       </c>
     </row>
     <row r="489" spans="1:15" x14ac:dyDescent="0.25">
@@ -27440,8 +27440,8 @@
         <v>37.533823658691034</v>
       </c>
       <c r="O489" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>64.25221858105084</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>-2.5437687248486895</v>
       </c>
     </row>
     <row r="490" spans="1:15" x14ac:dyDescent="0.25">
@@ -27494,8 +27494,8 @@
         <v>24.233189283713717</v>
       </c>
       <c r="O490" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>34.94524785830356</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>8.1651014218289575</v>
       </c>
     </row>
     <row r="491" spans="1:15" x14ac:dyDescent="0.25">
@@ -27548,8 +27548,8 @@
         <v>23.432948339153143</v>
       </c>
       <c r="O491" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>15.804727370400428</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>34.875279792282214</v>
       </c>
     </row>
     <row r="492" spans="1:15" x14ac:dyDescent="0.25">
@@ -27602,8 +27602,8 @@
         <v>25.121144835407623</v>
       </c>
       <c r="O492" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>16.885003133673727</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>37.475357388008469</v>
       </c>
     </row>
     <row r="493" spans="1:15" x14ac:dyDescent="0.25">
@@ -27656,8 +27656,8 @@
         <v>26.708496732026202</v>
       </c>
       <c r="O493" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>32.847058823529544</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>17.500653594771187</v>
       </c>
     </row>
     <row r="494" spans="1:15" x14ac:dyDescent="0.25">
@@ -27710,8 +27710,8 @@
         <v>22.776839512820164</v>
       </c>
       <c r="O494" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>37.426344206637722</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>0.80258247209383171</v>
       </c>
     </row>
     <row r="495" spans="1:15" x14ac:dyDescent="0.25">
@@ -27764,8 +27764,8 @@
         <v>15.474439428566873</v>
       </c>
       <c r="O495" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>31.759287418671228</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>-8.9528325565896587</v>
       </c>
     </row>
     <row r="496" spans="1:15" x14ac:dyDescent="0.25">
@@ -27818,8 +27818,8 @@
         <v>9.7745941683781297</v>
       </c>
       <c r="O496" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>16.244422693717773</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>6.9851380368660898E-2</v>
       </c>
     </row>
     <row r="497" spans="1:15" x14ac:dyDescent="0.25">
@@ -27872,8 +27872,8 @@
         <v>6.8288920328159612</v>
       </c>
       <c r="O497" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>7.2567145799981194</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>6.1871582120427249</v>
       </c>
     </row>
     <row r="498" spans="1:15" x14ac:dyDescent="0.25">
@@ -27926,8 +27926,8 @@
         <v>6.0580400351900714</v>
       </c>
       <c r="O498" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>8.1352012242961624</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>2.9422982515309357</v>
       </c>
     </row>
     <row r="499" spans="1:15" x14ac:dyDescent="0.25">
@@ -27980,8 +27980,8 @@
         <v>4.8874547335211327</v>
       </c>
       <c r="O499" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>8.6065161991604207</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>-0.69113746493779793</v>
       </c>
     </row>
     <row r="500" spans="1:15" x14ac:dyDescent="0.25">
@@ -28034,8 +28034,8 @@
         <v>6.7548907092234183</v>
       </c>
       <c r="O500" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>-4.1699052449932275</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>23.14208464054839</v>
       </c>
     </row>
     <row r="501" spans="1:15" x14ac:dyDescent="0.25">
@@ -28088,8 +28088,8 @@
         <v>13.377506007604916</v>
       </c>
       <c r="O501" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>-9.6420926487482888</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>47.90690399213473</v>
       </c>
     </row>
     <row r="502" spans="1:15" x14ac:dyDescent="0.25">
@@ -28142,8 +28142,8 @@
         <v>25.261420045361444</v>
       </c>
       <c r="O502" s="13">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>-1.5750720918578196</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>65.516158251190319</v>
       </c>
     </row>
     <row r="503" spans="1:15" x14ac:dyDescent="0.25">
@@ -28196,8 +28196,8 @@
         <v>35.567440385141069</v>
       </c>
       <c r="O503" s="14">
-        <f>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</f>
-        <v>20.43162174408198</v>
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>58.271168346729695</v>
       </c>
     </row>
   </sheetData>
@@ -28206,6 +28206,7 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="J15:K503" formulaRange="1"/>
+    <ignoredError sqref="O20:O503" calculatedColumn="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>

--- a/indicators/Stoch/Stoch.Calc.xlsx
+++ b/indicators/Stoch/Stoch.Calc.xlsx
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daves\Repos\Stock.Indicators\indicators\Stoch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5453D62-80F2-4579-82D7-D2639FCCE753}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394DF099-4CAF-4DCF-A509-548F6A5423B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1291,8 +1291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O503"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28206,7 +28206,7 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="J15:K503" formulaRange="1"/>
-    <ignoredError sqref="O20:O503" calculatedColumn="1"/>
+    <ignoredError sqref="O19:O503" calculatedColumn="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>

--- a/indicators/Stoch/Stoch.Calc.xlsx
+++ b/indicators/Stoch/Stoch.Calc.xlsx
@@ -9,12 +9,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daves\Repos\Stock.Indicators\indicators\Stoch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356102D2-24BB-4A17-A9F0-0216860774BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394DF099-4CAF-4DCF-A509-548F6A5423B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Stochastic" sheetId="1" r:id="rId1"/>
+    <sheet name="STO(14,3,3)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="16">
   <si>
     <t>symbol</t>
   </si>
@@ -67,13 +67,16 @@
     <t>HH</t>
   </si>
   <si>
-    <t>D(3)</t>
-  </si>
-  <si>
     <t>K(14)'</t>
   </si>
   <si>
-    <t>K(41,3)</t>
+    <t>%K</t>
+  </si>
+  <si>
+    <t>%J</t>
+  </si>
+  <si>
+    <t>%D</t>
   </si>
 </sst>
 </file>
@@ -572,7 +575,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -608,6 +611,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="32" borderId="0" xfId="43" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="21" builtinId="30" customBuiltin="1"/>
@@ -655,7 +664,27 @@
     <cellStyle name="Total" xfId="19" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="16" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -932,29 +961,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8FE8A93B-7DCD-4B08-81FC-F6E776229EB3}" name="testdata" displayName="testdata" ref="A1:N503" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" headerRowCellStyle="Currency" dataCellStyle="Currency">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8FE8A93B-7DCD-4B08-81FC-F6E776229EB3}" name="testdata" displayName="testdata" ref="A1:O503" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" headerRowCellStyle="Currency" dataCellStyle="Currency">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:I503">
     <sortCondition ref="D2"/>
   </sortState>
-  <tableColumns count="14">
-    <tableColumn id="9" xr3:uid="{9F699A46-4958-42A4-A5C9-B52EB0EE585B}" name="Index" dataDxfId="13" dataCellStyle="Currency"/>
-    <tableColumn id="1" xr3:uid="{DD54CCF5-B894-464C-82C5-1C75A48942B7}" name="symbol" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{4C01765B-A5DE-46C8-AA90-F736AC067C2C}" name="code" dataDxfId="11">
+  <tableColumns count="15">
+    <tableColumn id="9" xr3:uid="{9F699A46-4958-42A4-A5C9-B52EB0EE585B}" name="Index" dataDxfId="14" dataCellStyle="Currency"/>
+    <tableColumn id="1" xr3:uid="{DD54CCF5-B894-464C-82C5-1C75A48942B7}" name="symbol" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{4C01765B-A5DE-46C8-AA90-F736AC067C2C}" name="code" dataDxfId="12">
       <calculatedColumnFormula>"new Quote { Date = DateTime.Parse("""&amp;TEXT(D2,"yyyy-mm-dd")&amp;"""), Open=(decimal)"&amp;E2&amp;", High=(decimal)"&amp;F2&amp;", Low=(decimal)"&amp;G2&amp;", Close=(decimal)"&amp;H2&amp;", Volume = (long)"&amp;I2&amp;" },"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{870234D4-B88D-4DBC-B1B5-A3A328FCAA43}" name="date" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{EF611352-AF5A-4141-B3FC-D86820A763EA}" name="open" dataDxfId="9" dataCellStyle="Currency"/>
-    <tableColumn id="4" xr3:uid="{74B28648-F2A3-4493-9B04-FE02A7EBAE5E}" name="high" dataDxfId="8" dataCellStyle="Currency"/>
-    <tableColumn id="5" xr3:uid="{F6126363-2529-4BAC-9F69-0710D7A587F6}" name="low" dataDxfId="7" dataCellStyle="Currency"/>
-    <tableColumn id="6" xr3:uid="{1625C5E8-2802-4281-81F5-7308EFB9EB0C}" name="close" dataDxfId="6" dataCellStyle="Currency"/>
-    <tableColumn id="7" xr3:uid="{9D524E41-7E60-45BD-80C8-513C8040D514}" name="volume" dataDxfId="5" dataCellStyle="Comma"/>
-    <tableColumn id="10" xr3:uid="{EE5B6FC9-0D0D-49FB-B1C5-3FC049385B0C}" name="LL" dataDxfId="4" dataCellStyle="Currency"/>
-    <tableColumn id="11" xr3:uid="{AA42D822-4CC7-481A-AA67-4DF2FB28D9C3}" name="HH" dataDxfId="3" dataCellStyle="Currency"/>
-    <tableColumn id="12" xr3:uid="{98BD24DF-5DED-41FA-BD5A-6351BD922579}" name="K(14)'" dataDxfId="2" dataCellStyle="Comma">
+    <tableColumn id="2" xr3:uid="{870234D4-B88D-4DBC-B1B5-A3A328FCAA43}" name="date" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{EF611352-AF5A-4141-B3FC-D86820A763EA}" name="open" dataDxfId="10" dataCellStyle="Currency"/>
+    <tableColumn id="4" xr3:uid="{74B28648-F2A3-4493-9B04-FE02A7EBAE5E}" name="high" dataDxfId="9" dataCellStyle="Currency"/>
+    <tableColumn id="5" xr3:uid="{F6126363-2529-4BAC-9F69-0710D7A587F6}" name="low" dataDxfId="8" dataCellStyle="Currency"/>
+    <tableColumn id="6" xr3:uid="{1625C5E8-2802-4281-81F5-7308EFB9EB0C}" name="close" dataDxfId="7" dataCellStyle="Currency"/>
+    <tableColumn id="7" xr3:uid="{9D524E41-7E60-45BD-80C8-513C8040D514}" name="volume" dataDxfId="6" dataCellStyle="Comma"/>
+    <tableColumn id="10" xr3:uid="{EE5B6FC9-0D0D-49FB-B1C5-3FC049385B0C}" name="LL" dataDxfId="5" dataCellStyle="Currency"/>
+    <tableColumn id="11" xr3:uid="{AA42D822-4CC7-481A-AA67-4DF2FB28D9C3}" name="HH" dataDxfId="4" dataCellStyle="Currency"/>
+    <tableColumn id="12" xr3:uid="{98BD24DF-5DED-41FA-BD5A-6351BD922579}" name="K(14)'" dataDxfId="3" dataCellStyle="Comma">
       <calculatedColumnFormula>100*(testdata[[#This Row],[close]]-testdata[[#This Row],[LL]])/(testdata[[#This Row],[HH]]-testdata[[#This Row],[LL]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{945D1B5D-57D2-46ED-98D3-4AB6B1A22407}" name="K(41,3)" dataDxfId="1" dataCellStyle="Comma"/>
-    <tableColumn id="13" xr3:uid="{8E127DAC-21A4-4123-9AFD-590301E478E5}" name="D(3)" dataDxfId="0" dataCellStyle="Comma"/>
+    <tableColumn id="15" xr3:uid="{945D1B5D-57D2-46ED-98D3-4AB6B1A22407}" name="%K" dataDxfId="2" dataCellStyle="Comma"/>
+    <tableColumn id="13" xr3:uid="{8E127DAC-21A4-4123-9AFD-590301E478E5}" name="%D" dataDxfId="1" dataCellStyle="Comma"/>
+    <tableColumn id="14" xr3:uid="{07BC2D38-64AA-4ED8-BE75-2F4705053834}" name="%J" dataDxfId="0" dataCellStyle="Currency">
+      <calculatedColumnFormula>3*testdata[[#This Row],[%D]]-2*testdata[[#This Row],[%K]]</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1257,10 +1289,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N503"/>
+  <dimension ref="A1:O503"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1274,9 +1306,10 @@
     <col min="12" max="12" width="11" style="12" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" style="12" customWidth="1"/>
     <col min="14" max="14" width="11" style="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>9</v>
       </c>
@@ -1311,16 +1344,19 @@
         <v>11</v>
       </c>
       <c r="L1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1354,8 +1390,9 @@
       <c r="L2" s="11"/>
       <c r="M2" s="11"/>
       <c r="N2" s="11"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2" s="13"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -1389,8 +1426,9 @@
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3" s="13"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -1424,8 +1462,9 @@
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4" s="13"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -1459,8 +1498,9 @@
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5" s="13"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -1494,8 +1534,9 @@
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6" s="13"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -1529,8 +1570,9 @@
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7" s="13"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -1564,8 +1606,9 @@
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8" s="13"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -1599,8 +1642,9 @@
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9" s="13"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -1634,8 +1678,9 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10" s="13"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -1669,8 +1714,9 @@
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O11" s="13"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -1704,8 +1750,9 @@
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O12" s="13"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -1739,8 +1786,9 @@
       <c r="L13" s="11"/>
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O13" s="13"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -1774,8 +1822,9 @@
       <c r="L14" s="11"/>
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O14" s="13"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -1818,8 +1867,9 @@
       </c>
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O15" s="13"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -1862,8 +1912,9 @@
       </c>
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O16" s="13"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -1904,13 +1955,14 @@
         <f>100*(testdata[[#This Row],[close]]-testdata[[#This Row],[LL]])/(testdata[[#This Row],[HH]]-testdata[[#This Row],[LL]])</f>
         <v>100</v>
       </c>
-      <c r="M17" s="11">
+      <c r="M17" s="14">
         <f>AVERAGE(L15:L17)</f>
         <v>81.125299899388693</v>
       </c>
-      <c r="N17" s="11"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -1956,8 +2008,9 @@
         <v>92.242648446642264</v>
       </c>
       <c r="N18" s="11"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O18" s="13"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -1998,16 +2051,20 @@
         <f>100*(testdata[[#This Row],[close]]-testdata[[#This Row],[LL]])/(testdata[[#This Row],[HH]]-testdata[[#This Row],[LL]])</f>
         <v>84.409799554565353</v>
       </c>
-      <c r="M19" s="11">
+      <c r="M19" s="14">
         <f t="shared" si="3"/>
         <v>92.130660727542477</v>
       </c>
-      <c r="N19" s="11">
+      <c r="N19" s="14">
         <f>AVERAGE(M17:M19)</f>
         <v>88.499536357857821</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O19" s="14">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>99.392909466911789</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -2056,8 +2113,12 @@
         <f t="shared" si="3"/>
         <v>87.119734584911257</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O20" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>56.718214571824632</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>20</v>
       </c>
@@ -2106,8 +2167,12 @@
         <f t="shared" si="3"/>
         <v>77.827270477604301</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O21" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>37.441227418955549</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>21</v>
       </c>
@@ -2156,8 +2221,12 @@
         <f t="shared" si="3"/>
         <v>65.429349170997071</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O22" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>33.951992081168243</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>22</v>
       </c>
@@ -2206,8 +2275,12 @@
         <f t="shared" si="3"/>
         <v>58.275114444485666</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O23" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>50.019342314073185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>23</v>
       </c>
@@ -2256,8 +2329,12 @@
         <f t="shared" si="3"/>
         <v>59.497371512403468</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O24" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>85.101338960617355</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>24</v>
       </c>
@@ -2306,8 +2383,12 @@
         <f t="shared" si="3"/>
         <v>66.775101746477858</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O25" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>96.760059036876129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>25</v>
       </c>
@@ -2356,8 +2437,12 @@
         <f t="shared" si="3"/>
         <v>76.774398926516014</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O26" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>103.0144479703558</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>26</v>
       </c>
@@ -2406,8 +2491,12 @@
         <f t="shared" si="3"/>
         <v>82.365420312914026</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O27" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>89.684433837178489</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>27</v>
       </c>
@@ -2456,8 +2545,12 @@
         <f t="shared" si="3"/>
         <v>86.322019575946626</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O28" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>93.275616745232014</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>28</v>
       </c>
@@ -2506,8 +2599,12 @@
         <f t="shared" si="3"/>
         <v>88.763258701900767</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O29" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>101.00788055317358</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>29</v>
       </c>
@@ -2556,8 +2653,12 @@
         <f t="shared" si="3"/>
         <v>92.121560081432605</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O30" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>100.39686671592793</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>30</v>
       </c>
@@ -2606,8 +2707,12 @@
         <f t="shared" si="3"/>
         <v>94.86975796186961</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O31" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>100.91392089731906</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>31</v>
       </c>
@@ -2656,8 +2761,12 @@
         <f t="shared" si="3"/>
         <v>96.470393825026733</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O32" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>99.999333075335727</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>32</v>
       </c>
@@ -2706,8 +2815,12 @@
         <f t="shared" si="3"/>
         <v>97.334801724573126</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O33" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>97.750054525564366</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>33</v>
       </c>
@@ -2756,8 +2869,12 @@
         <f t="shared" si="3"/>
         <v>97.467030965558195</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O34" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>96.909438058807552</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>34</v>
       </c>
@@ -2806,8 +2923,12 @@
         <f t="shared" si="3"/>
         <v>97.399024974626585</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O35" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>97.530016857751463</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>35</v>
       </c>
@@ -2856,8 +2977,12 @@
         <f t="shared" si="3"/>
         <v>97.470626271281574</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O36" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>98.122817102042546</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>36</v>
       </c>
@@ -2906,8 +3031,12 @@
         <f t="shared" si="3"/>
         <v>97.09705937545435</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O37" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>94.287279176570024</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>37</v>
       </c>
@@ -2956,8 +3085,12 @@
         <f t="shared" si="3"/>
         <v>96.69041540575688</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O38" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>95.287440268213686</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>38</v>
       </c>
@@ -3006,8 +3139,12 @@
         <f t="shared" si="3"/>
         <v>96.41807891977426</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O39" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>97.77688343121369</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>39</v>
       </c>
@@ -3056,8 +3193,12 @@
         <f t="shared" si="3"/>
         <v>96.211370239083536</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O40" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>94.198279323095079</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>40</v>
       </c>
@@ -3106,8 +3247,12 @@
         <f t="shared" si="3"/>
         <v>95.633849923035413</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O41" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>92.202888389223546</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>41</v>
       </c>
@@ -3156,8 +3301,12 @@
         <f t="shared" si="3"/>
         <v>92.747513488207218</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O42" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>79.140986380893963</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>42</v>
       </c>
@@ -3206,8 +3355,12 @@
         <f t="shared" si="3"/>
         <v>88.790822045558912</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O43" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>73.42915272630961</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>43</v>
       </c>
@@ -3256,8 +3409,12 @@
         <f t="shared" si="3"/>
         <v>82.194554689574588</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O44" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>59.715072652286125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>44</v>
       </c>
@@ -3306,8 +3463,12 @@
         <f t="shared" si="3"/>
         <v>74.714411406533955</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O45" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>47.885900996874994</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>45</v>
       </c>
@@ -3356,8 +3517,12 @@
         <f t="shared" si="3"/>
         <v>64.8390545381301</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O46" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>32.454475925532535</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>46</v>
       </c>
@@ -3406,8 +3571,12 @@
         <f t="shared" si="3"/>
         <v>55.491498928599761</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O47" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>28.993183688462679</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>47</v>
       </c>
@@ -3456,8 +3625,12 @@
         <f t="shared" si="3"/>
         <v>48.48672893415943</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O48" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>37.298335991661077</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>48</v>
       </c>
@@ -3506,8 +3679,12 @@
         <f t="shared" si="3"/>
         <v>46.159259699234362</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O49" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>48.866842488998358</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <v>49</v>
       </c>
@@ -3556,8 +3733,12 @@
         <f t="shared" si="3"/>
         <v>44.549235207839708</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O50" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>36.387490707430928</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <v>50</v>
       </c>
@@ -3606,8 +3787,12 @@
         <f t="shared" si="3"/>
         <v>46.428803108686687</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O51" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>58.330298750229375</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
         <v>51</v>
       </c>
@@ -3656,8 +3841,12 @@
         <f t="shared" si="3"/>
         <v>48.778153303291383</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O52" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>64.773207032326596</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
         <v>52</v>
       </c>
@@ -3706,8 +3895,12 @@
         <f t="shared" si="3"/>
         <v>55.144866188482808</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O53" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>72.496644712867521</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
         <v>53</v>
       </c>
@@ -3756,8 +3949,12 @@
         <f t="shared" si="3"/>
         <v>55.630160698255366</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O54" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>44.295234159045037</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
         <v>54</v>
       </c>
@@ -3806,8 +4003,12 @@
         <f t="shared" si="3"/>
         <v>48.546945322388495</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O55" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>1.4866846113305314</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
         <v>55</v>
       </c>
@@ -3856,8 +4057,12 @@
         <f t="shared" si="3"/>
         <v>36.117084187368746</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O56" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>-1.3165415000820531</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
         <v>56</v>
       </c>
@@ -3906,8 +4111,12 @@
         <f t="shared" si="3"/>
         <v>23.7572786902427</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O57" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>-3.197251299064078</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
         <v>57</v>
       </c>
@@ -3956,8 +4165,12 @@
         <f t="shared" si="3"/>
         <v>19.22737598336629</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O58" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>19.356698927487294</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
         <v>58</v>
       </c>
@@ -4006,8 +4219,12 @@
         <f t="shared" si="3"/>
         <v>18.490201932992274</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O59" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>27.302656555304701</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="8">
         <v>59</v>
       </c>
@@ -4056,8 +4273,12 @@
         <f t="shared" si="3"/>
         <v>24.747652246199166</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O60" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>51.139054407885041</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
         <v>60</v>
       </c>
@@ -4106,8 +4327,12 @@
         <f t="shared" si="3"/>
         <v>34.110907184798528</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O61" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>73.858930972017092</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
         <v>61</v>
       </c>
@@ -4156,8 +4381,12 @@
         <f t="shared" si="3"/>
         <v>47.137427041370209</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O62" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>87.246885047693937</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
         <v>62</v>
       </c>
@@ -4206,8 +4435,12 @@
         <f t="shared" si="3"/>
         <v>56.815044858522953</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O63" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>74.102829537612166</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="8">
         <v>63</v>
       </c>
@@ -4256,8 +4489,12 @@
         <f t="shared" si="3"/>
         <v>61.542443064182095</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O64" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>61.542443064182237</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="8">
         <v>64</v>
       </c>
@@ -4306,8 +4543,12 @@
         <f t="shared" si="3"/>
         <v>60.78296596610582</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O65" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>53.120513315536243</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="8">
         <v>65</v>
       </c>
@@ -4356,8 +4597,12 @@
         <f t="shared" si="3"/>
         <v>58.116415081223977</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O66" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>47.501131128273471</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="8">
         <v>66</v>
       </c>
@@ -4406,8 +4651,12 @@
         <f t="shared" si="3"/>
         <v>56.792981866731104</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O67" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>59.130466528648398</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="8">
         <v>67</v>
       </c>
@@ -4456,8 +4705,12 @@
         <f t="shared" si="3"/>
         <v>56.657506742962056</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O68" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>60.152155647902362</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="8">
         <v>68</v>
       </c>
@@ -4506,8 +4759,12 @@
         <f t="shared" si="3"/>
         <v>59.370247490598246</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O69" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>69.408133038250696</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="8">
         <v>69</v>
       </c>
@@ -4556,8 +4813,12 @@
         <f t="shared" si="3"/>
         <v>60.626647161308149</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O70" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>62.770732975883462</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="8">
         <v>70</v>
       </c>
@@ -4606,8 +4867,12 @@
         <f t="shared" si="3"/>
         <v>59.803449942058954</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O71" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>46.451494276465738</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="8">
         <v>71</v>
       </c>
@@ -4656,8 +4921,12 @@
         <f t="shared" si="3"/>
         <v>51.894802708754561</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O72" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>13.181197502198543</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="8">
         <v>72</v>
       </c>
@@ -4706,8 +4975,12 @@
         <f t="shared" si="3"/>
         <v>42.517897838245865</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O73" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>14.596087787429767</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="8">
         <v>73</v>
       </c>
@@ -4756,8 +5029,12 @@
         <f t="shared" si="3"/>
         <v>33.589779970886966</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O74" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>18.525773412579611</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="8">
         <v>74</v>
       </c>
@@ -4806,8 +5083,12 @@
         <f t="shared" si="3"/>
         <v>30.504231194351174</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O75" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>28.19240154218317</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="8">
         <v>75</v>
       </c>
@@ -4856,8 +5137,12 @@
         <f t="shared" si="3"/>
         <v>31.097088875225722</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O76" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>42.773424841340983</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="8">
         <v>76</v>
       </c>
@@ -4906,8 +5191,12 @@
         <f t="shared" si="3"/>
         <v>34.893208543316483</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O77" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>50.083993280537399</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="8">
         <v>77</v>
       </c>
@@ -4956,8 +5245,12 @@
         <f t="shared" si="3"/>
         <v>46.750634142816843</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O78" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>102.41642604075513</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="8">
         <v>78</v>
       </c>
@@ -5006,8 +5299,12 @@
         <f t="shared" si="3"/>
         <v>60.820792707313423</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O79" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>109.95744425763483</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="8">
         <v>79</v>
       </c>
@@ -5056,8 +5353,12 @@
         <f t="shared" si="3"/>
         <v>77.809456530128116</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O80" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>117.14947171224637</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="8">
         <v>80</v>
       </c>
@@ -5106,8 +5407,12 @@
         <f t="shared" si="3"/>
         <v>85.429869173688203</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O81" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>93.641669771053188</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="8">
         <v>81</v>
       </c>
@@ -5156,8 +5461,12 @@
         <f t="shared" si="7"/>
         <v>87.491104782342475</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O82" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>75.16794058546526</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="8">
         <v>82</v>
       </c>
@@ -5206,8 +5515,12 @@
         <f t="shared" si="7"/>
         <v>85.428418052531541</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O83" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>83.347368099140937</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="8">
         <v>83</v>
       </c>
@@ -5256,8 +5569,12 @@
         <f t="shared" si="7"/>
         <v>84.551217884551178</v>
       </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O84" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>87.504170837504006</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="8">
         <v>84</v>
       </c>
@@ -5306,8 +5623,12 @@
         <f t="shared" si="7"/>
         <v>85.90256923590249</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O85" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>90.507173840506994</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="8">
         <v>85</v>
       </c>
@@ -5356,8 +5677,12 @@
         <f t="shared" si="7"/>
         <v>86.85270056109988</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O86" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>89.049985008780709</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="8">
         <v>86</v>
       </c>
@@ -5406,8 +5731,12 @@
         <f t="shared" si="7"/>
         <v>88.701826118624808</v>
       </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O87" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>95.845084387081158</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="8">
         <v>87</v>
       </c>
@@ -5456,8 +5785,12 @@
         <f t="shared" si="7"/>
         <v>91.151317299989557</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O88" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>102.0550983446156</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="8">
         <v>88</v>
       </c>
@@ -5506,8 +5839,12 @@
         <f t="shared" si="7"/>
         <v>93.539501014212931</v>
       </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O89" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>97.170037530565082</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="8">
         <v>89</v>
       </c>
@@ -5556,8 +5893,12 @@
         <f t="shared" si="7"/>
         <v>94.217320119521048</v>
       </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O90" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>90.914468333061791</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="8">
         <v>90</v>
       </c>
@@ -5606,8 +5947,12 @@
         <f t="shared" si="7"/>
         <v>92.475961065818751</v>
       </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O91" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>83.733579329636541</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="8">
         <v>91</v>
       </c>
@@ -5656,8 +6001,12 @@
         <f t="shared" si="7"/>
         <v>86.629881057141873</v>
       </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O92" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>58.374557366615221</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="8">
         <v>92</v>
       </c>
@@ -5706,8 +6055,12 @@
         <f t="shared" si="7"/>
         <v>81.309657371422631</v>
       </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O93" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>68.847780657785307</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="8">
         <v>93</v>
       </c>
@@ -5756,8 +6109,12 @@
         <f t="shared" si="7"/>
         <v>76.562128923868343</v>
       </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O94" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>72.833487585548909</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="8">
         <v>94</v>
       </c>
@@ -5806,8 +6163,12 @@
         <f t="shared" si="7"/>
         <v>70.377661497177002</v>
       </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O95" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>35.218789646322904</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="8">
         <v>95</v>
       </c>
@@ -5856,8 +6217,12 @@
         <f t="shared" si="7"/>
         <v>56.538211779863616</v>
       </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O96" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>-6.1643756149172191</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="8">
         <v>96</v>
       </c>
@@ -5906,8 +6271,12 @@
         <f t="shared" si="7"/>
         <v>40.517401290873515</v>
       </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O97" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>0.73564845062765016</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="8">
         <v>97</v>
       </c>
@@ -5956,8 +6325,12 @@
         <f t="shared" si="7"/>
         <v>38.581534091585269</v>
       </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O98" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>81.388239663912145</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="8">
         <v>98</v>
       </c>
@@ -6006,8 +6379,12 @@
         <f t="shared" si="7"/>
         <v>51.294414076255372</v>
       </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O99" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>118.7391396543302</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="8">
         <v>99</v>
       </c>
@@ -6056,8 +6433,12 @@
         <f t="shared" si="7"/>
         <v>71.56564302981576</v>
       </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O100" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>121.08022555478675</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="8">
         <v>100</v>
       </c>
@@ -6106,8 +6487,12 @@
         <f t="shared" si="7"/>
         <v>85.21424693458367</v>
       </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O101" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>110.96024912082638</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="8">
         <v>101</v>
       </c>
@@ -6156,8 +6541,12 @@
         <f t="shared" si="7"/>
         <v>92.56802961406008</v>
       </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O102" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>102.37595269400859</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="8">
         <v>102</v>
       </c>
@@ -6206,8 +6595,12 @@
         <f t="shared" si="7"/>
         <v>94.431480251725603</v>
       </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O103" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>92.119606849956739</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="8">
         <v>103</v>
       </c>
@@ -6256,8 +6649,12 @@
         <f t="shared" si="7"/>
         <v>93.840478873545351</v>
       </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O104" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>88.388772839280705</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="8">
         <v>104</v>
       </c>
@@ -6306,8 +6703,12 @@
         <f t="shared" si="7"/>
         <v>93.155986561387621</v>
       </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O105" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>95.039607989933899</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="8">
         <v>105</v>
       </c>
@@ -6356,8 +6757,12 @@
         <f t="shared" si="7"/>
         <v>93.942459142542063</v>
       </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O106" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>100.17590229871385</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="8">
         <v>106</v>
       </c>
@@ -6406,8 +6811,12 @@
         <f t="shared" si="7"/>
         <v>95.889798422670069</v>
       </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O107" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>101.81618726218332</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="8">
         <v>107</v>
       </c>
@@ -6456,8 +6865,12 @@
         <f t="shared" si="7"/>
         <v>95.849815580945688</v>
       </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O108" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>89.292104375298265</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="8">
         <v>108</v>
       </c>
@@ -6506,8 +6919,12 @@
         <f t="shared" si="7"/>
         <v>94.421570134995633</v>
       </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O109" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>86.36347130025618</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="8">
         <v>109</v>
       </c>
@@ -6556,8 +6973,12 @@
         <f t="shared" si="7"/>
         <v>91.944608421881</v>
       </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O110" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>87.413911845729814</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="8">
         <v>110</v>
       </c>
@@ -6606,8 +7027,12 @@
         <f t="shared" si="7"/>
         <v>89.420826665289894</v>
       </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O111" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>79.436046397289942</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="8">
         <v>111</v>
       </c>
@@ -6656,8 +7081,12 @@
         <f t="shared" si="7"/>
         <v>85.085075385130551</v>
       </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O112" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>66.014699278552314</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="8">
         <v>112</v>
       </c>
@@ -6706,8 +7135,12 @@
         <f t="shared" si="7"/>
         <v>81.084661365053933</v>
       </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O113" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>73.13007977869438</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="8">
         <v>113</v>
       </c>
@@ -6756,8 +7189,12 @@
         <f t="shared" si="7"/>
         <v>79.449464779897752</v>
       </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O114" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>84.662000901668677</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="8">
         <v>114</v>
       </c>
@@ -6806,8 +7243,12 @@
         <f t="shared" si="7"/>
         <v>80.449494593086413</v>
       </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O115" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>84.286129181338623</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="8">
         <v>115</v>
       </c>
@@ -6856,8 +7297,12 @@
         <f t="shared" si="7"/>
         <v>79.533243213954975</v>
       </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O116" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>67.986653668709295</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="8">
         <v>116</v>
       </c>
@@ -6906,8 +7351,12 @@
         <f t="shared" si="7"/>
         <v>79.503004801497056</v>
       </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O117" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>84.282775146348655</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="8">
         <v>117</v>
       </c>
@@ -6956,8 +7405,12 @@
         <f t="shared" si="7"/>
         <v>77.955193207297995</v>
       </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O118" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>75.344427605123911</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="8">
         <v>118</v>
       </c>
@@ -7006,8 +7459,12 @@
         <f t="shared" si="7"/>
         <v>76.417634965457111</v>
       </c>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O119" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>60.379845989137181</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="8">
         <v>119</v>
       </c>
@@ -7056,8 +7513,12 @@
         <f t="shared" si="7"/>
         <v>67.926321484273259</v>
       </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O120" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>31.014320450141611</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="8">
         <v>120</v>
       </c>
@@ -7106,8 +7567,12 @@
         <f t="shared" si="7"/>
         <v>60.740036519512181</v>
       </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O121" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>45.09817629784574</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="8">
         <v>121</v>
       </c>
@@ -7156,8 +7621,12 @@
         <f t="shared" si="7"/>
         <v>56.530753082477254</v>
       </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O122" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>62.270058821782598</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="8">
         <v>122</v>
       </c>
@@ -7206,8 +7675,12 @@
         <f t="shared" si="7"/>
         <v>53.227232537577294</v>
       </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O123" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>30.680813439433848</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="8">
         <v>123</v>
       </c>
@@ -7256,8 +7729,12 @@
         <f t="shared" si="7"/>
         <v>50.987326849395679</v>
       </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O124" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>44.444444444444187</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="8">
         <v>124</v>
       </c>
@@ -7306,8 +7783,12 @@
         <f t="shared" si="7"/>
         <v>43.949307397583091</v>
       </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O125" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>24.090775125257736</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="8">
         <v>125</v>
       </c>
@@ -7356,8 +7837,12 @@
         <f t="shared" si="7"/>
         <v>43.891204580859572</v>
       </c>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O126" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>48.829944002357522</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="8">
         <v>126</v>
       </c>
@@ -7406,8 +7891,12 @@
         <f t="shared" si="7"/>
         <v>40.418508694370566</v>
       </c>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O127" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>34.327817776093426</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="8">
         <v>127</v>
       </c>
@@ -7456,8 +7945,12 @@
         <f t="shared" si="7"/>
         <v>44.068039240452826</v>
       </c>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O128" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>56.699086354258569</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="8">
         <v>128</v>
       </c>
@@ -7506,8 +7999,12 @@
         <f t="shared" si="7"/>
         <v>42.051282051281866</v>
       </c>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O129" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>34.358974358974237</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="8">
         <v>129</v>
       </c>
@@ -7556,8 +8053,12 @@
         <f t="shared" si="7"/>
         <v>42.173382173382009</v>
       </c>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O130" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>31.916971916971903</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="8">
         <v>130</v>
       </c>
@@ -7606,8 +8107,12 @@
         <f t="shared" si="7"/>
         <v>38.510031306239689</v>
       </c>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O131" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>34.844944418403927</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="8">
         <v>131</v>
       </c>
@@ -7656,8 +8161,12 @@
         <f t="shared" si="7"/>
         <v>42.017776851899903</v>
       </c>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O132" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>65.995694668680088</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" s="8">
         <v>132</v>
       </c>
@@ -7706,8 +8215,12 @@
         <f t="shared" si="7"/>
         <v>50.926861448188241</v>
       </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O133" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>94.591774733954438</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" s="8">
         <v>133</v>
       </c>
@@ -7756,8 +8269,12 @@
         <f t="shared" si="7"/>
         <v>65.050204159468379</v>
       </c>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O134" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>108.87468311346785</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" s="8">
         <v>134</v>
       </c>
@@ -7806,8 +8323,12 @@
         <f t="shared" si="7"/>
         <v>79.679496013704195</v>
       </c>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O135" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>122.33588303319388</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="8">
         <v>135</v>
       </c>
@@ -7856,8 +8377,12 @@
         <f t="shared" si="7"/>
         <v>89.285089367652915</v>
       </c>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O136" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>104.32565908056358</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" s="8">
         <v>136</v>
       </c>
@@ -7906,8 +8431,12 @@
         <f t="shared" si="7"/>
         <v>93.932611688620966</v>
       </c>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O137" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>92.937568943875078</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" s="8">
         <v>137</v>
       </c>
@@ -7956,8 +8485,12 @@
         <f t="shared" si="7"/>
         <v>94.573185987116062</v>
       </c>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O138" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>98.313671772826069</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="8">
         <v>138</v>
       </c>
@@ -8006,8 +8539,12 @@
         <f t="shared" si="7"/>
         <v>95.400919811414028</v>
       </c>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O139" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>99.543602611722946</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="8">
         <v>139</v>
       </c>
@@ -8056,8 +8593,12 @@
         <f t="shared" si="7"/>
         <v>96.184050520559708</v>
       </c>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O140" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>95.48286766230882</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="8">
         <v>140</v>
       </c>
@@ -8106,8 +8647,12 @@
         <f t="shared" si="7"/>
         <v>95.305774054837244</v>
       </c>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O141" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>88.944007445881567</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="8">
         <v>141</v>
       </c>
@@ -8156,8 +8701,12 @@
         <f t="shared" si="7"/>
         <v>94.023321671722371</v>
       </c>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O142" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>90.756727443072265</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="8">
         <v>142</v>
       </c>
@@ -8206,8 +8755,12 @@
         <f t="shared" si="7"/>
         <v>93.277829042199713</v>
       </c>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O143" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>94.585876953325027</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" s="8">
         <v>143</v>
       </c>
@@ -8256,8 +8809,12 @@
         <f t="shared" si="7"/>
         <v>93.137840302862756</v>
       </c>
-    </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O144" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>92.019976295797932</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" s="8">
         <v>144</v>
       </c>
@@ -8306,8 +8863,12 @@
         <f t="shared" si="7"/>
         <v>91.964467910231619</v>
       </c>
-    </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O145" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>84.314083432373451</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" s="8">
         <v>145</v>
       </c>
@@ -8356,8 +8917,12 @@
         <f t="shared" si="11"/>
         <v>88.184422333028763</v>
       </c>
-    </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O146" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>70.752280176841253</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" s="8">
         <v>146</v>
       </c>
@@ -8406,8 +8971,12 @@
         <f t="shared" si="11"/>
         <v>84.191800978136669</v>
       </c>
-    </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O147" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>73.978462751221258</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" s="8">
         <v>147</v>
       </c>
@@ -8456,8 +9025,12 @@
         <f t="shared" si="11"/>
         <v>81.305956892127682</v>
       </c>
-    </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O148" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>79.658508694500426</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" s="8">
         <v>148</v>
       </c>
@@ -8506,8 +9079,12 @@
         <f t="shared" si="11"/>
         <v>80.23445776751042</v>
       </c>
-    </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O149" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>77.008717186322514</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" s="8">
         <v>149</v>
       </c>
@@ -8556,8 +9133,12 @@
         <f t="shared" si="11"/>
         <v>79.483393592845061</v>
       </c>
-    </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O150" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>76.635699949816171</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" s="8">
         <v>150</v>
       </c>
@@ -8598,16 +9179,20 @@
         <f>100*(testdata[[#This Row],[close]]-testdata[[#This Row],[LL]])/(testdata[[#This Row],[HH]]-testdata[[#This Row],[LL]])</f>
         <v>94.117647058823749</v>
       </c>
-      <c r="M151" s="11">
+      <c r="M151" s="14">
         <f t="shared" si="11"/>
         <v>81.687014428412965</v>
       </c>
-      <c r="N151" s="11">
+      <c r="N151" s="14">
         <f t="shared" si="11"/>
         <v>79.79346257134317</v>
       </c>
-    </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O151" s="14">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>85.474118142552555</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" s="8">
         <v>151</v>
       </c>
@@ -8656,8 +9241,12 @@
         <f t="shared" si="11"/>
         <v>78.412953781233583</v>
       </c>
-    </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O152" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>68.227146047889931</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" s="8">
         <v>152</v>
       </c>
@@ -8706,8 +9295,12 @@
         <f t="shared" si="11"/>
         <v>73.513986751359653</v>
       </c>
-    </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O153" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>44.483810363921634</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" s="8">
         <v>153</v>
       </c>
@@ -8756,8 +9349,12 @@
         <f t="shared" si="11"/>
         <v>57.218559866771535</v>
       </c>
-    </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O154" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>-16.034918409597182</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" s="8">
         <v>154</v>
       </c>
@@ -8806,8 +9403,12 @@
         <f t="shared" si="11"/>
         <v>38.613418643349469</v>
       </c>
-    </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O155" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>-19.620054687140552</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" s="8">
         <v>155</v>
       </c>
@@ -8856,8 +9457,12 @@
         <f t="shared" si="11"/>
         <v>24.390783159959195</v>
       </c>
-    </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O156" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>14.72649819621008</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" s="8">
         <v>156</v>
       </c>
@@ -8906,8 +9511,12 @@
         <f t="shared" si="11"/>
         <v>26.405233908911423</v>
       </c>
-    </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O157" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>63.721790246693111</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" s="8">
         <v>157</v>
       </c>
@@ -8956,8 +9565,12 @@
         <f t="shared" si="11"/>
         <v>38.978494623655799</v>
       </c>
-    </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O158" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>92.809139784946169</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" s="8">
         <v>158</v>
       </c>
@@ -9006,8 +9619,12 @@
         <f t="shared" si="11"/>
         <v>44.847670250896009</v>
       </c>
-    </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O159" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>26.635304659498317</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" s="8">
         <v>159</v>
       </c>
@@ -9056,8 +9673,12 @@
         <f t="shared" si="11"/>
         <v>39.656322042169329</v>
       </c>
-    </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O160" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>-9.5025198983627917</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" s="8">
         <v>160</v>
       </c>
@@ -9106,8 +9727,12 @@
         <f t="shared" si="11"/>
         <v>23.195957505286529</v>
       </c>
-    </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O161" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>-23.769066810260515</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" s="8">
         <v>161</v>
       </c>
@@ -9156,8 +9781,12 @@
         <f t="shared" si="11"/>
         <v>18.462992410856881</v>
       </c>
-    </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O162" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>36.807974489709729</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" s="8">
         <v>162</v>
       </c>
@@ -9206,8 +9835,12 @@
         <f t="shared" si="11"/>
         <v>22.360632933402695</v>
       </c>
-    </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O163" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>60.167623022082843</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" s="8">
         <v>163</v>
       </c>
@@ -9256,8 +9889,12 @@
         <f t="shared" si="11"/>
         <v>33.213238277400805</v>
       </c>
-    </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O164" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>53.869819741493927</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" s="8">
         <v>164</v>
       </c>
@@ -9306,8 +9943,12 @@
         <f t="shared" si="11"/>
         <v>37.004115226337198</v>
       </c>
-    </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O165" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>33.843621399176627</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" s="8">
         <v>165</v>
       </c>
@@ -9356,8 +9997,12 @@
         <f t="shared" si="11"/>
         <v>38.349283590159217</v>
       </c>
-    </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O166" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>40.296836982967989</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" s="8">
         <v>166</v>
       </c>
@@ -9406,8 +10051,12 @@
         <f t="shared" si="11"/>
         <v>40.430987353939237</v>
       </c>
-    </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O167" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>58.169655462437262</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" s="8">
         <v>167</v>
       </c>
@@ -9456,8 +10105,12 @@
         <f t="shared" si="11"/>
         <v>47.689135201705938</v>
       </c>
-    </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O168" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>77.796912078339403</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" s="8">
         <v>168</v>
       </c>
@@ -9506,8 +10159,12 @@
         <f t="shared" si="11"/>
         <v>59.201096821534605</v>
       </c>
-    </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O169" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>102.20086509867525</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" s="8">
         <v>169</v>
       </c>
@@ -9556,8 +10213,12 @@
         <f t="shared" si="11"/>
         <v>72.693990030933605</v>
       </c>
-    </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O170" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>115.0796889930395</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" s="8">
         <v>170</v>
       </c>
@@ -9606,8 +10267,12 @@
         <f t="shared" si="11"/>
         <v>81.543274244004053</v>
       </c>
-    </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O171" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>89.732191911377271</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" s="8">
         <v>171</v>
       </c>
@@ -9656,8 +10321,12 @@
         <f t="shared" si="11"/>
         <v>83.214618971623807</v>
       </c>
-    </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O172" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>69.215923347074721</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" s="8">
         <v>172</v>
       </c>
@@ -9706,8 +10375,12 @@
         <f t="shared" si="11"/>
         <v>78.80781703362338</v>
       </c>
-    </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O173" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>63.190817545655904</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" s="8">
         <v>173</v>
       </c>
@@ -9756,8 +10429,12 @@
         <f t="shared" si="11"/>
         <v>76.129032258064385</v>
       </c>
-    </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O174" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>76.451612903225708</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" s="8">
         <v>174</v>
       </c>
@@ -9806,8 +10483,12 @@
         <f t="shared" si="11"/>
         <v>77.631225240520521</v>
       </c>
-    </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O175" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>93.902447651386609</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" s="8">
         <v>175</v>
       </c>
@@ -9856,8 +10537,12 @@
         <f t="shared" si="11"/>
         <v>83.20813077617602</v>
       </c>
-    </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O176" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>104.58233988145</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" s="8">
         <v>176</v>
       </c>
@@ -9906,8 +10591,12 @@
         <f t="shared" si="11"/>
         <v>90.851700912659865</v>
       </c>
-    </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O177" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>115.79840682238935</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" s="8">
         <v>177</v>
       </c>
@@ -9956,8 +10645,12 @@
         <f t="shared" si="11"/>
         <v>96.040212723469836</v>
       </c>
-    </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O178" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>103.78107898277767</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" s="8">
         <v>178</v>
       </c>
@@ -10006,8 +10699,12 @@
         <f t="shared" si="11"/>
         <v>98.714573188850196</v>
       </c>
-    </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O179" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>97.638699244525043</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" s="8">
         <v>179</v>
       </c>
@@ -10056,8 +10753,12 @@
         <f t="shared" si="11"/>
         <v>97.967011574669414</v>
       </c>
-    </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O180" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>94.839730970743233</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" s="8">
         <v>180</v>
       </c>
@@ -10106,8 +10807,12 @@
         <f t="shared" si="11"/>
         <v>97.506514144843891</v>
       </c>
-    </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O181" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>96.703999271599798</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" s="8">
         <v>181</v>
       </c>
@@ -10156,8 +10861,12 @@
         <f t="shared" si="11"/>
         <v>97.053728857437179</v>
       </c>
-    </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O182" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>96.885320320690624</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183" s="8">
         <v>182</v>
       </c>
@@ -10206,8 +10915,12 @@
         <f t="shared" si="11"/>
         <v>96.218822762895002</v>
       </c>
-    </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O183" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>90.82195374341245</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" s="8">
         <v>183</v>
       </c>
@@ -10256,8 +10969,12 @@
         <f t="shared" si="11"/>
         <v>94.22653167463973</v>
       </c>
-    </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O184" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>85.333344417710776</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" s="8">
         <v>184</v>
       </c>
@@ -10306,8 +11023,12 @@
         <f t="shared" si="11"/>
         <v>89.83786815371225</v>
       </c>
-    </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O185" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>71.819070039793161</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" s="8">
         <v>185</v>
       </c>
@@ -10356,8 +11077,12 @@
         <f t="shared" si="11"/>
         <v>85.2842973079389</v>
       </c>
-    </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O186" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>71.708867041364414</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187" s="8">
         <v>186</v>
       </c>
@@ -10406,8 +11131,12 @@
         <f t="shared" si="11"/>
         <v>82.155450755270763</v>
       </c>
-    </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O187" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>81.315887282435455</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" s="8">
         <v>187</v>
       </c>
@@ -10456,8 +11185,12 @@
         <f t="shared" si="11"/>
         <v>83.774599808181279</v>
       </c>
-    </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O188" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>98.517948207049699</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" s="8">
         <v>188</v>
       </c>
@@ -10506,8 +11239,12 @@
         <f t="shared" si="11"/>
         <v>88.539703432672624</v>
       </c>
-    </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O189" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>108.08398741231909</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" s="8">
         <v>189</v>
       </c>
@@ -10556,8 +11293,12 @@
         <f t="shared" si="11"/>
         <v>93.855010519988809</v>
       </c>
-    </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O190" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>105.75453153884513</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191" s="8">
         <v>190</v>
       </c>
@@ -10606,8 +11347,12 @@
         <f t="shared" si="11"/>
         <v>97.266282497345358</v>
       </c>
-    </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O191" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>102.23603062493052</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" s="8">
         <v>191</v>
       </c>
@@ -10656,8 +11401,12 @@
         <f t="shared" si="11"/>
         <v>98.257692342735382</v>
       </c>
-    </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O192" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>97.570698200703788</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193" s="8">
         <v>192</v>
       </c>
@@ -10706,8 +11455,12 @@
         <f t="shared" si="11"/>
         <v>98.291589521752016</v>
       </c>
-    </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O193" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>97.18644814646828</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194" s="8">
         <v>193</v>
       </c>
@@ -10756,8 +11509,12 @@
         <f t="shared" si="11"/>
         <v>97.469864208135661</v>
       </c>
-    </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O194" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>94.433339380802664</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" s="8">
         <v>194</v>
       </c>
@@ -10806,8 +11563,12 @@
         <f t="shared" si="11"/>
         <v>96.2691615335428</v>
       </c>
-    </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O195" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>90.741435747753343</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" s="8">
         <v>195</v>
       </c>
@@ -10856,8 +11617,12 @@
         <f t="shared" si="11"/>
         <v>94.440179552583686</v>
       </c>
-    </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O196" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>88.428430256172931</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" s="8">
         <v>196</v>
       </c>
@@ -10906,8 +11671,12 @@
         <f t="shared" si="11"/>
         <v>93.610617150344396</v>
       </c>
-    </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O197" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>94.685771876231598</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198" s="8">
         <v>197</v>
       </c>
@@ -10956,8 +11725,12 @@
         <f t="shared" si="11"/>
         <v>94.038968724157144</v>
       </c>
-    </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O198" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>99.056985530839313</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" s="8">
         <v>198</v>
       </c>
@@ -11006,8 +11779,12 @@
         <f t="shared" si="11"/>
         <v>95.273808587214262</v>
       </c>
-    </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O199" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>97.8747309544259</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" s="8">
         <v>199</v>
       </c>
@@ -11056,8 +11833,12 @@
         <f t="shared" si="11"/>
         <v>95.681335304062898</v>
       </c>
-    </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O200" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>94.212076020432363</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201" s="8">
         <v>200</v>
       </c>
@@ -11106,8 +11887,12 @@
         <f t="shared" si="11"/>
         <v>96.090603967610775</v>
       </c>
-    </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O201" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>98.637133015862901</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202" s="8">
         <v>201</v>
       </c>
@@ -11156,8 +11941,12 @@
         <f t="shared" si="11"/>
         <v>96.474308466775327</v>
       </c>
-    </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O202" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>98.927071687784775</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203" s="8">
         <v>202</v>
       </c>
@@ -11206,8 +11995,12 @@
         <f t="shared" si="11"/>
         <v>97.142108616030043</v>
       </c>
-    </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O203" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>97.300730739790424</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204" s="8">
         <v>203</v>
       </c>
@@ -11256,8 +12049,12 @@
         <f t="shared" si="11"/>
         <v>97.254844182454363</v>
       </c>
-    </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O204" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>97.323272683994645</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205" s="8">
         <v>204</v>
       </c>
@@ -11306,8 +12103,12 @@
         <f t="shared" si="11"/>
         <v>94.547053356145952</v>
       </c>
-    </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O205" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>78.411464472267681</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206" s="8">
         <v>205</v>
       </c>
@@ -11356,8 +12157,12 @@
         <f t="shared" si="11"/>
         <v>89.821961006569595</v>
       </c>
-    </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O206" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>69.415194812524049</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207" s="8">
         <v>206</v>
       </c>
@@ -11406,8 +12211,12 @@
         <f t="shared" si="11"/>
         <v>78.773716690416407</v>
       </c>
-    </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O207" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>34.851328822692068</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208" s="8">
         <v>207</v>
       </c>
@@ -11456,8 +12265,12 @@
         <f t="shared" si="11"/>
         <v>68.134196056431861</v>
       </c>
-    </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O208" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>35.481493365834865</v>
+      </c>
+    </row>
+    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A209" s="8">
         <v>208</v>
       </c>
@@ -11506,8 +12319,12 @@
         <f t="shared" si="11"/>
         <v>61.459159051778499</v>
       </c>
-    </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O209" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>66.065465680226083</v>
+      </c>
+    </row>
+    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A210" s="8">
         <v>209</v>
       </c>
@@ -11556,8 +12373,12 @@
         <f t="shared" si="15"/>
         <v>64.169348191286531</v>
       </c>
-    </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O210" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>88.45176807652399</v>
+      </c>
+    </row>
+    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A211" s="8">
         <v>210</v>
       </c>
@@ -11606,8 +12427,12 @@
         <f t="shared" si="15"/>
         <v>72.494308785997703</v>
       </c>
-    </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O211" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>101.68591325910376</v>
+      </c>
+    </row>
+    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A212" s="8">
         <v>211</v>
       </c>
@@ -11656,8 +12481,12 @@
         <f t="shared" si="15"/>
         <v>77.079234558550652</v>
       </c>
-    </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O212" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>76.089646619658339</v>
+      </c>
+    </row>
+    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A213" s="8">
         <v>212</v>
       </c>
@@ -11706,8 +12535,12 @@
         <f t="shared" si="15"/>
         <v>79.754828266477844</v>
       </c>
-    </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O213" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>81.361151297486145</v>
+      </c>
+    </row>
+    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A214" s="8">
         <v>213</v>
       </c>
@@ -11756,8 +12589,12 @@
         <f t="shared" si="15"/>
         <v>81.096054570792901</v>
       </c>
-    </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O214" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>96.553458428348875</v>
+      </c>
+    </row>
+    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A215" s="8">
         <v>214</v>
       </c>
@@ -11806,8 +12643,12 @@
         <f t="shared" si="15"/>
         <v>86.296178035947037</v>
       </c>
-    </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O215" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>104.45687085125269</v>
+      </c>
+    </row>
+    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216" s="8">
         <v>215</v>
       </c>
@@ -11856,8 +12697,12 @@
         <f t="shared" si="15"/>
         <v>90.982938763167382</v>
       </c>
-    </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O216" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>101.08577684909014</v>
+      </c>
+    </row>
+    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A217" s="8">
         <v>216</v>
       </c>
@@ -11906,8 +12751,12 @@
         <f t="shared" si="15"/>
         <v>93.314355298022235</v>
       </c>
-    </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O217" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>93.099605787583982</v>
+      </c>
+    </row>
+    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A218" s="8">
         <v>217</v>
       </c>
@@ -11956,8 +12805,12 @@
         <f t="shared" si="15"/>
         <v>91.489305826162891</v>
       </c>
-    </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O218" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>77.645170024086923</v>
+      </c>
+    </row>
+    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219" s="8">
         <v>218</v>
       </c>
@@ -12006,8 +12859,12 @@
         <f t="shared" si="15"/>
         <v>87.806070241455643</v>
       </c>
-    </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O219" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>74.290393630148401</v>
+      </c>
+    </row>
+    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A220" s="8">
         <v>219</v>
       </c>
@@ -12056,8 +12913,12 @@
         <f t="shared" si="15"/>
         <v>82.867662984621816</v>
       </c>
-    </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O220" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>69.547325102880478</v>
+      </c>
+    </row>
+    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A221" s="8">
         <v>220</v>
       </c>
@@ -12106,8 +12967,12 @@
         <f t="shared" si="15"/>
         <v>77.827401020603972</v>
       </c>
-    </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O221" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>59.606621959043991</v>
+      </c>
+    </row>
+    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A222" s="8">
         <v>221</v>
       </c>
@@ -12156,8 +13021,12 @@
         <f t="shared" si="15"/>
         <v>67.915664800866935</v>
       </c>
-    </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O222" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>24.865578533692542</v>
+      </c>
+    </row>
+    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A223" s="8">
         <v>222</v>
       </c>
@@ -12206,8 +13075,12 @@
         <f t="shared" si="15"/>
         <v>59.572301219333958</v>
       </c>
-    </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O223" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>41.04777639965944</v>
+      </c>
+    </row>
+    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A224" s="8">
         <v>223</v>
       </c>
@@ -12256,8 +13129,12 @@
         <f t="shared" si="15"/>
         <v>53.674906769259245</v>
       </c>
-    </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O224" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>54.835060411060923</v>
+      </c>
+    </row>
+    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A225" s="8">
         <v>224</v>
       </c>
@@ -12306,8 +13183,12 @@
         <f t="shared" si="15"/>
         <v>59.380230079452993</v>
       </c>
-    </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O225" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>93.284357768264201</v>
+      </c>
+    </row>
+    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A226" s="8">
         <v>225</v>
       </c>
@@ -12356,8 +13237,12 @@
         <f t="shared" si="15"/>
         <v>66.812904766168074</v>
       </c>
-    </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O226" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>93.460641486426852</v>
+      </c>
+    </row>
+    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A227" s="8">
         <v>226</v>
       </c>
@@ -12406,8 +13291,12 @@
         <f t="shared" si="15"/>
         <v>77.409411253085452</v>
       </c>
-    </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O227" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>102.73460982566493</v>
+      </c>
+    </row>
+    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A228" s="8">
         <v>227</v>
       </c>
@@ -12456,8 +13345,12 @@
         <f t="shared" si="15"/>
         <v>85.322665227528361</v>
       </c>
-    </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O228" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>112.61877324209971</v>
+      </c>
+    </row>
+    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A229" s="8">
         <v>228</v>
       </c>
@@ -12506,8 +13399,12 @@
         <f t="shared" si="15"/>
         <v>90.940505598089899</v>
       </c>
-    </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O229" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>95.766003157637073</v>
+      </c>
+    </row>
+    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A230" s="8">
         <v>229</v>
       </c>
@@ -12556,8 +13453,12 @@
         <f t="shared" si="15"/>
         <v>94.190750825757149</v>
       </c>
-    </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O230" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>98.424137729326702</v>
+      </c>
+    </row>
+    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A231" s="8">
         <v>230</v>
       </c>
@@ -12606,8 +13507,12 @@
         <f t="shared" si="15"/>
         <v>93.596185087396407</v>
       </c>
-    </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O231" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>90.720641877117032</v>
+      </c>
+    </row>
+    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A232" s="8">
         <v>231</v>
       </c>
@@ -12656,8 +13561,12 @@
         <f t="shared" si="15"/>
         <v>93.644994762628073</v>
       </c>
-    </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O232" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>90.796311905645666</v>
+      </c>
+    </row>
+    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A233" s="8">
         <v>232</v>
       </c>
@@ -12706,8 +13615,12 @@
         <f t="shared" si="15"/>
         <v>91.022301740807208</v>
       </c>
-    </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O233" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>81.156798702838699</v>
+      </c>
+    </row>
+    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A234" s="8">
         <v>233</v>
       </c>
@@ -12756,8 +13669,12 @@
         <f t="shared" si="15"/>
         <v>88.02489561478005</v>
       </c>
-    </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O234" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>74.886565688105378</v>
+      </c>
+    </row>
+    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A235" s="8">
         <v>234</v>
       </c>
@@ -12806,8 +13723,12 @@
         <f t="shared" si="15"/>
         <v>82.537903930620928</v>
       </c>
-    </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O235" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>63.627568412227902</v>
+      </c>
+    </row>
+    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A236" s="8">
         <v>235</v>
       </c>
@@ -12856,8 +13777,12 @@
         <f t="shared" si="15"/>
         <v>76.163614946929059</v>
       </c>
-    </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O236" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>53.505571437368218</v>
+      </c>
+    </row>
+    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A237" s="8">
         <v>236</v>
       </c>
@@ -12906,8 +13831,12 @@
         <f t="shared" si="15"/>
         <v>70.437098476478582</v>
       </c>
-    </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O237" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>58.523511730653979</v>
+      </c>
+    </row>
+    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A238" s="8">
         <v>237</v>
       </c>
@@ -12956,8 +13885,12 @@
         <f t="shared" si="15"/>
         <v>69.166894497127714</v>
       </c>
-    </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O238" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>78.937751465056522</v>
+      </c>
+    </row>
+    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A239" s="8">
         <v>238</v>
       </c>
@@ -13006,8 +13939,12 @@
         <f t="shared" si="15"/>
         <v>74.055911997461465</v>
       </c>
-    </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O239" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>101.7221348393071</v>
+      </c>
+    </row>
+    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A240" s="8">
         <v>239</v>
       </c>
@@ -13056,8 +13993,12 @@
         <f t="shared" si="15"/>
         <v>82.248839240946111</v>
       </c>
-    </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O240" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>108.6363753930809</v>
+      </c>
+    </row>
+    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A241" s="8">
         <v>240</v>
       </c>
@@ -13106,8 +14047,12 @@
         <f t="shared" si="15"/>
         <v>88.870651816295478</v>
       </c>
-    </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O241" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>99.126550004865209</v>
+      </c>
+    </row>
+    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A242" s="8">
         <v>241</v>
       </c>
@@ -13156,8 +14101,12 @@
         <f t="shared" si="15"/>
         <v>89.706123498396096</v>
       </c>
-    </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O242" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>77.9409569763435</v>
+      </c>
+    </row>
+    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A243" s="8">
         <v>242</v>
       </c>
@@ -13206,8 +14155,12 @@
         <f t="shared" si="15"/>
         <v>87.952695731525282</v>
       </c>
-    </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O243" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>81.447812510085129</v>
+      </c>
+    </row>
+    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A244" s="8">
         <v>243</v>
       </c>
@@ -13256,8 +14209,12 @@
         <f t="shared" si="15"/>
         <v>86.475356665947388</v>
       </c>
-    </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O244" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>90.621088715360287</v>
+      </c>
+    </row>
+    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A245" s="8">
         <v>244</v>
       </c>
@@ -13306,8 +14263,12 @@
         <f t="shared" si="15"/>
         <v>88.222932282584381</v>
       </c>
-    </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O245" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>96.635519957699813</v>
+      </c>
+    </row>
+    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A246" s="8">
         <v>245</v>
       </c>
@@ -13356,8 +14317,12 @@
         <f t="shared" si="15"/>
         <v>88.821538157974018</v>
       </c>
-    </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O246" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>85.097580535694448</v>
+      </c>
+    </row>
+    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A247" s="8">
         <v>246</v>
       </c>
@@ -13406,8 +14371,12 @@
         <f t="shared" si="15"/>
         <v>87.639480148557922</v>
       </c>
-    </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O247" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>77.654319665394411</v>
+      </c>
+    </row>
+    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A248" s="8">
         <v>247</v>
       </c>
@@ -13456,8 +14425,12 @@
         <f t="shared" si="15"/>
         <v>85.461060994606513</v>
       </c>
-    </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O248" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>82.553490148093005</v>
+      </c>
+    </row>
+    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A249" s="8">
         <v>248</v>
       </c>
@@ -13506,8 +14479,12 @@
         <f t="shared" si="15"/>
         <v>84.173146376352435</v>
       </c>
-    </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O249" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>82.803132534650814</v>
+      </c>
+    </row>
+    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A250" s="8">
         <v>249</v>
       </c>
@@ -13556,8 +14533,12 @@
         <f t="shared" si="15"/>
         <v>83.511219392254688</v>
       </c>
-    </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O250" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>79.953498321121145</v>
+      </c>
+    </row>
+    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A251" s="8">
         <v>250</v>
       </c>
@@ -13598,16 +14579,20 @@
         <f>100*(testdata[[#This Row],[close]]-testdata[[#This Row],[LL]])/(testdata[[#This Row],[HH]]-testdata[[#This Row],[LL]])</f>
         <v>87.543859649123135</v>
       </c>
-      <c r="M251" s="11">
+      <c r="M251" s="14">
         <f t="shared" si="15"/>
         <v>83.202001217101852</v>
       </c>
-      <c r="N251" s="11">
+      <c r="N251" s="14">
         <f t="shared" si="15"/>
         <v>83.081262893810205</v>
       </c>
-    </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O251" s="14">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>83.44347786368516</v>
+      </c>
+    </row>
+    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A252" s="8">
         <v>251</v>
       </c>
@@ -13656,8 +14641,12 @@
         <f t="shared" si="15"/>
         <v>80.749895107092541</v>
       </c>
-    </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O252" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>68.667324992711713</v>
+      </c>
+    </row>
+    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A253" s="8">
         <v>252</v>
       </c>
@@ -13706,8 +14695,12 @@
         <f t="shared" si="15"/>
         <v>80.825188716294733</v>
       </c>
-    </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O253" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>86.003202155860691</v>
+      </c>
+    </row>
+    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A254" s="8">
         <v>253</v>
       </c>
@@ -13756,8 +14749,12 @@
         <f t="shared" si="15"/>
         <v>81.703198746490386</v>
       </c>
-    </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O254" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>94.101696430085724</v>
+      </c>
+    </row>
+    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A255" s="8">
         <v>254</v>
       </c>
@@ -13806,8 +14803,12 @@
         <f t="shared" si="15"/>
         <v>88.29826282179026</v>
       </c>
-    </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O255" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>112.92616624101518</v>
+      </c>
+    </row>
+    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A256" s="8">
         <v>255</v>
       </c>
@@ -13856,8 +14857,12 @@
         <f t="shared" si="15"/>
         <v>92.868088553757715</v>
       </c>
-    </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O256" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>103.04583406864182</v>
+      </c>
+    </row>
+    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A257" s="8">
         <v>256</v>
       </c>
@@ -13906,8 +14911,12 @@
         <f t="shared" si="15"/>
         <v>96.368961358987391</v>
       </c>
-    </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O257" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>96.278026452158684</v>
+      </c>
+    </row>
+    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A258" s="8">
         <v>257</v>
       </c>
@@ -13956,8 +14965,12 @@
         <f t="shared" si="15"/>
         <v>96.175086231622529</v>
       </c>
-    </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O258" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>95.427643275066913</v>
+      </c>
+    </row>
+    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A259" s="8">
         <v>258</v>
       </c>
@@ -14006,8 +15019,12 @@
         <f t="shared" si="15"/>
         <v>94.786116839381748</v>
       </c>
-    </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O259" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>86.709052967226796</v>
+      </c>
+    </row>
+    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A260" s="8">
         <v>259</v>
       </c>
@@ -14056,8 +15073,12 @@
         <f t="shared" si="15"/>
         <v>93.634230783619657</v>
       </c>
-    </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O260" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>91.380513101035291</v>
+      </c>
+    </row>
+    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A261" s="8">
         <v>260</v>
       </c>
@@ -14106,8 +15127,12 @@
         <f t="shared" si="15"/>
         <v>93.340270307635976</v>
       </c>
-    </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O261" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>98.451630839186834</v>
+      </c>
+    </row>
+    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A262" s="8">
         <v>261</v>
       </c>
@@ -14156,8 +15181,12 @@
         <f t="shared" si="15"/>
         <v>93.210629549237282</v>
       </c>
-    </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O262" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>88.693260721927601</v>
+      </c>
+    </row>
+    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A263" s="8">
         <v>262</v>
       </c>
@@ -14206,8 +15235,12 @@
         <f t="shared" si="15"/>
         <v>92.423231949237746</v>
       </c>
-    </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O263" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>86.715932369803312</v>
+      </c>
+    </row>
+    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A264" s="8">
         <v>263</v>
       </c>
@@ -14256,8 +15289,12 @@
         <f t="shared" si="15"/>
         <v>90.325749149278622</v>
       </c>
-    </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O264" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>85.603327956269396</v>
+      </c>
+    </row>
+    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A265" s="8">
         <v>264</v>
       </c>
@@ -14306,8 +15343,12 @@
         <f t="shared" si="15"/>
         <v>91.915341327106148</v>
       </c>
-    </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O265" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>105.59016676663754</v>
+      </c>
+    </row>
+    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A266" s="8">
         <v>265</v>
       </c>
@@ -14356,8 +15397,12 @@
         <f t="shared" si="15"/>
         <v>94.294294294294403</v>
       </c>
-    </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O266" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>104.38438438438439</v>
+      </c>
+    </row>
+    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A267" s="8">
         <v>266</v>
       </c>
@@ -14406,8 +15451,12 @@
         <f t="shared" si="15"/>
         <v>97.791948160220159</v>
       </c>
-    </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O267" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>102.14981472771797</v>
+      </c>
+    </row>
+    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A268" s="8">
         <v>267</v>
       </c>
@@ -14456,8 +15505,12 @@
         <f t="shared" si="15"/>
         <v>97.525414402824026</v>
       </c>
-    </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O268" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>91.97121679863659</v>
+      </c>
+    </row>
+    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A269" s="8">
         <v>268</v>
       </c>
@@ -14506,8 +15559,12 @@
         <f t="shared" si="15"/>
         <v>95.64270187941203</v>
       </c>
-    </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O269" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>84.743156503441327</v>
+      </c>
+    </row>
+    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A270" s="8">
         <v>269</v>
       </c>
@@ -14556,8 +15613,12 @@
         <f t="shared" si="15"/>
         <v>93.440740800207678</v>
       </c>
-    </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O270" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>91.034579734903758</v>
+      </c>
+    </row>
+    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A271" s="8">
         <v>270</v>
       </c>
@@ -14606,8 +15667,12 @@
         <f t="shared" si="15"/>
         <v>92.036658237150334</v>
       </c>
-    </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O271" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>90.311986062467895</v>
+      </c>
+    </row>
+    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A272" s="8">
         <v>271</v>
       </c>
@@ -14656,8 +15721,12 @@
         <f t="shared" si="15"/>
         <v>89.127760968952487</v>
       </c>
-    </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O272" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>71.592962910579786</v>
+      </c>
+    </row>
+    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A273" s="8">
         <v>272</v>
       </c>
@@ -14706,8 +15775,12 @@
         <f t="shared" si="15"/>
         <v>81.700492622944651</v>
       </c>
-    </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O273" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>47.669660975359278</v>
+      </c>
+    </row>
+    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A274" s="8">
         <v>273</v>
       </c>
@@ -14756,8 +15829,12 @@
         <f t="shared" si="19"/>
         <v>70.933061762679415</v>
       </c>
-    </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O274" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>35.612301269022595</v>
+      </c>
+    </row>
+    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A275" s="8">
         <v>274</v>
       </c>
@@ -14806,8 +15883,12 @@
         <f t="shared" si="19"/>
         <v>55.769758510266229</v>
       </c>
-    </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O275" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>1.839238556233596</v>
+      </c>
+    </row>
+    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A276" s="8">
         <v>275</v>
       </c>
@@ -14856,8 +15937,12 @@
         <f t="shared" si="19"/>
         <v>38.451553144926486</v>
       </c>
-    </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O276" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>-21.696308356662044</v>
+      </c>
+    </row>
+    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A277" s="8">
         <v>276</v>
       </c>
@@ -14906,8 +15991,12 @@
         <f t="shared" si="19"/>
         <v>23.220843545330911</v>
       </c>
-    </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O277" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>-6.0396486926405757</v>
+      </c>
+    </row>
+    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A278" s="8">
         <v>277</v>
       </c>
@@ -14956,8 +16045,12 @@
         <f t="shared" si="19"/>
         <v>18.639978453884282</v>
       </c>
-    </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O278" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>34.871012845977816</v>
+      </c>
+    </row>
+    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A279" s="8">
         <v>278</v>
       </c>
@@ -15006,8 +16099,12 @@
         <f t="shared" si="19"/>
         <v>20.241730269262778</v>
       </c>
-    </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O279" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>29.139103733071813</v>
+      </c>
+    </row>
+    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A280" s="8">
         <v>279</v>
       </c>
@@ -15056,8 +16153,12 @@
         <f t="shared" si="19"/>
         <v>22.167240867434998</v>
       </c>
-    </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O280" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>13.397152046701223</v>
+      </c>
+    </row>
+    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A281" s="8">
         <v>280</v>
       </c>
@@ -15106,8 +16207,12 @@
         <f t="shared" si="19"/>
         <v>21.09240788914046</v>
       </c>
-    </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O281" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>20.292657170814635</v>
+      </c>
+    </row>
+    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A282" s="8">
         <v>281</v>
       </c>
@@ -15156,8 +16261,12 @@
         <f t="shared" si="19"/>
         <v>24.594291125294291</v>
       </c>
-    </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O282" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>51.950931146393259</v>
+      </c>
+    </row>
+    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A283" s="8">
         <v>282</v>
       </c>
@@ -15206,8 +16315,12 @@
         <f t="shared" si="19"/>
         <v>32.083097377603707</v>
       </c>
-    </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O283" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>60.964695297148523</v>
+      </c>
+    </row>
+    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A284" s="8">
         <v>283</v>
       </c>
@@ -15256,8 +16369,12 @@
         <f t="shared" si="19"/>
         <v>41.61585455702528</v>
       </c>
-    </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O284" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>65.040578449839145</v>
+      </c>
+    </row>
+    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A285" s="8">
         <v>284</v>
       </c>
@@ -15306,8 +16423,12 @@
         <f t="shared" si="19"/>
         <v>49.592090629894955</v>
       </c>
-    </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O285" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>73.741456793018983</v>
+      </c>
+    </row>
+    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A286" s="8">
         <v>285</v>
       </c>
@@ -15356,8 +16477,12 @@
         <f t="shared" si="19"/>
         <v>56.166269516420734</v>
       </c>
-    </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O286" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>71.96596099824653</v>
+      </c>
+    </row>
+    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A287" s="8">
         <v>286</v>
       </c>
@@ -15406,8 +16531,12 @@
         <f t="shared" si="19"/>
         <v>59.817132930628553</v>
       </c>
-    </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O287" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>61.495792430502959</v>
+      </c>
+    </row>
+    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A288" s="8">
         <v>287</v>
       </c>
@@ -15456,8 +16585,12 @@
         <f t="shared" si="19"/>
         <v>60.789588516382821</v>
       </c>
-    </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O288" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>60.098561291831686</v>
+      </c>
+    </row>
+    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A289" s="8">
         <v>288</v>
       </c>
@@ -15506,8 +16639,12 @@
         <f t="shared" si="19"/>
         <v>64.296889245608938</v>
       </c>
-    </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O289" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>87.270428102905072</v>
+      </c>
+    </row>
+    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A290" s="8">
         <v>289</v>
       </c>
@@ -15556,8 +16693,12 @@
         <f t="shared" si="19"/>
         <v>72.901476425028505</v>
       </c>
-    </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O290" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>112.76839005647929</v>
+      </c>
+    </row>
+    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A291" s="8">
         <v>290</v>
       </c>
@@ -15606,8 +16747,12 @@
         <f t="shared" si="19"/>
         <v>83.527601655907446</v>
       </c>
-    </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O291" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>110.25766209069289</v>
+      </c>
+    </row>
+    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A292" s="8">
         <v>291</v>
       </c>
@@ -15656,8 +16801,12 @@
         <f t="shared" si="19"/>
         <v>87.80238121526277</v>
       </c>
-    </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O292" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>78.732460197795405</v>
+      </c>
+    </row>
+    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A293" s="8">
         <v>292</v>
       </c>
@@ -15706,8 +16855,12 @@
         <f t="shared" si="19"/>
         <v>82.590158875984855</v>
       </c>
-    </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O293" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>46.481024101065373</v>
+      </c>
+    </row>
+    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A294" s="8">
         <v>293</v>
       </c>
@@ -15756,8 +16909,12 @@
         <f t="shared" si="19"/>
         <v>70.877606157828126</v>
       </c>
-    </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O294" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>30.14467862344091</v>
+      </c>
+    </row>
+    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A295" s="8">
         <v>294</v>
       </c>
@@ -15806,8 +16963,12 @@
         <f t="shared" si="19"/>
         <v>60.033624760181631</v>
       </c>
-    </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O295" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>36.674140529139166</v>
+      </c>
+    </row>
+    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A296" s="8">
         <v>295</v>
       </c>
@@ -15856,8 +17017,12 @@
         <f t="shared" si="19"/>
         <v>54.138828545331442</v>
       </c>
-    </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O296" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>50.330518828720457</v>
+      </c>
+    </row>
+    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A297" s="8">
         <v>296</v>
       </c>
@@ -15906,8 +17071,12 @@
         <f t="shared" si="19"/>
         <v>54.161300754296157</v>
       </c>
-    </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O297" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>63.779539311187321</v>
+      </c>
+    </row>
+    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A298" s="8">
         <v>297</v>
       </c>
@@ -15956,8 +17125,12 @@
         <f t="shared" si="19"/>
         <v>56.862037339147143</v>
       </c>
-    </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O298" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>67.323944634866976</v>
+      </c>
+    </row>
+    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A299" s="8">
         <v>298</v>
       </c>
@@ -16006,8 +17179,12 @@
         <f t="shared" si="19"/>
         <v>63.907537020171311</v>
       </c>
-    </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O299" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>94.202599008258332</v>
+      </c>
+    </row>
+    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A300" s="8">
         <v>299</v>
       </c>
@@ -16056,8 +17233,12 @@
         <f t="shared" si="19"/>
         <v>73.265254622949485</v>
       </c>
-    </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O300" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>109.79108999888419</v>
+      </c>
+    </row>
+    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A301" s="8">
         <v>300</v>
       </c>
@@ -16106,8 +17287,12 @@
         <f t="shared" si="19"/>
         <v>82.799290263412715</v>
       </c>
-    </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O301" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>101.25575955050479</v>
+      </c>
+    </row>
+    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A302" s="8">
         <v>301</v>
       </c>
@@ -16156,8 +17341,12 @@
         <f t="shared" si="19"/>
         <v>84.174278367702797</v>
       </c>
-    </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O302" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>66.044009251806216</v>
+      </c>
+    </row>
+    <row r="303" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A303" s="8">
         <v>302</v>
       </c>
@@ -16206,8 +17395,12 @@
         <f t="shared" si="19"/>
         <v>78.907593794122036</v>
       </c>
-    </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O303" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>51.10625049431232</v>
+      </c>
+    </row>
+    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A304" s="8">
         <v>303</v>
       </c>
@@ -16256,8 +17449,12 @@
         <f t="shared" si="19"/>
         <v>71.457141153483619</v>
       </c>
-    </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O304" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>56.885984004617114</v>
+      </c>
+    </row>
+    <row r="305" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A305" s="8">
         <v>304</v>
       </c>
@@ -16306,8 +17503,12 @@
         <f t="shared" si="19"/>
         <v>64.957833999112253</v>
       </c>
-    </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O305" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>45.983133599644958</v>
+      </c>
+    </row>
+    <row r="306" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A306" s="8">
         <v>305</v>
       </c>
@@ -16356,8 +17557,12 @@
         <f t="shared" si="19"/>
         <v>59.172954579079693</v>
       </c>
-    </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O306" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>38.511614144104087</v>
+      </c>
+    </row>
+    <row r="307" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A307" s="8">
         <v>306</v>
       </c>
@@ -16406,8 +17611,12 @@
         <f t="shared" si="19"/>
         <v>51.70143512353895</v>
       </c>
-    </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O307" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>29.15372096463976</v>
+      </c>
+    </row>
+    <row r="308" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A308" s="8">
         <v>307</v>
       </c>
@@ -16456,8 +17665,12 @@
         <f t="shared" si="19"/>
         <v>42.286142571075203</v>
       </c>
-    </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O308" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>6.5888834835453167</v>
+      </c>
+    </row>
+    <row r="309" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A309" s="8">
         <v>308</v>
       </c>
@@ -16506,8 +17719,12 @@
         <f t="shared" si="19"/>
         <v>29.957704315515027</v>
       </c>
-    </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O309" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>-14.013829628808189</v>
+      </c>
+    </row>
+    <row r="310" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A310" s="8">
         <v>309</v>
       </c>
@@ -16556,8 +17773,12 @@
         <f t="shared" si="19"/>
         <v>19.327699384910243</v>
       </c>
-    </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O310" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>-1.7688519335459105</v>
+      </c>
+    </row>
+    <row r="311" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A311" s="8">
         <v>310</v>
       </c>
@@ -16606,8 +17827,12 @@
         <f t="shared" si="19"/>
         <v>14.515949725027069</v>
       </c>
-    </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O311" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>18.823522236693027</v>
+      </c>
+    </row>
+    <row r="312" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A312" s="8">
         <v>311</v>
       </c>
@@ -16656,8 +17881,12 @@
         <f t="shared" si="19"/>
         <v>15.654060759586102</v>
       </c>
-    </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O312" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>24.836456794080974</v>
+      </c>
+    </row>
+    <row r="313" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A313" s="8">
         <v>312</v>
       </c>
@@ -16706,8 +17935,12 @@
         <f t="shared" si="19"/>
         <v>16.776439089692154</v>
       </c>
-    </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O313" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>13.435073627844744</v>
+      </c>
+    </row>
+    <row r="314" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A314" s="8">
         <v>313</v>
       </c>
@@ -16756,8 +17989,12 @@
         <f t="shared" si="19"/>
         <v>16.509621293517956</v>
       </c>
-    </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O314" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>12.434818934143443</v>
+      </c>
+    </row>
+    <row r="315" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A315" s="8">
         <v>314</v>
       </c>
@@ -16806,8 +18043,12 @@
         <f t="shared" si="19"/>
         <v>17.335996974802327</v>
       </c>
-    </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O315" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>28.909965495207871</v>
+      </c>
+    </row>
+    <row r="316" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A316" s="8">
         <v>315</v>
       </c>
@@ -16856,8 +18097,12 @@
         <f t="shared" si="19"/>
         <v>21.169644090874648</v>
       </c>
-    </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O316" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>39.151487670130663</v>
+      </c>
+    </row>
+    <row r="317" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A317" s="8">
         <v>316</v>
       </c>
@@ -16906,8 +18151,12 @@
         <f t="shared" si="19"/>
         <v>29.791761173385201</v>
       </c>
-    </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O317" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>63.469592917003943</v>
+      </c>
+    </row>
+    <row r="318" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A318" s="8">
         <v>317</v>
       </c>
@@ -16956,8 +18205,12 @@
         <f t="shared" si="19"/>
         <v>36.193824839184543</v>
       </c>
-    </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O318" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>48.8128827586375</v>
+      </c>
+    </row>
+    <row r="319" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A319" s="8">
         <v>318</v>
       </c>
@@ -17006,8 +18259,12 @@
         <f t="shared" si="19"/>
         <v>39.64368653132442</v>
       </c>
-    </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O319" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>33.252158018490036</v>
+      </c>
+    </row>
+    <row r="320" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A320" s="8">
         <v>319</v>
       </c>
@@ -17056,8 +18313,12 @@
         <f t="shared" si="19"/>
         <v>38.855569983218082</v>
       </c>
-    </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O320" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>38.24892636438112</v>
+      </c>
+    </row>
+    <row r="321" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A321" s="8">
         <v>320</v>
       </c>
@@ -17106,8 +18367,12 @@
         <f t="shared" si="19"/>
         <v>42.544837458441712</v>
       </c>
-    </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O321" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>69.314264797135863</v>
+      </c>
+    </row>
+    <row r="322" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A322" s="8">
         <v>321</v>
       </c>
@@ -17156,8 +18421,12 @@
         <f t="shared" si="19"/>
         <v>53.567567419221213</v>
       </c>
-    </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O322" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>104.60896588971197</v>
+      </c>
+    </row>
+    <row r="323" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A323" s="8">
         <v>322</v>
       </c>
@@ -17206,8 +18475,12 @@
         <f t="shared" si="19"/>
         <v>66.997030808525849</v>
       </c>
-    </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O323" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>102.83117521750725</v>
+      </c>
+    </row>
+    <row r="324" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A324" s="8">
         <v>323</v>
       </c>
@@ -17256,8 +18529,12 @@
         <f t="shared" si="19"/>
         <v>79.439129194367112</v>
       </c>
-    </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O324" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>107.50456679785648</v>
+      </c>
+    </row>
+    <row r="325" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A325" s="8">
         <v>324</v>
       </c>
@@ -17306,8 +18583,12 @@
         <f t="shared" si="19"/>
         <v>86.002217443346993</v>
       </c>
-    </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O325" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>98.807460082279277</v>
+      </c>
+    </row>
+    <row r="326" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A326" s="8">
         <v>325</v>
       </c>
@@ -17356,8 +18637,12 @@
         <f t="shared" si="19"/>
         <v>91.23202168623186</v>
       </c>
-    </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O326" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>101.42943164805905</v>
+      </c>
+    </row>
+    <row r="327" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A327" s="8">
         <v>326</v>
       </c>
@@ -17406,8 +18691,12 @@
         <f t="shared" si="19"/>
         <v>92.281201511933205</v>
       </c>
-    </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O327" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>91.26304059403634</v>
+      </c>
+    </row>
+    <row r="328" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A328" s="8">
         <v>327</v>
       </c>
@@ -17456,8 +18745,12 @@
         <f t="shared" si="19"/>
         <v>89.76414151014643</v>
       </c>
-    </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O328" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>68.630071932599492</v>
+      </c>
+    </row>
+    <row r="329" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A329" s="8">
         <v>328</v>
       </c>
@@ -17506,8 +18799,12 @@
         <f t="shared" si="19"/>
         <v>82.828259994728512</v>
       </c>
-    </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O329" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>55.814021392304369</v>
+      </c>
+    </row>
+    <row r="330" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A330" s="8">
         <v>329</v>
       </c>
@@ -17556,8 +18853,12 @@
         <f t="shared" si="19"/>
         <v>71.452227482582472</v>
       </c>
-    </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O330" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>30.536696043423575</v>
+      </c>
+    </row>
+    <row r="331" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A331" s="8">
         <v>330</v>
       </c>
@@ -17606,8 +18907,12 @@
         <f t="shared" si="19"/>
         <v>60.290141456388675</v>
       </c>
-    </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O331" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>27.119297804370731</v>
+      </c>
+    </row>
+    <row r="332" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A332" s="8">
         <v>331</v>
       </c>
@@ -17656,8 +18961,12 @@
         <f t="shared" si="19"/>
         <v>50.793634450520649</v>
       </c>
-    </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O332" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>34.414709427907937</v>
+      </c>
+    </row>
+    <row r="333" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A333" s="8">
         <v>332</v>
       </c>
@@ -17706,8 +19015,12 @@
         <f t="shared" si="19"/>
         <v>48.541826982888644</v>
       </c>
-    </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O333" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>56.091229834123183</v>
+      </c>
+    </row>
+    <row r="334" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A334" s="8">
         <v>333</v>
       </c>
@@ -17756,8 +19069,12 @@
         <f t="shared" si="19"/>
         <v>48.335753294514355</v>
       </c>
-    </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O334" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>49.173410932750798</v>
+      </c>
+    </row>
+    <row r="335" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A335" s="8">
         <v>334</v>
       </c>
@@ -17806,8 +19123,12 @@
         <f t="shared" si="19"/>
         <v>47.580858012639936</v>
       </c>
-    </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O335" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>34.046204766799605</v>
+      </c>
+    </row>
+    <row r="336" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A336" s="8">
         <v>335</v>
       </c>
@@ -17856,8 +19177,12 @@
         <f t="shared" si="19"/>
         <v>41.342504587128467</v>
       </c>
-    </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O336" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>14.344693796040261</v>
+      </c>
+    </row>
+    <row r="337" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A337" s="8">
         <v>336</v>
       </c>
@@ -17906,8 +19231,12 @@
         <f t="shared" si="19"/>
         <v>35.261815032854692</v>
       </c>
-    </row>
-    <row r="338" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O337" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>20.595081467606192</v>
+      </c>
+    </row>
+    <row r="338" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A338" s="8">
         <v>337</v>
       </c>
@@ -17956,8 +19285,12 @@
         <f t="shared" si="23"/>
         <v>32.9653168019505</v>
       </c>
-    </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O338" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>42.608803110040739</v>
+      </c>
+    </row>
+    <row r="339" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A339" s="8">
         <v>338</v>
       </c>
@@ -18006,8 +19339,12 @@
         <f t="shared" si="23"/>
         <v>38.888442898343953</v>
       </c>
-    </row>
-    <row r="340" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O339" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>72.560952041150358</v>
+      </c>
+    </row>
+    <row r="340" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A340" s="8">
         <v>339</v>
       </c>
@@ -18056,8 +19393,12 @@
         <f t="shared" si="23"/>
         <v>50.306717502205423</v>
       </c>
-    </row>
-    <row r="341" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O340" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>93.269747963657906</v>
+      </c>
+    </row>
+    <row r="341" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A341" s="8">
         <v>340</v>
       </c>
@@ -18106,8 +19447,12 @@
         <f t="shared" si="23"/>
         <v>64.203249533516612</v>
       </c>
-    </row>
-    <row r="342" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O341" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>105.20172592870927</v>
+      </c>
+    </row>
+    <row r="342" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A342" s="8">
         <v>341</v>
       </c>
@@ -18156,8 +19501,12 @@
         <f t="shared" si="23"/>
         <v>77.115031848498504</v>
       </c>
-    </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O342" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>112.3138149756783</v>
+      </c>
+    </row>
+    <row r="343" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A343" s="8">
         <v>342</v>
       </c>
@@ -18206,8 +19555,12 @@
         <f t="shared" si="23"/>
         <v>87.987162680320111</v>
       </c>
-    </row>
-    <row r="344" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O343" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>115.75803509382288</v>
+      </c>
+    </row>
+    <row r="344" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A344" s="8">
         <v>343</v>
       </c>
@@ -18256,8 +19609,12 @@
         <f t="shared" si="23"/>
         <v>94.006958963760852</v>
       </c>
-    </row>
-    <row r="345" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O344" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>99.77247361918748</v>
+      </c>
+    </row>
+    <row r="345" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A345" s="8">
         <v>344</v>
       </c>
@@ -18306,8 +19663,12 @@
         <f t="shared" si="23"/>
         <v>94.474975705131271</v>
       </c>
-    </row>
-    <row r="346" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O345" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>81.806077934746497</v>
+      </c>
+    </row>
+    <row r="346" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A346" s="8">
         <v>345</v>
       </c>
@@ -18356,8 +19717,12 @@
         <f t="shared" si="23"/>
         <v>91.019510404195728</v>
       </c>
-    </row>
-    <row r="347" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O346" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>78.594151937651759</v>
+      </c>
+    </row>
+    <row r="347" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A347" s="8">
         <v>346</v>
       </c>
@@ -18406,8 +19771,12 @@
         <f t="shared" si="23"/>
         <v>87.283666791947624</v>
       </c>
-    </row>
-    <row r="348" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O347" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>79.596465452581128</v>
+      </c>
+    </row>
+    <row r="348" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A348" s="8">
         <v>347</v>
       </c>
@@ -18456,8 +19825,12 @@
         <f t="shared" si="23"/>
         <v>85.608319951059215</v>
       </c>
-    </row>
-    <row r="349" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O348" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>84.461267874894958</v>
+      </c>
+    </row>
+    <row r="349" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A349" s="8">
         <v>348</v>
       </c>
@@ -18506,8 +19879,12 @@
         <f t="shared" si="23"/>
         <v>85.891259463179708</v>
       </c>
-    </row>
-    <row r="350" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O349" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>91.397109428768061</v>
+      </c>
+    </row>
+    <row r="350" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A350" s="8">
         <v>349</v>
       </c>
@@ -18556,8 +19933,12 @@
         <f t="shared" si="23"/>
         <v>87.220606985625253</v>
       </c>
-    </row>
-    <row r="351" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O350" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>91.686712767236003</v>
+      </c>
+    </row>
+    <row r="351" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A351" s="8">
         <v>350</v>
       </c>
@@ -18606,8 +19987,12 @@
         <f t="shared" si="23"/>
         <v>89.652868768749713</v>
       </c>
-    </row>
-    <row r="352" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O351" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>98.26252628763396</v>
+      </c>
+    </row>
+    <row r="352" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A352" s="8">
         <v>351</v>
       </c>
@@ -18656,8 +20041,12 @@
         <f t="shared" si="23"/>
         <v>89.998946967927381</v>
       </c>
-    </row>
-    <row r="353" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O352" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>86.296438211871731</v>
+      </c>
+    </row>
+    <row r="353" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A353" s="8">
         <v>352</v>
       </c>
@@ -18706,8 +20095,12 @@
         <f t="shared" si="23"/>
         <v>88.643492941042311</v>
       </c>
-    </row>
-    <row r="354" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O353" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>76.641854614436198</v>
+      </c>
+    </row>
+    <row r="354" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A354" s="8">
         <v>353</v>
       </c>
@@ -18756,8 +20149,12 @@
         <f t="shared" si="23"/>
         <v>78.666972685981079</v>
       </c>
-    </row>
-    <row r="355" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O354" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>30.445636157620214</v>
+      </c>
+    </row>
+    <row r="355" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A355" s="8">
         <v>354</v>
       </c>
@@ -18806,8 +20203,12 @@
         <f t="shared" si="23"/>
         <v>68.910251054537014</v>
       </c>
-    </row>
-    <row r="356" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O355" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>40.663335355655931</v>
+      </c>
+    </row>
+    <row r="356" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A356" s="8">
         <v>355</v>
       </c>
@@ -18856,8 +20257,12 @@
         <f t="shared" si="23"/>
         <v>57.423824995481276</v>
       </c>
-    </row>
-    <row r="357" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O356" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>35.703355974056578</v>
+      </c>
+    </row>
+    <row r="357" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A357" s="8">
         <v>356</v>
       </c>
@@ -18906,8 +20311,12 @@
         <f t="shared" si="23"/>
         <v>60.285541697431483</v>
       </c>
-    </row>
-    <row r="358" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O357" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>92.963948452271211</v>
+      </c>
+    </row>
+    <row r="358" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A358" s="8">
         <v>357</v>
       </c>
@@ -18956,8 +20365,12 @@
         <f t="shared" si="23"/>
         <v>66.559979949822051</v>
       </c>
-    </row>
-    <row r="359" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O358" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>101.83382183660106</v>
+      </c>
+    </row>
+    <row r="359" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A359" s="8">
         <v>358</v>
       </c>
@@ -19006,8 +20419,12 @@
         <f t="shared" si="23"/>
         <v>81.010873057533033</v>
       </c>
-    </row>
-    <row r="360" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O359" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>118.58729781935179</v>
+      </c>
+    </row>
+    <row r="360" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A360" s="8">
         <v>359</v>
       </c>
@@ -19056,8 +20473,12 @@
         <f t="shared" si="23"/>
         <v>89.436947810906759</v>
       </c>
-    </row>
-    <row r="361" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O360" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>110.49580900568424</v>
+      </c>
+    </row>
+    <row r="361" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A361" s="8">
         <v>360</v>
       </c>
@@ -19106,8 +20527,12 @@
         <f t="shared" si="23"/>
         <v>94.955030438842527</v>
       </c>
-    </row>
-    <row r="362" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O361" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>94.70646450998214</v>
+      </c>
+    </row>
+    <row r="362" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A362" s="8">
         <v>361</v>
       </c>
@@ -19156,8 +20581,12 @@
         <f t="shared" si="23"/>
         <v>95.90857634821954</v>
       </c>
-    </row>
-    <row r="363" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O362" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>97.373804422371876</v>
+      </c>
+    </row>
+    <row r="363" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A363" s="8">
         <v>362</v>
       </c>
@@ -19206,8 +20635,12 @@
         <f t="shared" si="23"/>
         <v>95.248321962212458</v>
       </c>
-    </row>
-    <row r="364" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O363" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>92.93077122900911</v>
+      </c>
+    </row>
+    <row r="364" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A364" s="8">
         <v>363</v>
       </c>
@@ -19256,8 +20689,12 @@
         <f t="shared" si="23"/>
         <v>95.642290170376683</v>
       </c>
-    </row>
-    <row r="365" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O364" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>96.877658920391895</v>
+      </c>
+    </row>
+    <row r="365" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A365" s="8">
         <v>364</v>
       </c>
@@ -19306,8 +20743,12 @@
         <f t="shared" si="23"/>
         <v>94.25336377384059</v>
       </c>
-    </row>
-    <row r="366" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O365" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>88.183892002304788</v>
+      </c>
+    </row>
+    <row r="366" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A366" s="8">
         <v>365</v>
       </c>
@@ -19356,8 +20797,12 @@
         <f t="shared" si="23"/>
         <v>93.580377392096281</v>
       </c>
-    </row>
-    <row r="367" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O366" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>90.209782933542698</v>
+      </c>
+    </row>
+    <row r="367" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A367" s="8">
         <v>366</v>
       </c>
@@ -19406,8 +20851,12 @@
         <f t="shared" si="23"/>
         <v>91.767313051321764</v>
       </c>
-    </row>
-    <row r="368" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O367" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>88.310034091531179</v>
+      </c>
+    </row>
+    <row r="368" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A368" s="8">
         <v>367</v>
       </c>
@@ -19456,8 +20905,12 @@
         <f t="shared" si="23"/>
         <v>90.58388873243085</v>
       </c>
-    </row>
-    <row r="369" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O368" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>84.872023215105941</v>
+      </c>
+    </row>
+    <row r="369" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A369" s="8">
         <v>368</v>
       </c>
@@ -19506,8 +20959,12 @@
         <f t="shared" si="23"/>
         <v>86.730061290338199</v>
       </c>
-    </row>
-    <row r="370" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O369" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>69.225968158224987</v>
+      </c>
+    </row>
+    <row r="370" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A370" s="8">
         <v>369</v>
       </c>
@@ -19556,8 +21013,12 @@
         <f t="shared" si="23"/>
         <v>81.018081999836923</v>
       </c>
-    </row>
-    <row r="371" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O370" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>58.400682579989535</v>
+      </c>
+    </row>
+    <row r="371" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A371" s="8">
         <v>370</v>
       </c>
@@ -19606,8 +21067,12 @@
         <f t="shared" si="23"/>
         <v>69.570586819534071</v>
       </c>
-    </row>
-    <row r="372" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O371" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>23.871170418173705</v>
+      </c>
+    </row>
+    <row r="372" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A372" s="8">
         <v>371</v>
       </c>
@@ -19656,8 +21121,12 @@
         <f t="shared" si="23"/>
         <v>56.662124152613252</v>
       </c>
-    </row>
-    <row r="373" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O372" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>13.185678431387558</v>
+      </c>
+    </row>
+    <row r="373" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A373" s="8">
         <v>372</v>
       </c>
@@ -19706,8 +21175,12 @@
         <f t="shared" si="23"/>
         <v>40.953579615326404</v>
       </c>
-    </row>
-    <row r="374" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O373" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>-2.8472134865710927</v>
+      </c>
+    </row>
+    <row r="374" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A374" s="8">
         <v>373</v>
       </c>
@@ -19756,8 +21229,12 @@
         <f t="shared" si="23"/>
         <v>31.956830180117464</v>
       </c>
-    </row>
-    <row r="375" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O374" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>18.12793878012647</v>
+      </c>
+    </row>
+    <row r="375" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A375" s="8">
         <v>374</v>
       </c>
@@ -19806,8 +21283,12 @@
         <f t="shared" si="23"/>
         <v>23.574730090504989</v>
       </c>
-    </row>
-    <row r="376" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O375" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>3.9215657490917906</v>
+      </c>
+    </row>
+    <row r="376" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A376" s="8">
         <v>375</v>
       </c>
@@ -19856,8 +21337,12 @@
         <f t="shared" si="23"/>
         <v>20.884094599792494</v>
       </c>
-    </row>
-    <row r="377" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O376" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>13.076037128084302</v>
+      </c>
+    </row>
+    <row r="377" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A377" s="8">
         <v>376</v>
       </c>
@@ -19906,8 +21391,12 @@
         <f t="shared" si="23"/>
         <v>18.001188572227608</v>
       </c>
-    </row>
-    <row r="378" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O377" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>20.093067747822211</v>
+      </c>
+    </row>
+    <row r="378" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A378" s="8">
         <v>377</v>
       </c>
@@ -19956,8 +21445,12 @@
         <f t="shared" si="23"/>
         <v>22.087024779665168</v>
       </c>
-    </row>
-    <row r="379" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O378" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>43.669502237709459</v>
+      </c>
+    </row>
+    <row r="379" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A379" s="8">
         <v>378</v>
       </c>
@@ -20006,8 +21499,12 @@
         <f t="shared" si="23"/>
         <v>25.806647053560766</v>
       </c>
-    </row>
-    <row r="380" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O379" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>36.707532685608129</v>
+      </c>
+    </row>
+    <row r="380" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A380" s="8">
         <v>379</v>
       </c>
@@ -20056,8 +21553,12 @@
         <f t="shared" si="23"/>
         <v>31.899330964907545</v>
       </c>
-    </row>
-    <row r="381" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O380" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>47.130938164583348</v>
+      </c>
+    </row>
+    <row r="381" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A381" s="8">
         <v>380</v>
       </c>
@@ -20106,8 +21607,12 @@
         <f t="shared" si="23"/>
         <v>39.982635405205365</v>
       </c>
-    </row>
-    <row r="382" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O381" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>80.628020949309459</v>
+      </c>
+    </row>
+    <row r="382" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A382" s="8">
         <v>381</v>
       </c>
@@ -20156,8 +21661,12 @@
         <f t="shared" si="23"/>
         <v>56.261857062606282</v>
       </c>
-    </row>
-    <row r="383" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O382" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>122.31010758412532</v>
+      </c>
+    </row>
+    <row r="383" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A383" s="8">
         <v>382</v>
       </c>
@@ -20206,8 +21715,12 @@
         <f t="shared" si="23"/>
         <v>75.325434052944956</v>
       </c>
-    </row>
-    <row r="384" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O383" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>131.8509249015566</v>
+      </c>
+    </row>
+    <row r="384" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A384" s="8">
         <v>383</v>
       </c>
@@ -20256,8 +21769,12 @@
         <f t="shared" si="23"/>
         <v>88.350780224116463</v>
       </c>
-    </row>
-    <row r="385" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O384" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>101.11984685203086</v>
+      </c>
+    </row>
+    <row r="385" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A385" s="8">
         <v>384</v>
       </c>
@@ -20306,8 +21823,12 @@
         <f t="shared" si="23"/>
         <v>93.136926806401348</v>
       </c>
-    </row>
-    <row r="386" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O385" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>91.635287337099129</v>
+      </c>
+    </row>
+    <row r="386" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A386" s="8">
         <v>385</v>
       </c>
@@ -20356,8 +21877,12 @@
         <f t="shared" si="23"/>
         <v>92.416190345522168</v>
       </c>
-    </row>
-    <row r="387" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O386" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>91.182784168489462</v>
+      </c>
+    </row>
+    <row r="387" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A387" s="8">
         <v>386</v>
       </c>
@@ -20406,8 +21931,12 @@
         <f t="shared" si="23"/>
         <v>93.917672829446929</v>
       </c>
-    </row>
-    <row r="388" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O387" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>103.49940399669276</v>
+      </c>
+    </row>
+    <row r="388" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A388" s="8">
         <v>387</v>
       </c>
@@ -20456,8 +21985,12 @@
         <f t="shared" si="23"/>
         <v>95.085168596603978</v>
       </c>
-    </row>
-    <row r="389" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O388" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>98.246265661107373</v>
+      </c>
+    </row>
+    <row r="389" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A389" s="8">
         <v>388</v>
       </c>
@@ -20506,8 +22039,12 @@
         <f t="shared" si="23"/>
         <v>96.685001820465303</v>
       </c>
-    </row>
-    <row r="390" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O389" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>97.043660233355155</v>
+      </c>
+    </row>
+    <row r="390" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A390" s="8">
         <v>389</v>
       </c>
@@ -20556,8 +22093,12 @@
         <f t="shared" si="23"/>
         <v>96.051183394527087</v>
       </c>
-    </row>
-    <row r="391" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O390" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>93.528017033088616</v>
+      </c>
+    </row>
+    <row r="391" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A391" s="8">
         <v>390</v>
       </c>
@@ -20606,8 +22147,12 @@
         <f t="shared" si="23"/>
         <v>94.730090187410724</v>
       </c>
-    </row>
-    <row r="392" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O391" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>87.066583615446575</v>
+      </c>
+    </row>
+    <row r="392" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A392" s="8">
         <v>391</v>
       </c>
@@ -20656,8 +22201,12 @@
         <f t="shared" si="23"/>
         <v>92.274504993510888</v>
       </c>
-    </row>
-    <row r="393" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O392" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>83.764387142165418</v>
+      </c>
+    </row>
+    <row r="393" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A393" s="8">
         <v>392</v>
       </c>
@@ -20706,8 +22255,12 @@
         <f t="shared" si="23"/>
         <v>90.535039433481799</v>
       </c>
-    </row>
-    <row r="394" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O393" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>88.905114914917391</v>
+      </c>
+    </row>
+    <row r="394" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A394" s="8">
         <v>393</v>
       </c>
@@ -20756,8 +22309,12 @@
         <f t="shared" si="23"/>
         <v>90.862316413739734</v>
       </c>
-    </row>
-    <row r="395" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O394" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>97.747623985109954</v>
+      </c>
+    </row>
+    <row r="395" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A395" s="8">
         <v>394</v>
       </c>
@@ -20806,8 +22363,12 @@
         <f t="shared" si="23"/>
         <v>91.655966210976388</v>
       </c>
-    </row>
-    <row r="396" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O395" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>92.144312882364346</v>
+      </c>
+    </row>
+    <row r="396" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A396" s="8">
         <v>395</v>
       </c>
@@ -20856,8 +22417,12 @@
         <f t="shared" si="23"/>
         <v>89.002451663655066</v>
       </c>
-    </row>
-    <row r="397" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O396" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>68.088659528678846</v>
+      </c>
+    </row>
+    <row r="397" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A397" s="8">
         <v>396</v>
       </c>
@@ -20906,8 +22471,12 @@
         <f t="shared" si="23"/>
         <v>79.375114148110043</v>
       </c>
-    </row>
-    <row r="398" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O397" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>34.075990876464147</v>
+      </c>
+    </row>
+    <row r="398" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A398" s="8">
         <v>397</v>
       </c>
@@ -20956,8 +22525,12 @@
         <f t="shared" si="23"/>
         <v>66.662645905425748</v>
       </c>
-    </row>
-    <row r="399" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O398" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>27.71873930930704</v>
+      </c>
+    </row>
+    <row r="399" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A399" s="8">
         <v>398</v>
       </c>
@@ -21006,8 +22579,12 @@
         <f t="shared" si="23"/>
         <v>54.848257152311703</v>
       </c>
-    </row>
-    <row r="400" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O399" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>30.067549773339209</v>
+      </c>
+    </row>
+    <row r="400" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A400" s="8">
         <v>399</v>
       </c>
@@ -21056,8 +22633,12 @@
         <f t="shared" si="23"/>
         <v>51.510590387988707</v>
       </c>
-    </row>
-    <row r="401" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O400" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>59.766037517799774</v>
+      </c>
+    </row>
+    <row r="401" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A401" s="8">
         <v>400</v>
       </c>
@@ -21106,8 +22687,12 @@
         <f t="shared" si="23"/>
         <v>55.263326135720064</v>
       </c>
-    </row>
-    <row r="402" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O401" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>84.292000578300645</v>
+      </c>
+    </row>
+    <row r="402" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A402" s="8">
         <v>401</v>
       </c>
@@ -21156,8 +22741,12 @@
         <f t="shared" si="27"/>
         <v>67.268488017417738</v>
       </c>
-    </row>
-    <row r="403" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O402" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>113.27354497840619</v>
+      </c>
+    </row>
+    <row r="403" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A403" s="8">
         <v>402</v>
       </c>
@@ -21206,8 +22795,12 @@
         <f t="shared" si="27"/>
         <v>79.727867331926106</v>
       </c>
-    </row>
-    <row r="404" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O403" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>115.46589746050032</v>
+      </c>
+    </row>
+    <row r="404" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A404" s="8">
         <v>403</v>
       </c>
@@ -21256,8 +22849,12 @@
         <f t="shared" si="27"/>
         <v>89.17857257084377</v>
       </c>
-    </row>
-    <row r="405" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O404" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>101.51785485831235</v>
+      </c>
+    </row>
+    <row r="405" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A405" s="8">
         <v>404</v>
       </c>
@@ -21306,8 +22903,12 @@
         <f t="shared" si="27"/>
         <v>91.899214268960861</v>
       </c>
-    </row>
-    <row r="406" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O405" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>88.497867758373673</v>
+      </c>
+    </row>
+    <row r="406" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A406" s="8">
         <v>405</v>
       </c>
@@ -21356,8 +22957,12 @@
         <f t="shared" si="27"/>
         <v>87.677580358135785</v>
       </c>
-    </row>
-    <row r="407" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O406" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>61.571766210655113</v>
+      </c>
+    </row>
+    <row r="407" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A407" s="8">
         <v>406</v>
       </c>
@@ -21406,8 +23011,12 @@
         <f t="shared" si="27"/>
         <v>77.454788121454683</v>
       </c>
-    </row>
-    <row r="408" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O407" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>32.960293626960606</v>
+      </c>
+    </row>
+    <row r="408" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A408" s="8">
         <v>407</v>
       </c>
@@ -21456,8 +23065,12 @@
         <f t="shared" si="27"/>
         <v>66.151929707485294</v>
       </c>
-    </row>
-    <row r="409" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O408" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>38.266711155600404</v>
+      </c>
+    </row>
+    <row r="409" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A409" s="8">
         <v>408</v>
       </c>
@@ -21506,8 +23119,12 @@
         <f t="shared" si="27"/>
         <v>56.543432321210162</v>
       </c>
-    </row>
-    <row r="410" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O409" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>37.363585808030166</v>
+      </c>
+    </row>
+    <row r="410" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A410" s="8">
         <v>409</v>
       </c>
@@ -21556,8 +23173,12 @@
         <f t="shared" si="27"/>
         <v>55.555555555555657</v>
       </c>
-    </row>
-    <row r="411" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O410" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>67.867867867868085</v>
+      </c>
+    </row>
+    <row r="411" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A411" s="8">
         <v>410</v>
       </c>
@@ -21606,8 +23227,12 @@
         <f t="shared" si="27"/>
         <v>58.375041708375115</v>
       </c>
-    </row>
-    <row r="412" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O411" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>79.195862529195992</v>
+      </c>
+    </row>
+    <row r="412" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A412" s="8">
         <v>411</v>
       </c>
@@ -21656,8 +23281,12 @@
         <f t="shared" si="27"/>
         <v>69.736403069736539</v>
       </c>
-    </row>
-    <row r="413" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O412" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>113.22989656323014</v>
+      </c>
+    </row>
+    <row r="413" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A413" s="8">
         <v>412</v>
       </c>
@@ -21706,8 +23335,12 @@
         <f t="shared" si="27"/>
         <v>79.779021445688201</v>
       </c>
-    </row>
-    <row r="414" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O413" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>109.80450147116804</v>
+      </c>
+    </row>
+    <row r="414" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A414" s="8">
         <v>413</v>
       </c>
@@ -21756,8 +23389,12 @@
         <f t="shared" si="27"/>
         <v>87.694152103374066</v>
       </c>
-    </row>
-    <row r="415" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O414" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>91.793817658370955</v>
+      </c>
+    </row>
+    <row r="415" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A415" s="8">
         <v>414</v>
       </c>
@@ -21806,8 +23443,12 @@
         <f t="shared" si="27"/>
         <v>87.484010514750153</v>
       </c>
-    </row>
-    <row r="416" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O415" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>75.843407375587617</v>
+      </c>
+    </row>
+    <row r="416" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A416" s="8">
         <v>415</v>
       </c>
@@ -21856,8 +23497,12 @@
         <f t="shared" si="27"/>
         <v>86.512894708361898</v>
       </c>
-    </row>
-    <row r="417" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O416" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>87.596712688326193</v>
+      </c>
+    </row>
+    <row r="417" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A417" s="8">
         <v>416</v>
       </c>
@@ -21906,8 +23551,12 @@
         <f t="shared" si="27"/>
         <v>87.420241109278933</v>
       </c>
-    </row>
-    <row r="418" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O417" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>100.50775725481455</v>
+      </c>
+    </row>
+    <row r="418" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A418" s="8">
         <v>417</v>
       </c>
@@ -21956,8 +23605,12 @@
         <f t="shared" si="27"/>
         <v>91.980594706483032</v>
       </c>
-    </row>
-    <row r="419" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O418" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>107.89342136695882</v>
+      </c>
+    </row>
+    <row r="419" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A419" s="8">
         <v>418</v>
       </c>
@@ -22006,8 +23659,12 @@
         <f t="shared" si="27"/>
         <v>95.432319434854534</v>
       </c>
-    </row>
-    <row r="420" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O419" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>100.82338579068434</v>
+      </c>
+    </row>
+    <row r="420" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A420" s="8">
         <v>419</v>
       </c>
@@ -22056,8 +23713,12 @@
         <f t="shared" si="27"/>
         <v>96.014734555658251</v>
       </c>
-    </row>
-    <row r="421" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O420" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>88.56050644928942</v>
+      </c>
+    </row>
+    <row r="421" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A421" s="8">
         <v>420</v>
       </c>
@@ -22106,8 +23767,12 @@
         <f t="shared" si="27"/>
         <v>93.924522760814895</v>
       </c>
-    </row>
-    <row r="422" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O421" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>85.193659104705006</v>
+      </c>
+    </row>
+    <row r="422" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A422" s="8">
         <v>421</v>
       </c>
@@ -22156,8 +23821,12 @@
         <f t="shared" si="27"/>
         <v>90.251397047263893</v>
       </c>
-    </row>
-    <row r="423" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O422" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>78.127099143906634</v>
+      </c>
+    </row>
+    <row r="423" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A423" s="8">
         <v>422</v>
       </c>
@@ -22206,8 +23875,12 @@
         <f t="shared" si="27"/>
         <v>85.595495204036197</v>
       </c>
-    </row>
-    <row r="424" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O423" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>67.495868563484208</v>
+      </c>
+    </row>
+    <row r="424" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A424" s="8">
         <v>423</v>
       </c>
@@ -22256,8 +23929,12 @@
         <f t="shared" si="27"/>
         <v>78.409859156664865</v>
       </c>
-    </row>
-    <row r="425" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O424" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>51.552261886662876</v>
+      </c>
+    </row>
+    <row r="425" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A425" s="8">
         <v>424</v>
       </c>
@@ -22306,8 +23983,12 @@
         <f t="shared" si="27"/>
         <v>67.781199223406873</v>
       </c>
-    </row>
-    <row r="426" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O425" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>27.409555392298842</v>
+      </c>
+    </row>
+    <row r="426" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A426" s="8">
         <v>425</v>
       </c>
@@ -22356,8 +24037,12 @@
         <f t="shared" si="27"/>
         <v>56.559980646206476</v>
       </c>
-    </row>
-    <row r="427" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O426" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>24.575930484340162</v>
+      </c>
+    </row>
+    <row r="427" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A427" s="8">
         <v>426</v>
       </c>
@@ -22406,8 +24091,12 @@
         <f t="shared" si="27"/>
         <v>48.718630715755268</v>
       </c>
-    </row>
-    <row r="428" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O427" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>40.362569394421115</v>
+      </c>
+    </row>
+    <row r="428" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A428" s="8">
         <v>427</v>
       </c>
@@ -22456,8 +24145,12 @@
         <f t="shared" si="27"/>
         <v>48.21078085108666</v>
       </c>
-    </row>
-    <row r="429" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O428" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>61.97974335492178</v>
+      </c>
+    </row>
+    <row r="429" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A429" s="8">
         <v>428</v>
       </c>
@@ -22506,8 +24199,12 @@
         <f t="shared" si="27"/>
         <v>55.029445376554087</v>
       </c>
-    </row>
-    <row r="430" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O429" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>89.004981752851862</v>
+      </c>
+    </row>
+    <row r="430" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A430" s="8">
         <v>429</v>
       </c>
@@ -22556,8 +24253,12 @@
         <f t="shared" si="27"/>
         <v>64.677593456977107</v>
       </c>
-    </row>
-    <row r="431" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O430" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>95.277976635784654</v>
+      </c>
+    </row>
+    <row r="431" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A431" s="8">
         <v>430</v>
       </c>
@@ -22606,8 +24307,12 @@
         <f t="shared" si="27"/>
         <v>71.335540085774099</v>
       </c>
-    </row>
-    <row r="432" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O431" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>75.651744544719776</v>
+      </c>
+    </row>
+    <row r="432" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A432" s="8">
         <v>431</v>
       </c>
@@ -22656,8 +24361,12 @@
         <f t="shared" si="27"/>
         <v>73.534271920266747</v>
       </c>
-    </row>
-    <row r="433" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O432" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>71.783915175860272</v>
+      </c>
+    </row>
+    <row r="433" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A433" s="8">
         <v>432</v>
       </c>
@@ -22706,8 +24415,12 @@
         <f t="shared" si="27"/>
         <v>73.725756359884684</v>
       </c>
-    </row>
-    <row r="434" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O433" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>78.905010786530994</v>
+      </c>
+    </row>
+    <row r="434" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A434" s="8">
         <v>433</v>
       </c>
@@ -22756,8 +24469,12 @@
         <f t="shared" si="27"/>
         <v>79.369516964731545</v>
       </c>
-    </row>
-    <row r="435" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O434" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>110.37763623042676</v>
+      </c>
+    </row>
+    <row r="435" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A435" s="8">
         <v>434</v>
       </c>
@@ -22806,8 +24523,12 @@
         <f t="shared" si="27"/>
         <v>85.023842343073781</v>
       </c>
-    </row>
-    <row r="436" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O435" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>99.693702735326184</v>
+      </c>
+    </row>
+    <row r="436" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A436" s="8">
         <v>435</v>
       </c>
@@ -22856,8 +24577,12 @@
         <f t="shared" si="27"/>
         <v>87.76125306982884</v>
       </c>
-    </row>
-    <row r="437" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O436" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>75.470713907438352</v>
+      </c>
+    </row>
+    <row r="437" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A437" s="8">
         <v>436</v>
       </c>
@@ -22906,8 +24631,12 @@
         <f t="shared" si="27"/>
         <v>82.782747303778748</v>
       </c>
-    </row>
-    <row r="438" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O437" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>58.744623657881476</v>
+      </c>
+    </row>
+    <row r="438" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A438" s="8">
         <v>437</v>
       </c>
@@ -22956,8 +24685,12 @@
         <f t="shared" si="27"/>
         <v>74.727090152699404</v>
       </c>
-    </row>
-    <row r="439" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O438" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>47.786292756360837</v>
+      </c>
+    </row>
+    <row r="439" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A439" s="8">
         <v>438</v>
       </c>
@@ -23006,8 +24739,12 @@
         <f t="shared" si="27"/>
         <v>68.159769090874391</v>
       </c>
-    </row>
-    <row r="440" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O439" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>55.567792308922094</v>
+      </c>
+    </row>
+    <row r="440" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A440" s="8">
         <v>439</v>
       </c>
@@ -23056,8 +24793,12 @@
         <f t="shared" si="27"/>
         <v>64.387412433216497</v>
       </c>
-    </row>
-    <row r="441" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O440" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>61.584083480084956</v>
+      </c>
+    </row>
+    <row r="441" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A441" s="8">
         <v>440</v>
       </c>
@@ -23106,8 +24847,12 @@
         <f t="shared" si="27"/>
         <v>65.758653618844406</v>
       </c>
-    </row>
-    <row r="442" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O441" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>78.064336494722028</v>
+      </c>
+    </row>
+    <row r="442" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A442" s="8">
         <v>441</v>
       </c>
@@ -23156,8 +24901,12 @@
         <f t="shared" si="27"/>
         <v>68.100417487910633</v>
       </c>
-    </row>
-    <row r="443" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O442" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>76.762370336445628</v>
+      </c>
+    </row>
+    <row r="443" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A443" s="8">
         <v>442</v>
       </c>
@@ -23206,8 +24955,12 @@
         <f t="shared" si="27"/>
         <v>71.274058588706581</v>
       </c>
-    </row>
-    <row r="444" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O443" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>76.373561076268373</v>
+      </c>
+    </row>
+    <row r="444" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A444" s="8">
         <v>443</v>
       </c>
@@ -23256,8 +25009,12 @@
         <f t="shared" si="27"/>
         <v>67.371224020775088</v>
       </c>
-    </row>
-    <row r="445" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O444" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>39.713684579477132</v>
+      </c>
+    </row>
+    <row r="445" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A445" s="8">
         <v>444</v>
       </c>
@@ -23306,8 +25063,12 @@
         <f t="shared" si="27"/>
         <v>57.877581560980794</v>
       </c>
-    </row>
-    <row r="446" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O445" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>11.765260052156705</v>
+      </c>
+    </row>
+    <row r="446" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A446" s="8">
         <v>445</v>
       </c>
@@ -23356,8 +25117,12 @@
         <f t="shared" si="27"/>
         <v>42.972118350210771</v>
       </c>
-    </row>
-    <row r="447" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O446" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>-1.1717273436702271</v>
+      </c>
+    </row>
+    <row r="447" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A447" s="8">
         <v>446</v>
       </c>
@@ -23406,8 +25171,12 @@
         <f t="shared" si="27"/>
         <v>32.190557310413169</v>
       </c>
-    </row>
-    <row r="448" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O447" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>13.040968642022563</v>
+      </c>
+    </row>
+    <row r="448" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A448" s="8">
         <v>447</v>
       </c>
@@ -23456,8 +25225,12 @@
         <f t="shared" si="27"/>
         <v>24.390564097957451</v>
       </c>
-    </row>
-    <row r="449" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O448" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>8.539356066101945</v>
+      </c>
+    </row>
+    <row r="449" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A449" s="8">
         <v>448</v>
       </c>
@@ -23506,8 +25279,12 @@
         <f t="shared" si="27"/>
         <v>18.88285433624128</v>
       </c>
-    </row>
-    <row r="450" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O449" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>-2.5625871711767942</v>
+      </c>
+    </row>
+    <row r="450" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A450" s="8">
         <v>449</v>
       </c>
@@ -23556,8 +25333,12 @@
         <f t="shared" si="27"/>
         <v>14.17875115226982</v>
       </c>
-    </row>
-    <row r="451" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O450" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>6.7276523025661241</v>
+      </c>
+    </row>
+    <row r="451" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A451" s="8">
         <v>450</v>
       </c>
@@ -23606,8 +25387,12 @@
         <f t="shared" si="27"/>
         <v>13.367856410231257</v>
       </c>
-    </row>
-    <row r="452" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O451" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>23.286718763207279</v>
+      </c>
+    </row>
+    <row r="452" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A452" s="8">
         <v>451</v>
       </c>
@@ -23656,8 +25441,12 @@
         <f t="shared" si="27"/>
         <v>19.017237905350608</v>
       </c>
-    </row>
-    <row r="453" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O452" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>48.013079146678685</v>
+      </c>
+    </row>
+    <row r="453" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A453" s="8">
         <v>452</v>
       </c>
@@ -23706,8 +25495,12 @@
         <f t="shared" si="27"/>
         <v>26.868052440057806</v>
       </c>
-    </row>
-    <row r="454" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O453" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>52.0063805393549</v>
+      </c>
+    </row>
+    <row r="454" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A454" s="8">
         <v>453</v>
       </c>
@@ -23756,8 +25549,12 @@
         <f t="shared" si="27"/>
         <v>34.031204825282849</v>
       </c>
-    </row>
-    <row r="455" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O454" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>46.428393400129536</v>
+      </c>
+    </row>
+    <row r="455" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A455" s="8">
         <v>454</v>
       </c>
@@ -23806,8 +25603,12 @@
         <f t="shared" si="27"/>
         <v>35.172723194257493</v>
       </c>
-    </row>
-    <row r="456" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O455" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>25.97577388963667</v>
+      </c>
+    </row>
+    <row r="456" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A456" s="8">
         <v>455</v>
       </c>
@@ -23856,8 +25657,12 @@
         <f t="shared" si="27"/>
         <v>31.478989083295932</v>
       </c>
-    </row>
-    <row r="457" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O456" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>9.5409002542246171</v>
+      </c>
+    </row>
+    <row r="457" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A457" s="8">
         <v>456</v>
       </c>
@@ -23906,8 +25711,12 @@
         <f t="shared" si="27"/>
         <v>26.332891203568266</v>
       </c>
-    </row>
-    <row r="458" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O457" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>15.51013972600974</v>
+      </c>
+    </row>
+    <row r="458" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A458" s="8">
         <v>457</v>
       </c>
@@ -23956,8 +25765,12 @@
         <f t="shared" si="27"/>
         <v>20.616017157081064</v>
       </c>
-    </row>
-    <row r="459" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O458" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>3.6373195456046901</v>
+      </c>
+    </row>
+    <row r="459" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A459" s="8">
         <v>458</v>
       </c>
@@ -24006,8 +25819,12 @@
         <f t="shared" si="27"/>
         <v>17.761805121232413</v>
       </c>
-    </row>
-    <row r="460" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O459" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>11.287359855713817</v>
+      </c>
+    </row>
+    <row r="460" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A460" s="8">
         <v>459</v>
       </c>
@@ -24056,8 +25873,12 @@
         <f t="shared" si="27"/>
         <v>14.204862129515993</v>
       </c>
-    </row>
-    <row r="461" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O460" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>7.7537109486664981</v>
+      </c>
+    </row>
+    <row r="461" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A461" s="8">
         <v>460</v>
       </c>
@@ -24106,8 +25927,12 @@
         <f t="shared" si="27"/>
         <v>14.61150631051361</v>
       </c>
-    </row>
-    <row r="462" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O461" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>19.306138867718136</v>
+      </c>
+    </row>
+    <row r="462" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A462" s="8">
         <v>461</v>
       </c>
@@ -24156,8 +25981,12 @@
         <f t="shared" si="27"/>
         <v>16.461815241200679</v>
       </c>
-    </row>
-    <row r="463" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O462" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>30.5401199919609</v>
+      </c>
+    </row>
+    <row r="463" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A463" s="8">
         <v>462</v>
       </c>
@@ -24206,8 +26035,12 @@
         <f t="shared" si="27"/>
         <v>23.847593288058864</v>
       </c>
-    </row>
-    <row r="464" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O463" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>54.940251053304472</v>
+      </c>
+    </row>
+    <row r="464" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A464" s="8">
         <v>463</v>
       </c>
@@ -24256,8 +26089,12 @@
         <f t="shared" si="27"/>
         <v>35.341359901596839</v>
       </c>
-    </row>
-    <row r="465" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O464" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>81.290331207393464</v>
+      </c>
+    </row>
+    <row r="465" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A465" s="8">
         <v>464</v>
       </c>
@@ -24306,8 +26143,12 @@
         <f t="shared" si="27"/>
         <v>47.325229354825147</v>
       </c>
-    </row>
-    <row r="466" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O465" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>76.668116843766668</v>
+      </c>
+    </row>
+    <row r="466" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A466" s="8">
         <v>465</v>
       </c>
@@ -24356,8 +26197,12 @@
         <f t="shared" si="31"/>
         <v>56.395037963854186</v>
       </c>
-    </row>
-    <row r="467" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O466" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>71.473639182975191</v>
+      </c>
+    </row>
+    <row r="467" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A467" s="8">
         <v>466</v>
       </c>
@@ -24406,8 +26251,12 @@
         <f t="shared" si="31"/>
         <v>61.246366640481789</v>
       </c>
-    </row>
-    <row r="468" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O467" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>73.142275819271916</v>
+      </c>
+    </row>
+    <row r="468" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A468" s="8">
         <v>467</v>
       </c>
@@ -24456,8 +26305,12 @@
         <f t="shared" si="31"/>
         <v>68.733673845038425</v>
       </c>
-    </row>
-    <row r="469" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O468" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>101.23699270434992</v>
+      </c>
+    </row>
+    <row r="469" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A469" s="8">
         <v>468</v>
       </c>
@@ -24506,8 +26359,12 @@
         <f t="shared" si="31"/>
         <v>78.457292738133219</v>
       </c>
-    </row>
-    <row r="470" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O469" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>114.86169967227033</v>
+      </c>
+    </row>
+    <row r="470" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A470" s="8">
         <v>469</v>
       </c>
@@ -24556,8 +26413,12 @@
         <f t="shared" si="31"/>
         <v>87.841591968423657</v>
       </c>
-    </row>
-    <row r="471" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O470" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>104.41051823600205</v>
+      </c>
+    </row>
+    <row r="471" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A471" s="8">
         <v>470</v>
       </c>
@@ -24606,8 +26467,12 @@
         <f t="shared" si="31"/>
         <v>87.985554146820675</v>
       </c>
-    </row>
-    <row r="472" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O471" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>64.02889170635865</v>
+      </c>
+    </row>
+    <row r="472" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A472" s="8">
         <v>471</v>
       </c>
@@ -24656,8 +26521,12 @@
         <f t="shared" si="31"/>
         <v>80.06370205331153</v>
       </c>
-    </row>
-    <row r="473" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O472" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>40.352212200331365</v>
+      </c>
+    </row>
+    <row r="473" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A473" s="8">
         <v>472</v>
       </c>
@@ -24706,8 +26575,12 @@
         <f t="shared" si="31"/>
         <v>67.284838795630151</v>
       </c>
-    </row>
-    <row r="474" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O473" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>30.514255262456686</v>
+      </c>
+    </row>
+    <row r="474" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A474" s="8">
         <v>473</v>
       </c>
@@ -24756,8 +26629,12 @@
         <f t="shared" si="31"/>
         <v>59.195310418331985</v>
       </c>
-    </row>
-    <row r="475" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O474" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>48.803623767652539</v>
+      </c>
+    </row>
+    <row r="475" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A475" s="8">
         <v>474</v>
       </c>
@@ -24806,8 +26683,12 @@
         <f t="shared" si="31"/>
         <v>55.661904602403375</v>
       </c>
-    </row>
-    <row r="476" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O475" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>57.355154758790107</v>
+      </c>
+    </row>
+    <row r="476" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A476" s="8">
         <v>475</v>
       </c>
@@ -24856,8 +26737,12 @@
         <f t="shared" si="31"/>
         <v>52.31439336085856</v>
       </c>
-    </row>
-    <row r="477" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O476" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>30.327544958096524</v>
+      </c>
+    </row>
+    <row r="477" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A477" s="8">
         <v>476</v>
       </c>
@@ -24906,8 +26791,12 @@
         <f t="shared" si="31"/>
         <v>42.483274904121622</v>
       </c>
-    </row>
-    <row r="478" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O477" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>-6.2523713145591557</v>
+      </c>
+    </row>
+    <row r="478" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A478" s="8">
         <v>477</v>
       </c>
@@ -24956,8 +26845,12 @@
         <f t="shared" si="31"/>
         <v>27.122331076119888</v>
       </c>
-    </row>
-    <row r="479" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O478" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>-23.81419264065849</v>
+      </c>
+    </row>
+    <row r="479" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A479" s="8">
         <v>478</v>
       </c>
@@ -25006,8 +26899,12 @@
         <f t="shared" si="31"/>
         <v>13.98587530307225</v>
       </c>
-    </row>
-    <row r="480" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O479" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>-11.243520883759619</v>
+      </c>
+    </row>
+    <row r="480" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A480" s="8">
         <v>479</v>
       </c>
@@ -25056,8 +26953,12 @@
         <f t="shared" si="31"/>
         <v>9.2101538894308081</v>
       </c>
-    </row>
-    <row r="481" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O480" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>17.312377992049502</v>
+      </c>
+    </row>
+    <row r="481" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A481" s="8">
         <v>480</v>
       </c>
@@ -25106,8 +27007,12 @@
         <f t="shared" si="31"/>
         <v>11.914692348241871</v>
       </c>
-    </row>
-    <row r="482" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O481" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>30.941930944397114</v>
+      </c>
+    </row>
+    <row r="482" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A482" s="8">
         <v>481</v>
       </c>
@@ -25156,8 +27061,12 @@
         <f t="shared" si="31"/>
         <v>23.074382740465765</v>
       </c>
-    </row>
-    <row r="483" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O482" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>71.01667777146838</v>
+      </c>
+    </row>
+    <row r="483" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A483" s="8">
         <v>482</v>
       </c>
@@ -25206,8 +27115,12 @@
         <f t="shared" si="31"/>
         <v>36.911077570690757</v>
       </c>
-    </row>
-    <row r="484" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O483" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>86.440784101554542</v>
+      </c>
+    </row>
+    <row r="484" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A484" s="8">
         <v>483</v>
       </c>
@@ -25256,8 +27169,12 @@
         <f t="shared" si="31"/>
         <v>55.088196310804278</v>
       </c>
-    </row>
-    <row r="485" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O484" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>108.18899168029401</v>
+      </c>
+    </row>
+    <row r="485" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A485" s="8">
         <v>484</v>
       </c>
@@ -25306,8 +27223,12 @@
         <f t="shared" si="31"/>
         <v>69.695065390111964</v>
       </c>
-    </row>
-    <row r="486" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O485" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>109.23713418594522</v>
+      </c>
+    </row>
+    <row r="486" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A486" s="8">
         <v>485</v>
       </c>
@@ -25356,8 +27277,12 @@
         <f t="shared" si="31"/>
         <v>76.620464492712259</v>
       </c>
-    </row>
-    <row r="487" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O486" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>69.350602180914194</v>
+      </c>
+    </row>
+    <row r="487" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A487" s="8">
         <v>486</v>
       </c>
@@ -25406,8 +27331,12 @@
         <f t="shared" si="31"/>
         <v>71.950665055173332</v>
       </c>
-    </row>
-    <row r="488" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O487" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>32.435859253705559</v>
+      </c>
+    </row>
+    <row r="488" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A488" s="8">
         <v>487</v>
       </c>
@@ -25456,8 +27385,12 @@
         <f t="shared" si="31"/>
         <v>54.208007278002732</v>
       </c>
-    </row>
-    <row r="489" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O488" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>-19.472669584371772</v>
+      </c>
+    </row>
+    <row r="489" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A489" s="8">
         <v>488</v>
       </c>
@@ -25506,8 +27439,12 @@
         <f t="shared" si="31"/>
         <v>37.533823658691034</v>
       </c>
-    </row>
-    <row r="490" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O489" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>-2.5437687248486895</v>
+      </c>
+    </row>
+    <row r="490" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A490" s="8">
         <v>489</v>
       </c>
@@ -25556,8 +27493,12 @@
         <f t="shared" si="31"/>
         <v>24.233189283713717</v>
       </c>
-    </row>
-    <row r="491" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O490" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>8.1651014218289575</v>
+      </c>
+    </row>
+    <row r="491" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A491" s="8">
         <v>490</v>
       </c>
@@ -25606,8 +27547,12 @@
         <f t="shared" si="31"/>
         <v>23.432948339153143</v>
       </c>
-    </row>
-    <row r="492" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O491" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>34.875279792282214</v>
+      </c>
+    </row>
+    <row r="492" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A492" s="8">
         <v>491</v>
       </c>
@@ -25656,8 +27601,12 @@
         <f t="shared" si="31"/>
         <v>25.121144835407623</v>
       </c>
-    </row>
-    <row r="493" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O492" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>37.475357388008469</v>
+      </c>
+    </row>
+    <row r="493" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A493" s="8">
         <v>492</v>
       </c>
@@ -25706,8 +27655,12 @@
         <f t="shared" si="31"/>
         <v>26.708496732026202</v>
       </c>
-    </row>
-    <row r="494" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O493" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>17.500653594771187</v>
+      </c>
+    </row>
+    <row r="494" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A494" s="8">
         <v>493</v>
       </c>
@@ -25756,8 +27709,12 @@
         <f t="shared" si="31"/>
         <v>22.776839512820164</v>
       </c>
-    </row>
-    <row r="495" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O494" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>0.80258247209383171</v>
+      </c>
+    </row>
+    <row r="495" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A495" s="8">
         <v>494</v>
       </c>
@@ -25806,8 +27763,12 @@
         <f t="shared" si="31"/>
         <v>15.474439428566873</v>
       </c>
-    </row>
-    <row r="496" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O495" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>-8.9528325565896587</v>
+      </c>
+    </row>
+    <row r="496" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A496" s="8">
         <v>495</v>
       </c>
@@ -25856,8 +27817,12 @@
         <f t="shared" si="31"/>
         <v>9.7745941683781297</v>
       </c>
-    </row>
-    <row r="497" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O496" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>6.9851380368660898E-2</v>
+      </c>
+    </row>
+    <row r="497" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A497" s="8">
         <v>496</v>
       </c>
@@ -25906,8 +27871,12 @@
         <f t="shared" si="31"/>
         <v>6.8288920328159612</v>
       </c>
-    </row>
-    <row r="498" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O497" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>6.1871582120427249</v>
+      </c>
+    </row>
+    <row r="498" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A498" s="8">
         <v>497</v>
       </c>
@@ -25956,8 +27925,12 @@
         <f t="shared" si="31"/>
         <v>6.0580400351900714</v>
       </c>
-    </row>
-    <row r="499" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O498" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>2.9422982515309357</v>
+      </c>
+    </row>
+    <row r="499" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A499" s="8">
         <v>498</v>
       </c>
@@ -26006,8 +27979,12 @@
         <f t="shared" si="31"/>
         <v>4.8874547335211327</v>
       </c>
-    </row>
-    <row r="500" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O499" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>-0.69113746493779793</v>
+      </c>
+    </row>
+    <row r="500" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A500" s="8">
         <v>499</v>
       </c>
@@ -26056,8 +28033,12 @@
         <f t="shared" si="31"/>
         <v>6.7548907092234183</v>
       </c>
-    </row>
-    <row r="501" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O500" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>23.14208464054839</v>
+      </c>
+    </row>
+    <row r="501" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A501" s="8">
         <v>500</v>
       </c>
@@ -26106,8 +28087,12 @@
         <f t="shared" si="31"/>
         <v>13.377506007604916</v>
       </c>
-    </row>
-    <row r="502" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O501" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>47.90690399213473</v>
+      </c>
+    </row>
+    <row r="502" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A502" s="8">
         <v>501</v>
       </c>
@@ -26156,8 +28141,12 @@
         <f t="shared" si="31"/>
         <v>25.261420045361444</v>
       </c>
-    </row>
-    <row r="503" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O502" s="13">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>65.516158251190319</v>
+      </c>
+    </row>
+    <row r="503" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A503" s="8">
         <v>502</v>
       </c>
@@ -26198,19 +28187,27 @@
         <f>100*(testdata[[#This Row],[close]]-testdata[[#This Row],[LL]])/(testdata[[#This Row],[HH]]-testdata[[#This Row],[LL]])</f>
         <v>47.987897125567308</v>
       </c>
-      <c r="M503" s="11">
+      <c r="M503" s="14">
         <f t="shared" si="31"/>
         <v>43.135349705670613</v>
       </c>
-      <c r="N503" s="11">
+      <c r="N503" s="14">
         <f t="shared" si="31"/>
         <v>35.567440385141069</v>
+      </c>
+      <c r="O503" s="14">
+        <f>3*testdata[[#This Row],[%K]]-2*testdata[[#This Row],[%D]]</f>
+        <v>58.271168346729695</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="J15:K503" formulaRange="1"/>
+    <ignoredError sqref="O19:O503" calculatedColumn="1"/>
+  </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
